--- a/process/data/seer-old/seer-old.xlsx
+++ b/process/data/seer-old/seer-old.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\myproject\guess-game\process\data\seer-old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1B3AF-D29E-460F-BD2D-BBA17792FF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9097FFB1-D558-409B-8578-06B6245CEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20990" yWindow="360" windowWidth="19200" windowHeight="11210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8232" yWindow="5388" windowWidth="19200" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
-    <sheet name="config" sheetId="3" r:id="rId3"/>
+    <sheet name="metadata" sheetId="4" r:id="rId3"/>
+    <sheet name="config" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$336</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1172">
   <si>
     <t>id</t>
   </si>
@@ -3531,9 +3532,6 @@
   </si>
   <si>
     <t>帕诺星系-双子阿尔法星</t>
-  </si>
-  <si>
-    <t>https://bkimg.cdn.bcebos.com/pic/54fbb2fb43166d224f4a437cfa741ef7905299227499</t>
   </si>
   <si>
     <t>帕诺星系-双子贝塔星</t>
@@ -4003,12 +4001,68 @@
   <si>
     <t>炎火猴</t>
   </si>
+  <si>
+    <t>/pic/youyou.png</t>
+  </si>
+  <si>
+    <t>/pic/yuexi.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛尔号怀旧版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://f02.img4399.com/ma/184050_logo2_1332.jpg?1744336549</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>001-334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的赛尔号精灵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seer-old</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4098,6 +4152,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4566,10 +4633,10 @@
         <v>864</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4593,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I328" sqref="I328"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -5886,7 +5953,7 @@
         <v>1146</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>9</v>
@@ -7821,8 +7888,8 @@
       <c r="I93" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>1150</v>
+      <c r="J93" s="5" t="s">
+        <v>1163</v>
       </c>
       <c r="K93" s="11"/>
     </row>
@@ -8303,7 +8370,7 @@
         <v>71</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>425</v>
@@ -8338,7 +8405,7 @@
         <v>208</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>428</v>
@@ -8373,7 +8440,7 @@
         <v>149</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>431</v>
@@ -8507,7 +8574,7 @@
         <v>71</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>444</v>
@@ -8542,7 +8609,7 @@
         <v>402</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>447</v>
@@ -8577,7 +8644,7 @@
         <v>440</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>450</v>
@@ -8612,7 +8679,7 @@
         <v>71</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>453</v>
@@ -8647,7 +8714,7 @@
         <v>412</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>456</v>
@@ -8781,7 +8848,7 @@
         <v>71</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>468</v>
@@ -8814,7 +8881,7 @@
         <v>208</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>471</v>
@@ -8847,7 +8914,7 @@
         <v>149</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>474</v>
@@ -9086,7 +9153,7 @@
         <v>71</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>500</v>
@@ -9119,7 +9186,7 @@
         <v>90</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>503</v>
@@ -9152,7 +9219,7 @@
         <v>94</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>506</v>
@@ -9185,7 +9252,7 @@
         <v>71</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>509</v>
@@ -9218,7 +9285,7 @@
         <v>128</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>512</v>
@@ -9350,7 +9417,7 @@
         <v>71</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>523</v>
@@ -9383,7 +9450,7 @@
         <v>208</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>526</v>
@@ -9416,7 +9483,7 @@
         <v>149</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>529</v>
@@ -10020,7 +10087,7 @@
         <v>71</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J158" s="8" t="s">
         <v>580</v>
@@ -10055,7 +10122,7 @@
         <v>128</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J159" s="8" t="s">
         <v>584</v>
@@ -10090,7 +10157,7 @@
         <v>71</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J160" s="8" t="s">
         <v>587</v>
@@ -10123,7 +10190,7 @@
         <v>165</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J161" s="8" t="s">
         <v>590</v>
@@ -10156,7 +10223,7 @@
         <v>440</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J162" s="8" t="s">
         <v>593</v>
@@ -10189,7 +10256,7 @@
         <v>71</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J163" s="8" t="s">
         <v>596</v>
@@ -10222,7 +10289,7 @@
         <v>402</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J164" s="8" t="s">
         <v>599</v>
@@ -10255,7 +10322,7 @@
         <v>227</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J165" s="8" t="s">
         <v>602</v>
@@ -10778,7 +10845,7 @@
         <v>71</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>646</v>
@@ -10811,7 +10878,7 @@
         <v>78</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>649</v>
@@ -10844,7 +10911,7 @@
         <v>227</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>652</v>
@@ -10982,7 +11049,7 @@
         <v>71</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>664</v>
@@ -11015,7 +11082,7 @@
         <v>250</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>667</v>
@@ -11048,7 +11115,7 @@
         <v>71</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>669</v>
@@ -11081,7 +11148,7 @@
         <v>128</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>672</v>
@@ -11621,7 +11688,7 @@
         <v>71</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>720</v>
@@ -11656,7 +11723,7 @@
         <v>250</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>724</v>
@@ -11691,7 +11758,7 @@
         <v>71</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J207" s="8" t="s">
         <v>727</v>
@@ -11724,7 +11791,7 @@
         <v>78</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J208" s="8" t="s">
         <v>730</v>
@@ -11757,7 +11824,7 @@
         <v>227</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J209" s="8" t="s">
         <v>733</v>
@@ -11790,7 +11857,7 @@
         <v>71</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J210" s="8" t="s">
         <v>736</v>
@@ -11823,7 +11890,7 @@
         <v>78</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>739</v>
@@ -11856,7 +11923,7 @@
         <v>227</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J212" s="8" t="s">
         <v>739</v>
@@ -12029,7 +12096,7 @@
         <v>71</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J217" s="8" t="s">
         <v>882</v>
@@ -12064,7 +12131,7 @@
         <v>128</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J218" s="8" t="s">
         <v>885</v>
@@ -12099,7 +12166,7 @@
         <v>71</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J219" s="8" t="s">
         <v>757</v>
@@ -12132,7 +12199,7 @@
         <v>128</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J220" s="8" t="s">
         <v>760</v>
@@ -12466,7 +12533,7 @@
         <v>71</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J230" s="8" t="s">
         <v>783</v>
@@ -12499,7 +12566,7 @@
         <v>412</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J231" s="8" t="s">
         <v>786</v>
@@ -12602,7 +12669,7 @@
         <v>71</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J234" s="8" t="s">
         <v>897</v>
@@ -12635,7 +12702,7 @@
         <v>78</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J235" s="8" t="s">
         <v>900</v>
@@ -12668,7 +12735,7 @@
         <v>227</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J236" s="8" t="s">
         <v>903</v>
@@ -12701,7 +12768,7 @@
         <v>71</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J237" s="8" t="s">
         <v>906</v>
@@ -12736,7 +12803,7 @@
         <v>910</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J238" s="8" t="s">
         <v>911</v>
@@ -12771,7 +12838,7 @@
         <v>71</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J239" s="8" t="s">
         <v>795</v>
@@ -12804,7 +12871,7 @@
         <v>165</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J240" s="8" t="s">
         <v>798</v>
@@ -12837,7 +12904,7 @@
         <v>485</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J241" s="8" t="s">
         <v>801</v>
@@ -12870,7 +12937,7 @@
         <v>71</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J242" s="8" t="s">
         <v>804</v>
@@ -12903,7 +12970,7 @@
         <v>165</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J243" s="8" t="s">
         <v>807</v>
@@ -12936,7 +13003,7 @@
         <v>485</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J244" s="8" t="s">
         <v>810</v>
@@ -12969,7 +13036,7 @@
         <v>71</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J245" s="8" t="s">
         <v>914</v>
@@ -13004,7 +13071,7 @@
         <v>402</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J246" s="8" t="s">
         <v>917</v>
@@ -13039,7 +13106,7 @@
         <v>440</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J247" s="8" t="s">
         <v>920</v>
@@ -13074,7 +13141,7 @@
         <v>71</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J248" s="8" t="s">
         <v>923</v>
@@ -13107,7 +13174,7 @@
         <v>165</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J249" s="8" t="s">
         <v>926</v>
@@ -13140,7 +13207,7 @@
         <v>485</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J250" s="8" t="s">
         <v>929</v>
@@ -13612,7 +13679,7 @@
         <v>71</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J264" s="8" t="s">
         <v>966</v>
@@ -13647,7 +13714,7 @@
         <v>165</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J265" s="8" t="s">
         <v>926</v>
@@ -13682,7 +13749,7 @@
         <v>485</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J266" s="8" t="s">
         <v>972</v>
@@ -13717,7 +13784,7 @@
         <v>71</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J267" s="8" t="s">
         <v>975</v>
@@ -13750,7 +13817,7 @@
         <v>412</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J268" s="8" t="s">
         <v>978</v>
@@ -13783,7 +13850,7 @@
         <v>71</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J269" s="8" t="s">
         <v>981</v>
@@ -13816,7 +13883,7 @@
         <v>128</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J270" s="8" t="s">
         <v>984</v>
@@ -13849,7 +13916,7 @@
         <v>71</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J271" s="8" t="s">
         <v>819</v>
@@ -13882,7 +13949,7 @@
         <v>381</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J272" s="8" t="s">
         <v>987</v>
@@ -13915,7 +13982,7 @@
         <v>381</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J273" s="8" t="s">
         <v>990</v>
@@ -13948,7 +14015,7 @@
         <v>381</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J274" s="8" t="s">
         <v>822</v>
@@ -13981,7 +14048,7 @@
         <v>71</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J275" s="8" t="s">
         <v>993</v>
@@ -14016,7 +14083,7 @@
         <v>773</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J276" s="8" t="s">
         <v>996</v>
@@ -14150,7 +14217,7 @@
         <v>71</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J280" s="8" t="s">
         <v>999</v>
@@ -14183,7 +14250,7 @@
         <v>402</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J281" s="8" t="s">
         <v>1002</v>
@@ -14216,7 +14283,7 @@
         <v>440</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J282" s="8" t="s">
         <v>1005</v>
@@ -14249,7 +14316,7 @@
         <v>71</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J283" s="8" t="s">
         <v>834</v>
@@ -14284,7 +14351,7 @@
         <v>145</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J284" s="8" t="s">
         <v>837</v>
@@ -14319,7 +14386,7 @@
         <v>840</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J285" s="8" t="s">
         <v>841</v>
@@ -14459,7 +14526,7 @@
         <v>71</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J289" s="8" t="s">
         <v>850</v>
@@ -14494,7 +14561,7 @@
         <v>128</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J290" s="8" t="s">
         <v>853</v>
@@ -14531,7 +14598,9 @@
       <c r="I291" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="J291" s="11"/>
+      <c r="J291" s="11" t="s">
+        <v>1164</v>
+      </c>
       <c r="K291" s="5" t="s">
         <v>190</v>
       </c>
@@ -14597,7 +14666,7 @@
         <v>71</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J293" s="8" t="s">
         <v>1013</v>
@@ -14630,7 +14699,7 @@
         <v>309</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J294" s="8" t="s">
         <v>1016</v>
@@ -14663,7 +14732,7 @@
         <v>71</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J295" s="8" t="s">
         <v>1019</v>
@@ -14698,7 +14767,7 @@
         <v>78</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J296" s="8" t="s">
         <v>1022</v>
@@ -14733,7 +14802,7 @@
         <v>227</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J297" s="8" t="s">
         <v>1025</v>
@@ -15123,7 +15192,7 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>1058</v>
@@ -16163,255 +16232,298 @@
     <hyperlink ref="J90" r:id="rId88" xr:uid="{E93085D6-2105-45A0-9FE6-04A449C960AA}"/>
     <hyperlink ref="J91" r:id="rId89" xr:uid="{0DFD17B6-9B52-423C-ADB0-243FCA30F99A}"/>
     <hyperlink ref="J92" r:id="rId90" xr:uid="{19BC06D2-D8ED-48E3-A925-D298F72FDDEF}"/>
-    <hyperlink ref="J93" r:id="rId91" xr:uid="{1E82C2A6-29E6-4FD2-9AD8-5355E5C18EB9}"/>
-    <hyperlink ref="J94" r:id="rId92" xr:uid="{E4703C55-04A5-4EFA-A2AE-3EFD34BC2064}"/>
-    <hyperlink ref="J95" r:id="rId93" xr:uid="{281A4A3F-C0AD-4D2A-BAF7-7C0435117952}"/>
-    <hyperlink ref="J96" r:id="rId94" xr:uid="{5A39CE67-4190-49D6-A449-72DCBD4BB4BE}"/>
-    <hyperlink ref="J97" r:id="rId95" xr:uid="{9A6C36D1-02A0-4691-862D-3AE647A83D7B}"/>
-    <hyperlink ref="J98" r:id="rId96" xr:uid="{CB4213E8-43F9-4DC8-AB56-60CF36AB12B0}"/>
-    <hyperlink ref="J99" r:id="rId97" xr:uid="{E0B5F22C-F3CE-4F1B-BF67-B7259B128C73}"/>
-    <hyperlink ref="J100" r:id="rId98" xr:uid="{66646DD8-83FA-4E73-BD6F-88C1AC1D8E7F}"/>
-    <hyperlink ref="J101" r:id="rId99" xr:uid="{54037946-3087-4099-8513-19F794F120F2}"/>
-    <hyperlink ref="J102" r:id="rId100" xr:uid="{A36FBAF3-59C0-4C08-BC19-86156089DE95}"/>
-    <hyperlink ref="J103" r:id="rId101" xr:uid="{AAC23A3F-B77B-4813-BC24-9A9BD105BFA8}"/>
-    <hyperlink ref="J104" r:id="rId102" xr:uid="{7C908970-0BEC-4264-A729-89796A2A6ED0}"/>
-    <hyperlink ref="J105" r:id="rId103" xr:uid="{A3EE4C1C-F523-466E-9741-6519B1CCDF4A}"/>
-    <hyperlink ref="J106" r:id="rId104" xr:uid="{E297C50A-5934-49E9-8945-8770CA95143F}"/>
-    <hyperlink ref="J107" r:id="rId105" xr:uid="{24A4ACBC-00DA-46D0-B004-114BDEDBD9F8}"/>
-    <hyperlink ref="J108" r:id="rId106" xr:uid="{18D0D779-17EC-42D3-8E02-227C0C21738D}"/>
-    <hyperlink ref="J109" r:id="rId107" xr:uid="{F479BEF8-30E3-4454-B37C-0282C133872E}"/>
-    <hyperlink ref="J110" r:id="rId108" xr:uid="{BE33A81A-AFB0-468B-A125-B71C1FA4D201}"/>
-    <hyperlink ref="J111" r:id="rId109" xr:uid="{1585BB50-337A-4728-9933-9450D0E77B18}"/>
-    <hyperlink ref="J112" r:id="rId110" xr:uid="{83FE6C41-1339-4228-B2CB-4D54C581389F}"/>
-    <hyperlink ref="J113" r:id="rId111" xr:uid="{981C3956-FA95-4E1A-A4B0-EACF986AD768}"/>
-    <hyperlink ref="J114" r:id="rId112" xr:uid="{EF88E3F8-B433-44DC-AA02-38299936EBD4}"/>
-    <hyperlink ref="J115" r:id="rId113" xr:uid="{24B33126-E92D-4197-9405-EE596D016C3B}"/>
-    <hyperlink ref="J116" r:id="rId114" xr:uid="{4CEDB4BB-71E0-4801-A77C-F3B809BE3EB3}"/>
-    <hyperlink ref="J117" r:id="rId115" xr:uid="{63E3FC32-47F3-49FB-8562-85AA1D2C6980}"/>
-    <hyperlink ref="J118" r:id="rId116" xr:uid="{24B71DB3-937B-4CBA-812A-FB57C1C61732}"/>
-    <hyperlink ref="J119" r:id="rId117" xr:uid="{CB54D463-FF06-4BCD-B5AA-3B3FF9A17BFA}"/>
-    <hyperlink ref="J120" r:id="rId118" xr:uid="{F61BE2C0-92B8-459D-9733-017E4F4994B8}"/>
-    <hyperlink ref="J121" r:id="rId119" xr:uid="{D5627FE6-F9C6-45C8-B54F-B612C57F6FB6}"/>
-    <hyperlink ref="J122" r:id="rId120" xr:uid="{1C966FA3-034D-4CB2-AC47-C6D54D89761A}"/>
-    <hyperlink ref="J123" r:id="rId121" xr:uid="{04CC30EE-F4D4-4624-AEA3-73259BBE1C87}"/>
-    <hyperlink ref="J124" r:id="rId122" xr:uid="{C81FDD09-1331-4FF1-AE70-1BF4DA7B9A21}"/>
-    <hyperlink ref="J125" r:id="rId123" xr:uid="{F11A5FF5-90FC-4880-BB70-C278F048652A}"/>
-    <hyperlink ref="J126" r:id="rId124" xr:uid="{20F7B25C-1B2D-4780-B9D7-709F54CE8988}"/>
-    <hyperlink ref="J127" r:id="rId125" xr:uid="{7E2486E0-06A3-4216-AD8C-1D5178C94BD9}"/>
-    <hyperlink ref="J128" r:id="rId126" xr:uid="{90DEFC6C-5AEA-4B44-AF3B-B8A2B430B177}"/>
-    <hyperlink ref="J129" r:id="rId127" xr:uid="{5C3043B7-34C3-4EF5-A4B1-6D871782F312}"/>
-    <hyperlink ref="J130" r:id="rId128" xr:uid="{84A4D49A-4B9B-4680-8413-989690488031}"/>
-    <hyperlink ref="J131" r:id="rId129" xr:uid="{644CCA96-51E4-48DC-82D7-3A954DA48D07}"/>
-    <hyperlink ref="J132" r:id="rId130" xr:uid="{39343C21-9281-48FF-9FA7-5108A50B396B}"/>
-    <hyperlink ref="J133" r:id="rId131" xr:uid="{AFBB093C-E06F-408C-B83C-3A2DDE5D065B}"/>
-    <hyperlink ref="J134" r:id="rId132" xr:uid="{D7DD0B24-602F-4C9C-A9EE-0757B8FFE8E2}"/>
-    <hyperlink ref="J135" r:id="rId133" xr:uid="{8987C102-0F7A-4471-92F5-FE07F4588EB2}"/>
-    <hyperlink ref="J136" r:id="rId134" xr:uid="{6F39B05B-F2FD-4155-AA01-CC77EA811086}"/>
-    <hyperlink ref="J137" r:id="rId135" xr:uid="{CF296D19-E6A9-4248-87CE-A3763E923CA0}"/>
-    <hyperlink ref="J138" r:id="rId136" xr:uid="{DC10BEE3-4704-4D23-98FF-937D965F6E8D}"/>
-    <hyperlink ref="J139" r:id="rId137" xr:uid="{7DFFD974-9B7F-4725-A47A-EA7A53947BA6}"/>
-    <hyperlink ref="J140" r:id="rId138" xr:uid="{8CCDEE13-8C2C-4208-897D-E3EBDF00AB43}"/>
-    <hyperlink ref="J141" r:id="rId139" xr:uid="{861B036D-BE31-4D10-800A-BBF631F2E7C2}"/>
-    <hyperlink ref="J142" r:id="rId140" xr:uid="{C0D6DB5B-F0F4-4DCF-89F0-217B46C63405}"/>
-    <hyperlink ref="J143" r:id="rId141" xr:uid="{5918E4BC-B9D7-436B-AF75-1DABD11AD154}"/>
-    <hyperlink ref="J144" r:id="rId142" xr:uid="{9AE492C2-4B8A-4401-82CD-C1C310E7B4EC}"/>
-    <hyperlink ref="J145" r:id="rId143" xr:uid="{7CD06202-8940-46A0-A362-3C3563C41472}"/>
-    <hyperlink ref="J146" r:id="rId144" xr:uid="{829FC3C2-F43B-4D32-AD7F-A69D9D55A0F9}"/>
-    <hyperlink ref="J147" r:id="rId145" xr:uid="{7ED6CA35-C5B0-4F8E-9BBA-717B9AA271AE}"/>
-    <hyperlink ref="J148" r:id="rId146" xr:uid="{5F80FDB0-B16F-43BA-815A-2B6377DA0ACD}"/>
-    <hyperlink ref="J149" r:id="rId147" xr:uid="{F86ABC67-D20E-4BA9-9629-E289F451A807}"/>
-    <hyperlink ref="J150" r:id="rId148" xr:uid="{F469866A-0D28-42ED-9687-2F48ED997B86}"/>
-    <hyperlink ref="J151" r:id="rId149" xr:uid="{909208E6-B890-47C8-BE77-E18E6DEEBE7B}"/>
-    <hyperlink ref="J152" r:id="rId150" xr:uid="{159D453D-4BC3-458A-8249-FC4ACF4CC611}"/>
-    <hyperlink ref="J153" r:id="rId151" xr:uid="{1A9FFF41-08DE-4C38-98C7-19850D2DB393}"/>
-    <hyperlink ref="J154" r:id="rId152" xr:uid="{BA36397E-62CF-4900-B8F1-09CF53E0C18E}"/>
-    <hyperlink ref="J155" r:id="rId153" xr:uid="{B0D8E330-A7A7-4392-A312-03B64A6AD279}"/>
-    <hyperlink ref="J156" r:id="rId154" xr:uid="{6BD0200A-0D06-43BD-B925-52550D4D302F}"/>
-    <hyperlink ref="J157" r:id="rId155" xr:uid="{F22BBF8E-BC5F-4C1B-B58E-611F6A5767F4}"/>
-    <hyperlink ref="J158" r:id="rId156" xr:uid="{D525791D-8714-4AA9-88D3-B6963E656F88}"/>
-    <hyperlink ref="J159" r:id="rId157" xr:uid="{E581217B-E39E-4FA4-AFB0-5C861FF4E73F}"/>
-    <hyperlink ref="J160" r:id="rId158" xr:uid="{B1A647E0-9007-465E-AEC4-8F94936B3944}"/>
-    <hyperlink ref="J161" r:id="rId159" xr:uid="{98CB1ABB-3894-4F15-8B22-1C6A9A28BE5C}"/>
-    <hyperlink ref="J162" r:id="rId160" xr:uid="{66F7AA12-32A1-4125-8742-45773EB569D0}"/>
-    <hyperlink ref="J163" r:id="rId161" xr:uid="{71A7CBFB-FFD5-4221-8FCF-5232A5D5CD78}"/>
-    <hyperlink ref="J164" r:id="rId162" xr:uid="{79849020-37D9-4D33-84CA-DAE75833DE73}"/>
-    <hyperlink ref="J165" r:id="rId163" xr:uid="{ABB5AA3A-51F2-4FD3-B010-984DD1DA4AC6}"/>
-    <hyperlink ref="J166" r:id="rId164" xr:uid="{56E5B821-33FD-4D0B-BA22-003B0AF75CEB}"/>
-    <hyperlink ref="J167" r:id="rId165" xr:uid="{11412DC1-E9F5-46A3-BC4F-EFA4FB3662C6}"/>
-    <hyperlink ref="J168" r:id="rId166" xr:uid="{2D930D30-7C6D-4CB5-B15D-346BE126CF58}"/>
-    <hyperlink ref="J169" r:id="rId167" xr:uid="{424B31B5-3F8D-4971-8E71-D02150096707}"/>
-    <hyperlink ref="J170" r:id="rId168" xr:uid="{36693023-F819-4493-B508-C960164685CB}"/>
-    <hyperlink ref="J171" r:id="rId169" xr:uid="{103A8D8F-BE53-46D0-A5C5-CEE9EAB825AA}"/>
-    <hyperlink ref="J172" r:id="rId170" xr:uid="{B32088A0-3EFD-4CDB-8A6F-C234D09C7E44}"/>
-    <hyperlink ref="J173" r:id="rId171" xr:uid="{E2A3A3DD-ECE7-4828-8FB5-D29927E1A056}"/>
-    <hyperlink ref="J174" r:id="rId172" xr:uid="{C5CDEA87-FAAD-4567-9442-F92A51B1BA97}"/>
-    <hyperlink ref="J175" r:id="rId173" xr:uid="{1A0CF53D-4995-4783-B629-48D4C98F52D0}"/>
-    <hyperlink ref="J176" r:id="rId174" xr:uid="{280FEEC0-3F7E-40CF-A54A-F4C9930B2B83}"/>
-    <hyperlink ref="J177" r:id="rId175" xr:uid="{FFB4A84F-FDF8-468D-9A45-E284AF159099}"/>
-    <hyperlink ref="J178" r:id="rId176" xr:uid="{F16E969D-740A-4F63-A198-3C7EBFD12486}"/>
-    <hyperlink ref="J179" r:id="rId177" xr:uid="{BDE7F88B-EB86-4A71-BDA2-0C562D74CF64}"/>
-    <hyperlink ref="J180" r:id="rId178" xr:uid="{F75BA1DE-A80F-4976-8DA5-7B1C2F2412D1}"/>
-    <hyperlink ref="J181" r:id="rId179" xr:uid="{B8D9B897-597E-4A14-82E7-F2F5AA25373F}"/>
-    <hyperlink ref="J182" r:id="rId180" xr:uid="{3BD4F78F-E6A8-4C8D-8FAD-B58410A5F5A2}"/>
-    <hyperlink ref="J183" r:id="rId181" xr:uid="{54CE3BF3-DE0A-4AAF-B3F1-96FCE5E69D57}"/>
-    <hyperlink ref="J184" r:id="rId182" xr:uid="{42407337-AE6A-44E6-ABAE-32C839596FAE}"/>
-    <hyperlink ref="J185" r:id="rId183" xr:uid="{5B36A2E9-2C41-47CE-9B88-EA76C4C53077}"/>
-    <hyperlink ref="J186" r:id="rId184" xr:uid="{EED9C87B-CDAA-4580-8B35-6E1E7C00DE00}"/>
-    <hyperlink ref="J187" r:id="rId185" xr:uid="{8F814E58-0650-4558-BC05-BED38BBBFE35}"/>
-    <hyperlink ref="J188" r:id="rId186" xr:uid="{F8606806-5632-4881-A73B-E4F5453F07C5}"/>
-    <hyperlink ref="J189" r:id="rId187" xr:uid="{9BAE1C21-F683-4776-85AF-E2EE34EB3E7F}"/>
-    <hyperlink ref="J190" r:id="rId188" xr:uid="{6A50FF83-BEF4-417F-84AB-C45606FBD673}"/>
-    <hyperlink ref="J191" r:id="rId189" xr:uid="{66888E01-C1B7-4B3D-BED0-4157C440D58B}"/>
-    <hyperlink ref="J192" r:id="rId190" xr:uid="{2AE2F336-94F9-4B8E-B1F6-E7C50F67D9E6}"/>
-    <hyperlink ref="J193" r:id="rId191" xr:uid="{7A55A024-31DC-4481-9935-A0A4AD62D576}"/>
-    <hyperlink ref="J194" r:id="rId192" xr:uid="{34AF6665-C3A1-44EA-804F-60346807AF68}"/>
-    <hyperlink ref="J195" r:id="rId193" xr:uid="{10BCEBA0-84D5-4D69-9B02-FB30F2CADC63}"/>
-    <hyperlink ref="J196" r:id="rId194" xr:uid="{9082F343-F1CE-4B8F-835B-354106F80BB2}"/>
-    <hyperlink ref="J197" r:id="rId195" xr:uid="{5B0BE325-C28E-4C5B-AC3E-9E7CED65C8DB}"/>
-    <hyperlink ref="J198" r:id="rId196" xr:uid="{03D17430-E085-4157-9EB3-2D2F124C381D}"/>
-    <hyperlink ref="J199" r:id="rId197" xr:uid="{35FCB3D1-B37F-4D91-B22F-378420E119AC}"/>
-    <hyperlink ref="J200" r:id="rId198" xr:uid="{900E7AB7-E60E-4664-9616-773700AA6819}"/>
-    <hyperlink ref="J201" r:id="rId199" xr:uid="{486E706B-F29A-44C2-B7E1-69F5ECE6A6FB}"/>
-    <hyperlink ref="J202" r:id="rId200" xr:uid="{D3E04074-792E-4224-9BD3-CD42721E7F20}"/>
-    <hyperlink ref="J203" r:id="rId201" xr:uid="{9821322A-77ED-4B31-9E1F-926B5BB1E729}"/>
-    <hyperlink ref="J204" r:id="rId202" xr:uid="{C1E77E04-2DFF-48FB-B2CB-2EEC140DC722}"/>
-    <hyperlink ref="J205" r:id="rId203" xr:uid="{2C54A54A-FF56-492F-A786-AD211CFA51F5}"/>
-    <hyperlink ref="J206" r:id="rId204" xr:uid="{D59F8382-E472-4117-8402-2F6D2187E20E}"/>
-    <hyperlink ref="J207" r:id="rId205" xr:uid="{26C6B752-B11D-4F8D-A96A-C02E2F74BAED}"/>
-    <hyperlink ref="J208" r:id="rId206" xr:uid="{B05AC845-F7F9-4EEB-B8CC-717F2A874FAB}"/>
-    <hyperlink ref="J209" r:id="rId207" xr:uid="{C5FCF4E6-A732-44D2-A7AF-972C310FAB6F}"/>
-    <hyperlink ref="J210" r:id="rId208" xr:uid="{16B30087-D93C-445E-8023-1BD82C49BBC6}"/>
-    <hyperlink ref="J211" r:id="rId209" xr:uid="{951D3EFF-E929-452E-9C13-5C4F9D5CA406}"/>
-    <hyperlink ref="J212" r:id="rId210" xr:uid="{AFD09656-4630-424F-BEB3-310770BB0C12}"/>
-    <hyperlink ref="J213" r:id="rId211" xr:uid="{11699955-2472-4FB9-961A-D62CD19D81A9}"/>
-    <hyperlink ref="J214" r:id="rId212" xr:uid="{548FA264-0EB4-4870-86B9-F29FC83D2C70}"/>
-    <hyperlink ref="J215" r:id="rId213" xr:uid="{F735D29B-556D-4F1D-8A59-941260D88BC2}"/>
-    <hyperlink ref="J216" r:id="rId214" xr:uid="{E8E3E81F-DB66-4132-9309-D728D8F3D691}"/>
-    <hyperlink ref="J217" r:id="rId215" xr:uid="{9E251341-A3A8-4FE9-94DA-CCCA5FFDE675}"/>
-    <hyperlink ref="J218" r:id="rId216" xr:uid="{7CCCDD9C-A588-480D-BC8C-BE2A5048647F}"/>
-    <hyperlink ref="J219" r:id="rId217" xr:uid="{2F0519BB-0EB8-443E-A917-97D859DDE75D}"/>
-    <hyperlink ref="J220" r:id="rId218" xr:uid="{C1FF29D1-E96C-4674-8CA9-7E6E866CA163}"/>
-    <hyperlink ref="J221" r:id="rId219" xr:uid="{6C50CA29-A479-4B64-9FC4-4BF021089C9C}"/>
-    <hyperlink ref="J222" r:id="rId220" xr:uid="{1CB8894A-8148-45A4-861F-EE492B4BAFFD}"/>
-    <hyperlink ref="J223" r:id="rId221" xr:uid="{61D6A196-0A03-41DF-AB52-EA8C01F8B948}"/>
-    <hyperlink ref="J224" r:id="rId222" xr:uid="{E23A74BC-061E-4742-9BC8-22AEB7F44355}"/>
-    <hyperlink ref="J225" r:id="rId223" xr:uid="{0FD66353-E30F-46AD-B7B9-E3827DC71BDA}"/>
-    <hyperlink ref="J226" r:id="rId224" xr:uid="{84AEE78B-46DF-4CEA-90E3-66ADF19DF2F2}"/>
-    <hyperlink ref="J227" r:id="rId225" xr:uid="{DF826529-8A64-4231-9570-17ECAC75B154}"/>
-    <hyperlink ref="J228" r:id="rId226" xr:uid="{4FA52F13-2243-4424-ABCA-05D6F2AA68F5}"/>
-    <hyperlink ref="J229" r:id="rId227" xr:uid="{3D53ED95-9AFC-426E-AE75-08DE7271713B}"/>
-    <hyperlink ref="J230" r:id="rId228" xr:uid="{26766B3F-DC85-4F7D-8D5F-5D96D2EC0C0F}"/>
-    <hyperlink ref="J231" r:id="rId229" xr:uid="{1247A391-4428-4EF1-8059-D163711B6C04}"/>
-    <hyperlink ref="J232" r:id="rId230" xr:uid="{CD634DAF-FC9E-4162-A9A5-2502E0539D30}"/>
-    <hyperlink ref="J233" r:id="rId231" xr:uid="{D07232F6-84A1-480A-825E-2594057D3D40}"/>
-    <hyperlink ref="J234" r:id="rId232" xr:uid="{6BC94CED-AA79-4836-AFC3-281373F22B0C}"/>
-    <hyperlink ref="J235" r:id="rId233" xr:uid="{F3C6FB9A-B68C-47D6-B87C-B108B04CA457}"/>
-    <hyperlink ref="J236" r:id="rId234" xr:uid="{12C5F5A4-BB0B-489C-A148-2797E3A867E7}"/>
-    <hyperlink ref="J237" r:id="rId235" xr:uid="{270AA255-0E90-4A17-BD14-B05824719790}"/>
-    <hyperlink ref="J238" r:id="rId236" xr:uid="{A7424A7B-2B9A-4E0B-AEBE-0BF33FA9F6ED}"/>
-    <hyperlink ref="J239" r:id="rId237" xr:uid="{C037D551-EEA9-4FB8-86B9-84D214594EED}"/>
-    <hyperlink ref="J240" r:id="rId238" xr:uid="{55983375-4073-40B2-ABA0-B5F2C6BAD4F6}"/>
-    <hyperlink ref="J241" r:id="rId239" xr:uid="{933C4DC3-48AF-4960-B3E3-3F6025BB70C7}"/>
-    <hyperlink ref="J242" r:id="rId240" xr:uid="{8685FC2A-9539-4333-9954-4C409539F7B8}"/>
-    <hyperlink ref="J243" r:id="rId241" xr:uid="{52B15642-1340-441A-977C-ED78325DBC7B}"/>
-    <hyperlink ref="J244" r:id="rId242" xr:uid="{A6D499D2-5FFF-41FA-9149-785973B5DB65}"/>
-    <hyperlink ref="J245" r:id="rId243" xr:uid="{8C2179D1-57AA-4558-8B23-4AA6C9C98D9A}"/>
-    <hyperlink ref="J246" r:id="rId244" xr:uid="{2AC5FCB4-BB3A-4D34-8F98-8DE6DC475C8D}"/>
-    <hyperlink ref="J247" r:id="rId245" xr:uid="{2FC2A01F-A15D-47C4-8D64-F143215BEC1C}"/>
-    <hyperlink ref="J248" r:id="rId246" xr:uid="{B640FC28-D5A8-4D18-8BC5-24E610B4F6A4}"/>
-    <hyperlink ref="J249" r:id="rId247" xr:uid="{BB55FCA3-A778-4D1B-A20D-1FD1381C03EE}"/>
-    <hyperlink ref="J250" r:id="rId248" xr:uid="{DF448022-2720-4EEF-8B5E-61CBCBBFBE72}"/>
-    <hyperlink ref="J251" r:id="rId249" xr:uid="{B2920937-0A3A-40AC-9DA2-EB8A0C76470E}"/>
-    <hyperlink ref="J252" r:id="rId250" xr:uid="{67E5FD4C-AF68-4AA3-B824-8A8603592121}"/>
-    <hyperlink ref="J253" r:id="rId251" xr:uid="{517550A1-D423-482E-90D3-323069FEA602}"/>
-    <hyperlink ref="J254" r:id="rId252" xr:uid="{016184AC-C8D8-4840-AD0D-9FA389B7BB17}"/>
-    <hyperlink ref="J255" r:id="rId253" xr:uid="{59244AF0-12B1-44F2-A173-5E3EEDCF110E}"/>
-    <hyperlink ref="J256" r:id="rId254" xr:uid="{C5899E11-1661-4117-9A45-ECCFBA3BD1E8}"/>
-    <hyperlink ref="J257" r:id="rId255" xr:uid="{E5B4E27D-2804-4958-A461-535286EE5681}"/>
-    <hyperlink ref="J258" r:id="rId256" xr:uid="{ADB8A268-3B99-4501-B72F-A212510FF848}"/>
-    <hyperlink ref="J259" r:id="rId257" xr:uid="{104B5263-C8F5-4011-866A-55BE152233CD}"/>
-    <hyperlink ref="J260" r:id="rId258" xr:uid="{CE59766A-0EA5-4D70-A1D5-7CBC754ECFDD}"/>
-    <hyperlink ref="J261" r:id="rId259" xr:uid="{637FCC85-83EF-41DD-9F6D-26800464C05E}"/>
-    <hyperlink ref="J262" r:id="rId260" xr:uid="{D0742A1B-CC45-4986-BBD3-EA187BC45A44}"/>
-    <hyperlink ref="J263" r:id="rId261" xr:uid="{A9DD9DD8-CD16-4910-9029-9D1B0C9004DC}"/>
-    <hyperlink ref="J264" r:id="rId262" xr:uid="{4B7AB24F-5A6A-4C86-9213-0A0E4BBA83EF}"/>
-    <hyperlink ref="J265" r:id="rId263" xr:uid="{D44CC95C-3CEB-467F-BCA8-8C771632DE4E}"/>
-    <hyperlink ref="J266" r:id="rId264" xr:uid="{475D939E-AE4F-4934-8ED7-65069B1AF64E}"/>
-    <hyperlink ref="J267" r:id="rId265" xr:uid="{D5CA70EB-3B59-4F06-9F1E-0A33E6FB7F3C}"/>
-    <hyperlink ref="J268" r:id="rId266" xr:uid="{E8E6A681-9B1B-498B-8AD6-371B4134CDCB}"/>
-    <hyperlink ref="J269" r:id="rId267" xr:uid="{B5745D5D-8F7A-4EA4-93E3-0696B2D97D0C}"/>
-    <hyperlink ref="J270" r:id="rId268" xr:uid="{ED37FD39-06E2-4AA6-90C1-379E94C2C1BE}"/>
-    <hyperlink ref="J271" r:id="rId269" xr:uid="{C3330A57-8F00-4882-8099-821B1406831C}"/>
-    <hyperlink ref="J272" r:id="rId270" xr:uid="{EC03F5DF-97AD-4AE2-9F30-6C59F8068D08}"/>
-    <hyperlink ref="J273" r:id="rId271" xr:uid="{9F746722-16E9-412D-966F-8D8832C66928}"/>
-    <hyperlink ref="J274" r:id="rId272" xr:uid="{801C47B3-A7A6-439F-B5E0-12A6941D3E69}"/>
-    <hyperlink ref="J275" r:id="rId273" xr:uid="{2EF70039-9A37-41CD-854F-C94B5EF998B5}"/>
-    <hyperlink ref="J276" r:id="rId274" xr:uid="{887F7088-48D6-45F5-A490-9DB60D248154}"/>
-    <hyperlink ref="J277" r:id="rId275" xr:uid="{5BCB4D72-1A40-494E-A966-DF68091012F6}"/>
-    <hyperlink ref="J278" r:id="rId276" xr:uid="{78233649-C6A2-4574-9C6A-6740A3FBA25C}"/>
-    <hyperlink ref="J279" r:id="rId277" xr:uid="{7E9C84E5-5485-4468-A36E-F406890E2E26}"/>
-    <hyperlink ref="J280" r:id="rId278" xr:uid="{46B2EF1E-44DB-40C4-B834-EDD5F9BED915}"/>
-    <hyperlink ref="J281" r:id="rId279" xr:uid="{E84E6ABF-0659-4180-8118-5E309F253E79}"/>
-    <hyperlink ref="J282" r:id="rId280" xr:uid="{AF36D6D9-FE68-4793-BA3A-02FD202E8D88}"/>
-    <hyperlink ref="J283" r:id="rId281" xr:uid="{4AD4921B-3888-4022-A466-F894FA5AAD82}"/>
-    <hyperlink ref="J284" r:id="rId282" xr:uid="{FDBF4FE0-A357-4C3B-A72C-13CF6ABEB66B}"/>
-    <hyperlink ref="J285" r:id="rId283" xr:uid="{CA3E55F1-78AA-45B0-91E8-0FF9DBA753B3}"/>
-    <hyperlink ref="J286" r:id="rId284" xr:uid="{F18E7B42-5C54-40B4-8496-67211876C586}"/>
-    <hyperlink ref="J287" r:id="rId285" xr:uid="{96AA2145-D1BD-428A-BFF5-65683D62DC9B}"/>
-    <hyperlink ref="J288" r:id="rId286" xr:uid="{1CCDA5AD-7499-4A4D-BD3F-452A5833D6F0}"/>
-    <hyperlink ref="J289" r:id="rId287" xr:uid="{4066831A-BD17-4C0C-BF99-DD2C841BDDBB}"/>
-    <hyperlink ref="J290" r:id="rId288" xr:uid="{C0EC8FE3-04AC-450B-AE6E-ACF23B936E94}"/>
-    <hyperlink ref="J292" r:id="rId289" xr:uid="{FD5FBF1C-CACB-49ED-852D-D60667A7956F}"/>
-    <hyperlink ref="J293" r:id="rId290" xr:uid="{76EED023-06A4-4699-9072-921ED676D0DB}"/>
-    <hyperlink ref="J294" r:id="rId291" xr:uid="{74DC1E84-FD8D-4C4E-8E04-CBD136E2807D}"/>
-    <hyperlink ref="J295" r:id="rId292" xr:uid="{360E94EC-88F3-4AFB-90B6-38D2A0600A82}"/>
-    <hyperlink ref="J296" r:id="rId293" xr:uid="{86E794C2-61CA-466B-BBCF-A370C0179F54}"/>
-    <hyperlink ref="J297" r:id="rId294" xr:uid="{6CD647CF-429D-4133-90F9-A363C6BBCCA9}"/>
-    <hyperlink ref="J298" r:id="rId295" xr:uid="{DEDAFFAC-EB4C-43F6-9008-8D60E91E9F7B}"/>
-    <hyperlink ref="J299" r:id="rId296" xr:uid="{53A47301-E1C6-4155-8A07-55DA82F7A993}"/>
-    <hyperlink ref="J300" r:id="rId297" xr:uid="{62C7D21A-B6E8-48E2-A01F-F77F03F5CB3F}"/>
-    <hyperlink ref="J301" r:id="rId298" xr:uid="{31090AEF-DC92-4C2E-8791-75B98D56EFC7}"/>
-    <hyperlink ref="J302" r:id="rId299" xr:uid="{019380E0-EE29-4116-8A06-893A1996FBE1}"/>
-    <hyperlink ref="J303" r:id="rId300" xr:uid="{C2A235D9-CC60-4369-980E-DD16A1C7324E}"/>
-    <hyperlink ref="J304" r:id="rId301" xr:uid="{FA9E4112-8993-4BC8-AE1F-02BE3D1310F6}"/>
-    <hyperlink ref="J305" r:id="rId302" xr:uid="{9E399DF1-EA3D-470E-9E43-44059BEFB2E0}"/>
-    <hyperlink ref="J306" r:id="rId303" xr:uid="{94ADD843-823F-4D8B-BBCD-1AD06BE3E49D}"/>
-    <hyperlink ref="J307" r:id="rId304" xr:uid="{A3157C24-68AC-4476-90F7-4ED7694BED7B}"/>
-    <hyperlink ref="J308" r:id="rId305" xr:uid="{801A0019-E0B9-4420-A7DF-051FDEF7D929}"/>
-    <hyperlink ref="J309" r:id="rId306" xr:uid="{F040A022-8349-4D25-98DA-5D4E98AEDAEC}"/>
-    <hyperlink ref="J310" r:id="rId307" xr:uid="{79F739A0-D2D7-4578-8F09-3B09F2CBB682}"/>
-    <hyperlink ref="J311" r:id="rId308" xr:uid="{8C098DEE-50C5-4925-BFCF-1C4CE40719A3}"/>
-    <hyperlink ref="J312" r:id="rId309" xr:uid="{CB11B142-2D6B-436A-A63B-F702A42F0BBB}"/>
-    <hyperlink ref="J313" r:id="rId310" xr:uid="{8ADD3CC5-5790-41FF-B643-F74D014EC392}"/>
-    <hyperlink ref="J314" r:id="rId311" xr:uid="{1E32C2D5-F4B7-4CCF-B143-87A7E8DE9C3A}"/>
-    <hyperlink ref="J315" r:id="rId312" xr:uid="{944C94CD-00F6-4C6F-99B5-7FA6A485B790}"/>
-    <hyperlink ref="J316" r:id="rId313" xr:uid="{50192CFD-7B46-4503-9629-C0128A8FD614}"/>
-    <hyperlink ref="J317" r:id="rId314" xr:uid="{84F5D7B6-BB69-4EBB-9790-95EB37FD97C0}"/>
-    <hyperlink ref="J318" r:id="rId315" xr:uid="{DEEFCE0B-E03B-41FF-8681-02008AE9DF43}"/>
-    <hyperlink ref="J319" r:id="rId316" xr:uid="{9A9CF037-2580-4F3B-B7BB-E67AAEF2A1AB}"/>
-    <hyperlink ref="J320" r:id="rId317" xr:uid="{A1B65350-C2DA-4896-8A10-7A37FAA83503}"/>
-    <hyperlink ref="J321" r:id="rId318" xr:uid="{C1E65609-DB4C-44D4-89AC-B45FD97830FE}"/>
-    <hyperlink ref="J322" r:id="rId319" xr:uid="{BDEA2CAE-1DA2-4AEC-A01E-9EC2FDAF53FB}"/>
-    <hyperlink ref="J323" r:id="rId320" xr:uid="{531E6677-7261-4BE7-8E6E-7B45CAEFA626}"/>
-    <hyperlink ref="J324" r:id="rId321" xr:uid="{B92E653F-836E-4568-9354-9F08821EA8A8}"/>
-    <hyperlink ref="J325" r:id="rId322" xr:uid="{0B16D64F-45CF-4A20-A878-A7DD1948180A}"/>
-    <hyperlink ref="J326" r:id="rId323" xr:uid="{FA87A070-B1F4-4C46-9F99-14DCACD1C720}"/>
-    <hyperlink ref="J327" r:id="rId324" xr:uid="{5AD5D861-BBEF-41BA-8988-0F9D59DEEF2F}"/>
-    <hyperlink ref="J328" r:id="rId325" xr:uid="{FF873BCA-B104-48E7-B951-3AEE99ADF6EA}"/>
-    <hyperlink ref="J329" r:id="rId326" xr:uid="{69AA0FA1-E874-4920-ADD1-359CBF39026E}"/>
-    <hyperlink ref="J330" r:id="rId327" xr:uid="{5AFBA470-E7FE-4DFF-B01F-C86BDB01A5F5}"/>
-    <hyperlink ref="J331" r:id="rId328" xr:uid="{9413E012-2916-432D-A514-C750420D181F}"/>
-    <hyperlink ref="J332" r:id="rId329" xr:uid="{08E23AD7-C45E-49F7-BDC3-5589CED6FE02}"/>
-    <hyperlink ref="J333" r:id="rId330" xr:uid="{F8BEEBC4-D4D9-459D-B091-B60F954DCA4B}"/>
-    <hyperlink ref="J334" r:id="rId331" xr:uid="{042EBFAA-1BF7-4898-AEB7-EF0B9C102BC4}"/>
-    <hyperlink ref="J335" r:id="rId332" xr:uid="{3B031B30-BD31-4FAE-8D42-90AA5BB5AB06}"/>
-    <hyperlink ref="J336" r:id="rId333" xr:uid="{F391B084-C52A-4005-9256-ABE98CD01108}"/>
+    <hyperlink ref="J96" r:id="rId91" xr:uid="{5A39CE67-4190-49D6-A449-72DCBD4BB4BE}"/>
+    <hyperlink ref="J97" r:id="rId92" xr:uid="{9A6C36D1-02A0-4691-862D-3AE647A83D7B}"/>
+    <hyperlink ref="J98" r:id="rId93" xr:uid="{CB4213E8-43F9-4DC8-AB56-60CF36AB12B0}"/>
+    <hyperlink ref="J99" r:id="rId94" xr:uid="{E0B5F22C-F3CE-4F1B-BF67-B7259B128C73}"/>
+    <hyperlink ref="J100" r:id="rId95" xr:uid="{66646DD8-83FA-4E73-BD6F-88C1AC1D8E7F}"/>
+    <hyperlink ref="J101" r:id="rId96" xr:uid="{54037946-3087-4099-8513-19F794F120F2}"/>
+    <hyperlink ref="J102" r:id="rId97" xr:uid="{A36FBAF3-59C0-4C08-BC19-86156089DE95}"/>
+    <hyperlink ref="J103" r:id="rId98" xr:uid="{AAC23A3F-B77B-4813-BC24-9A9BD105BFA8}"/>
+    <hyperlink ref="J104" r:id="rId99" xr:uid="{7C908970-0BEC-4264-A729-89796A2A6ED0}"/>
+    <hyperlink ref="J105" r:id="rId100" xr:uid="{A3EE4C1C-F523-466E-9741-6519B1CCDF4A}"/>
+    <hyperlink ref="J106" r:id="rId101" xr:uid="{E297C50A-5934-49E9-8945-8770CA95143F}"/>
+    <hyperlink ref="J107" r:id="rId102" xr:uid="{24A4ACBC-00DA-46D0-B004-114BDEDBD9F8}"/>
+    <hyperlink ref="J108" r:id="rId103" xr:uid="{18D0D779-17EC-42D3-8E02-227C0C21738D}"/>
+    <hyperlink ref="J109" r:id="rId104" xr:uid="{F479BEF8-30E3-4454-B37C-0282C133872E}"/>
+    <hyperlink ref="J110" r:id="rId105" xr:uid="{BE33A81A-AFB0-468B-A125-B71C1FA4D201}"/>
+    <hyperlink ref="J111" r:id="rId106" xr:uid="{1585BB50-337A-4728-9933-9450D0E77B18}"/>
+    <hyperlink ref="J112" r:id="rId107" xr:uid="{83FE6C41-1339-4228-B2CB-4D54C581389F}"/>
+    <hyperlink ref="J113" r:id="rId108" xr:uid="{981C3956-FA95-4E1A-A4B0-EACF986AD768}"/>
+    <hyperlink ref="J114" r:id="rId109" xr:uid="{EF88E3F8-B433-44DC-AA02-38299936EBD4}"/>
+    <hyperlink ref="J115" r:id="rId110" xr:uid="{24B33126-E92D-4197-9405-EE596D016C3B}"/>
+    <hyperlink ref="J116" r:id="rId111" xr:uid="{4CEDB4BB-71E0-4801-A77C-F3B809BE3EB3}"/>
+    <hyperlink ref="J117" r:id="rId112" xr:uid="{63E3FC32-47F3-49FB-8562-85AA1D2C6980}"/>
+    <hyperlink ref="J118" r:id="rId113" xr:uid="{24B71DB3-937B-4CBA-812A-FB57C1C61732}"/>
+    <hyperlink ref="J119" r:id="rId114" xr:uid="{CB54D463-FF06-4BCD-B5AA-3B3FF9A17BFA}"/>
+    <hyperlink ref="J120" r:id="rId115" xr:uid="{F61BE2C0-92B8-459D-9733-017E4F4994B8}"/>
+    <hyperlink ref="J121" r:id="rId116" xr:uid="{D5627FE6-F9C6-45C8-B54F-B612C57F6FB6}"/>
+    <hyperlink ref="J122" r:id="rId117" xr:uid="{1C966FA3-034D-4CB2-AC47-C6D54D89761A}"/>
+    <hyperlink ref="J123" r:id="rId118" xr:uid="{04CC30EE-F4D4-4624-AEA3-73259BBE1C87}"/>
+    <hyperlink ref="J124" r:id="rId119" xr:uid="{C81FDD09-1331-4FF1-AE70-1BF4DA7B9A21}"/>
+    <hyperlink ref="J125" r:id="rId120" xr:uid="{F11A5FF5-90FC-4880-BB70-C278F048652A}"/>
+    <hyperlink ref="J126" r:id="rId121" xr:uid="{20F7B25C-1B2D-4780-B9D7-709F54CE8988}"/>
+    <hyperlink ref="J127" r:id="rId122" xr:uid="{7E2486E0-06A3-4216-AD8C-1D5178C94BD9}"/>
+    <hyperlink ref="J128" r:id="rId123" xr:uid="{90DEFC6C-5AEA-4B44-AF3B-B8A2B430B177}"/>
+    <hyperlink ref="J129" r:id="rId124" xr:uid="{5C3043B7-34C3-4EF5-A4B1-6D871782F312}"/>
+    <hyperlink ref="J130" r:id="rId125" xr:uid="{84A4D49A-4B9B-4680-8413-989690488031}"/>
+    <hyperlink ref="J131" r:id="rId126" xr:uid="{644CCA96-51E4-48DC-82D7-3A954DA48D07}"/>
+    <hyperlink ref="J132" r:id="rId127" xr:uid="{39343C21-9281-48FF-9FA7-5108A50B396B}"/>
+    <hyperlink ref="J133" r:id="rId128" xr:uid="{AFBB093C-E06F-408C-B83C-3A2DDE5D065B}"/>
+    <hyperlink ref="J134" r:id="rId129" xr:uid="{D7DD0B24-602F-4C9C-A9EE-0757B8FFE8E2}"/>
+    <hyperlink ref="J135" r:id="rId130" xr:uid="{8987C102-0F7A-4471-92F5-FE07F4588EB2}"/>
+    <hyperlink ref="J136" r:id="rId131" xr:uid="{6F39B05B-F2FD-4155-AA01-CC77EA811086}"/>
+    <hyperlink ref="J137" r:id="rId132" xr:uid="{CF296D19-E6A9-4248-87CE-A3763E923CA0}"/>
+    <hyperlink ref="J138" r:id="rId133" xr:uid="{DC10BEE3-4704-4D23-98FF-937D965F6E8D}"/>
+    <hyperlink ref="J139" r:id="rId134" xr:uid="{7DFFD974-9B7F-4725-A47A-EA7A53947BA6}"/>
+    <hyperlink ref="J140" r:id="rId135" xr:uid="{8CCDEE13-8C2C-4208-897D-E3EBDF00AB43}"/>
+    <hyperlink ref="J141" r:id="rId136" xr:uid="{861B036D-BE31-4D10-800A-BBF631F2E7C2}"/>
+    <hyperlink ref="J142" r:id="rId137" xr:uid="{C0D6DB5B-F0F4-4DCF-89F0-217B46C63405}"/>
+    <hyperlink ref="J143" r:id="rId138" xr:uid="{5918E4BC-B9D7-436B-AF75-1DABD11AD154}"/>
+    <hyperlink ref="J144" r:id="rId139" xr:uid="{9AE492C2-4B8A-4401-82CD-C1C310E7B4EC}"/>
+    <hyperlink ref="J145" r:id="rId140" xr:uid="{7CD06202-8940-46A0-A362-3C3563C41472}"/>
+    <hyperlink ref="J146" r:id="rId141" xr:uid="{829FC3C2-F43B-4D32-AD7F-A69D9D55A0F9}"/>
+    <hyperlink ref="J147" r:id="rId142" xr:uid="{7ED6CA35-C5B0-4F8E-9BBA-717B9AA271AE}"/>
+    <hyperlink ref="J148" r:id="rId143" xr:uid="{5F80FDB0-B16F-43BA-815A-2B6377DA0ACD}"/>
+    <hyperlink ref="J149" r:id="rId144" xr:uid="{F86ABC67-D20E-4BA9-9629-E289F451A807}"/>
+    <hyperlink ref="J150" r:id="rId145" xr:uid="{F469866A-0D28-42ED-9687-2F48ED997B86}"/>
+    <hyperlink ref="J151" r:id="rId146" xr:uid="{909208E6-B890-47C8-BE77-E18E6DEEBE7B}"/>
+    <hyperlink ref="J152" r:id="rId147" xr:uid="{159D453D-4BC3-458A-8249-FC4ACF4CC611}"/>
+    <hyperlink ref="J153" r:id="rId148" xr:uid="{1A9FFF41-08DE-4C38-98C7-19850D2DB393}"/>
+    <hyperlink ref="J154" r:id="rId149" xr:uid="{BA36397E-62CF-4900-B8F1-09CF53E0C18E}"/>
+    <hyperlink ref="J155" r:id="rId150" xr:uid="{B0D8E330-A7A7-4392-A312-03B64A6AD279}"/>
+    <hyperlink ref="J156" r:id="rId151" xr:uid="{6BD0200A-0D06-43BD-B925-52550D4D302F}"/>
+    <hyperlink ref="J157" r:id="rId152" xr:uid="{F22BBF8E-BC5F-4C1B-B58E-611F6A5767F4}"/>
+    <hyperlink ref="J158" r:id="rId153" xr:uid="{D525791D-8714-4AA9-88D3-B6963E656F88}"/>
+    <hyperlink ref="J159" r:id="rId154" xr:uid="{E581217B-E39E-4FA4-AFB0-5C861FF4E73F}"/>
+    <hyperlink ref="J160" r:id="rId155" xr:uid="{B1A647E0-9007-465E-AEC4-8F94936B3944}"/>
+    <hyperlink ref="J161" r:id="rId156" xr:uid="{98CB1ABB-3894-4F15-8B22-1C6A9A28BE5C}"/>
+    <hyperlink ref="J162" r:id="rId157" xr:uid="{66F7AA12-32A1-4125-8742-45773EB569D0}"/>
+    <hyperlink ref="J163" r:id="rId158" xr:uid="{71A7CBFB-FFD5-4221-8FCF-5232A5D5CD78}"/>
+    <hyperlink ref="J164" r:id="rId159" xr:uid="{79849020-37D9-4D33-84CA-DAE75833DE73}"/>
+    <hyperlink ref="J165" r:id="rId160" xr:uid="{ABB5AA3A-51F2-4FD3-B010-984DD1DA4AC6}"/>
+    <hyperlink ref="J166" r:id="rId161" xr:uid="{56E5B821-33FD-4D0B-BA22-003B0AF75CEB}"/>
+    <hyperlink ref="J167" r:id="rId162" xr:uid="{11412DC1-E9F5-46A3-BC4F-EFA4FB3662C6}"/>
+    <hyperlink ref="J168" r:id="rId163" xr:uid="{2D930D30-7C6D-4CB5-B15D-346BE126CF58}"/>
+    <hyperlink ref="J169" r:id="rId164" xr:uid="{424B31B5-3F8D-4971-8E71-D02150096707}"/>
+    <hyperlink ref="J170" r:id="rId165" xr:uid="{36693023-F819-4493-B508-C960164685CB}"/>
+    <hyperlink ref="J171" r:id="rId166" xr:uid="{103A8D8F-BE53-46D0-A5C5-CEE9EAB825AA}"/>
+    <hyperlink ref="J172" r:id="rId167" xr:uid="{B32088A0-3EFD-4CDB-8A6F-C234D09C7E44}"/>
+    <hyperlink ref="J173" r:id="rId168" xr:uid="{E2A3A3DD-ECE7-4828-8FB5-D29927E1A056}"/>
+    <hyperlink ref="J174" r:id="rId169" xr:uid="{C5CDEA87-FAAD-4567-9442-F92A51B1BA97}"/>
+    <hyperlink ref="J175" r:id="rId170" xr:uid="{1A0CF53D-4995-4783-B629-48D4C98F52D0}"/>
+    <hyperlink ref="J176" r:id="rId171" xr:uid="{280FEEC0-3F7E-40CF-A54A-F4C9930B2B83}"/>
+    <hyperlink ref="J177" r:id="rId172" xr:uid="{FFB4A84F-FDF8-468D-9A45-E284AF159099}"/>
+    <hyperlink ref="J178" r:id="rId173" xr:uid="{F16E969D-740A-4F63-A198-3C7EBFD12486}"/>
+    <hyperlink ref="J179" r:id="rId174" xr:uid="{BDE7F88B-EB86-4A71-BDA2-0C562D74CF64}"/>
+    <hyperlink ref="J180" r:id="rId175" xr:uid="{F75BA1DE-A80F-4976-8DA5-7B1C2F2412D1}"/>
+    <hyperlink ref="J181" r:id="rId176" xr:uid="{B8D9B897-597E-4A14-82E7-F2F5AA25373F}"/>
+    <hyperlink ref="J182" r:id="rId177" xr:uid="{3BD4F78F-E6A8-4C8D-8FAD-B58410A5F5A2}"/>
+    <hyperlink ref="J183" r:id="rId178" xr:uid="{54CE3BF3-DE0A-4AAF-B3F1-96FCE5E69D57}"/>
+    <hyperlink ref="J184" r:id="rId179" xr:uid="{42407337-AE6A-44E6-ABAE-32C839596FAE}"/>
+    <hyperlink ref="J185" r:id="rId180" xr:uid="{5B36A2E9-2C41-47CE-9B88-EA76C4C53077}"/>
+    <hyperlink ref="J186" r:id="rId181" xr:uid="{EED9C87B-CDAA-4580-8B35-6E1E7C00DE00}"/>
+    <hyperlink ref="J187" r:id="rId182" xr:uid="{8F814E58-0650-4558-BC05-BED38BBBFE35}"/>
+    <hyperlink ref="J188" r:id="rId183" xr:uid="{F8606806-5632-4881-A73B-E4F5453F07C5}"/>
+    <hyperlink ref="J189" r:id="rId184" xr:uid="{9BAE1C21-F683-4776-85AF-E2EE34EB3E7F}"/>
+    <hyperlink ref="J190" r:id="rId185" xr:uid="{6A50FF83-BEF4-417F-84AB-C45606FBD673}"/>
+    <hyperlink ref="J191" r:id="rId186" xr:uid="{66888E01-C1B7-4B3D-BED0-4157C440D58B}"/>
+    <hyperlink ref="J192" r:id="rId187" xr:uid="{2AE2F336-94F9-4B8E-B1F6-E7C50F67D9E6}"/>
+    <hyperlink ref="J193" r:id="rId188" xr:uid="{7A55A024-31DC-4481-9935-A0A4AD62D576}"/>
+    <hyperlink ref="J194" r:id="rId189" xr:uid="{34AF6665-C3A1-44EA-804F-60346807AF68}"/>
+    <hyperlink ref="J195" r:id="rId190" xr:uid="{10BCEBA0-84D5-4D69-9B02-FB30F2CADC63}"/>
+    <hyperlink ref="J196" r:id="rId191" xr:uid="{9082F343-F1CE-4B8F-835B-354106F80BB2}"/>
+    <hyperlink ref="J197" r:id="rId192" xr:uid="{5B0BE325-C28E-4C5B-AC3E-9E7CED65C8DB}"/>
+    <hyperlink ref="J198" r:id="rId193" xr:uid="{03D17430-E085-4157-9EB3-2D2F124C381D}"/>
+    <hyperlink ref="J199" r:id="rId194" xr:uid="{35FCB3D1-B37F-4D91-B22F-378420E119AC}"/>
+    <hyperlink ref="J200" r:id="rId195" xr:uid="{900E7AB7-E60E-4664-9616-773700AA6819}"/>
+    <hyperlink ref="J201" r:id="rId196" xr:uid="{486E706B-F29A-44C2-B7E1-69F5ECE6A6FB}"/>
+    <hyperlink ref="J202" r:id="rId197" xr:uid="{D3E04074-792E-4224-9BD3-CD42721E7F20}"/>
+    <hyperlink ref="J203" r:id="rId198" xr:uid="{9821322A-77ED-4B31-9E1F-926B5BB1E729}"/>
+    <hyperlink ref="J204" r:id="rId199" xr:uid="{C1E77E04-2DFF-48FB-B2CB-2EEC140DC722}"/>
+    <hyperlink ref="J205" r:id="rId200" xr:uid="{2C54A54A-FF56-492F-A786-AD211CFA51F5}"/>
+    <hyperlink ref="J206" r:id="rId201" xr:uid="{D59F8382-E472-4117-8402-2F6D2187E20E}"/>
+    <hyperlink ref="J207" r:id="rId202" xr:uid="{26C6B752-B11D-4F8D-A96A-C02E2F74BAED}"/>
+    <hyperlink ref="J208" r:id="rId203" xr:uid="{B05AC845-F7F9-4EEB-B8CC-717F2A874FAB}"/>
+    <hyperlink ref="J209" r:id="rId204" xr:uid="{C5FCF4E6-A732-44D2-A7AF-972C310FAB6F}"/>
+    <hyperlink ref="J210" r:id="rId205" xr:uid="{16B30087-D93C-445E-8023-1BD82C49BBC6}"/>
+    <hyperlink ref="J211" r:id="rId206" xr:uid="{951D3EFF-E929-452E-9C13-5C4F9D5CA406}"/>
+    <hyperlink ref="J212" r:id="rId207" xr:uid="{AFD09656-4630-424F-BEB3-310770BB0C12}"/>
+    <hyperlink ref="J213" r:id="rId208" xr:uid="{11699955-2472-4FB9-961A-D62CD19D81A9}"/>
+    <hyperlink ref="J214" r:id="rId209" xr:uid="{548FA264-0EB4-4870-86B9-F29FC83D2C70}"/>
+    <hyperlink ref="J215" r:id="rId210" xr:uid="{F735D29B-556D-4F1D-8A59-941260D88BC2}"/>
+    <hyperlink ref="J216" r:id="rId211" xr:uid="{E8E3E81F-DB66-4132-9309-D728D8F3D691}"/>
+    <hyperlink ref="J217" r:id="rId212" xr:uid="{9E251341-A3A8-4FE9-94DA-CCCA5FFDE675}"/>
+    <hyperlink ref="J218" r:id="rId213" xr:uid="{7CCCDD9C-A588-480D-BC8C-BE2A5048647F}"/>
+    <hyperlink ref="J219" r:id="rId214" xr:uid="{2F0519BB-0EB8-443E-A917-97D859DDE75D}"/>
+    <hyperlink ref="J220" r:id="rId215" xr:uid="{C1FF29D1-E96C-4674-8CA9-7E6E866CA163}"/>
+    <hyperlink ref="J221" r:id="rId216" xr:uid="{6C50CA29-A479-4B64-9FC4-4BF021089C9C}"/>
+    <hyperlink ref="J222" r:id="rId217" xr:uid="{1CB8894A-8148-45A4-861F-EE492B4BAFFD}"/>
+    <hyperlink ref="J223" r:id="rId218" xr:uid="{61D6A196-0A03-41DF-AB52-EA8C01F8B948}"/>
+    <hyperlink ref="J224" r:id="rId219" xr:uid="{E23A74BC-061E-4742-9BC8-22AEB7F44355}"/>
+    <hyperlink ref="J225" r:id="rId220" xr:uid="{0FD66353-E30F-46AD-B7B9-E3827DC71BDA}"/>
+    <hyperlink ref="J226" r:id="rId221" xr:uid="{84AEE78B-46DF-4CEA-90E3-66ADF19DF2F2}"/>
+    <hyperlink ref="J227" r:id="rId222" xr:uid="{DF826529-8A64-4231-9570-17ECAC75B154}"/>
+    <hyperlink ref="J228" r:id="rId223" xr:uid="{4FA52F13-2243-4424-ABCA-05D6F2AA68F5}"/>
+    <hyperlink ref="J229" r:id="rId224" xr:uid="{3D53ED95-9AFC-426E-AE75-08DE7271713B}"/>
+    <hyperlink ref="J230" r:id="rId225" xr:uid="{26766B3F-DC85-4F7D-8D5F-5D96D2EC0C0F}"/>
+    <hyperlink ref="J231" r:id="rId226" xr:uid="{1247A391-4428-4EF1-8059-D163711B6C04}"/>
+    <hyperlink ref="J232" r:id="rId227" xr:uid="{CD634DAF-FC9E-4162-A9A5-2502E0539D30}"/>
+    <hyperlink ref="J233" r:id="rId228" xr:uid="{D07232F6-84A1-480A-825E-2594057D3D40}"/>
+    <hyperlink ref="J234" r:id="rId229" xr:uid="{6BC94CED-AA79-4836-AFC3-281373F22B0C}"/>
+    <hyperlink ref="J235" r:id="rId230" xr:uid="{F3C6FB9A-B68C-47D6-B87C-B108B04CA457}"/>
+    <hyperlink ref="J236" r:id="rId231" xr:uid="{12C5F5A4-BB0B-489C-A148-2797E3A867E7}"/>
+    <hyperlink ref="J237" r:id="rId232" xr:uid="{270AA255-0E90-4A17-BD14-B05824719790}"/>
+    <hyperlink ref="J238" r:id="rId233" xr:uid="{A7424A7B-2B9A-4E0B-AEBE-0BF33FA9F6ED}"/>
+    <hyperlink ref="J239" r:id="rId234" xr:uid="{C037D551-EEA9-4FB8-86B9-84D214594EED}"/>
+    <hyperlink ref="J240" r:id="rId235" xr:uid="{55983375-4073-40B2-ABA0-B5F2C6BAD4F6}"/>
+    <hyperlink ref="J241" r:id="rId236" xr:uid="{933C4DC3-48AF-4960-B3E3-3F6025BB70C7}"/>
+    <hyperlink ref="J242" r:id="rId237" xr:uid="{8685FC2A-9539-4333-9954-4C409539F7B8}"/>
+    <hyperlink ref="J243" r:id="rId238" xr:uid="{52B15642-1340-441A-977C-ED78325DBC7B}"/>
+    <hyperlink ref="J244" r:id="rId239" xr:uid="{A6D499D2-5FFF-41FA-9149-785973B5DB65}"/>
+    <hyperlink ref="J245" r:id="rId240" xr:uid="{8C2179D1-57AA-4558-8B23-4AA6C9C98D9A}"/>
+    <hyperlink ref="J246" r:id="rId241" xr:uid="{2AC5FCB4-BB3A-4D34-8F98-8DE6DC475C8D}"/>
+    <hyperlink ref="J247" r:id="rId242" xr:uid="{2FC2A01F-A15D-47C4-8D64-F143215BEC1C}"/>
+    <hyperlink ref="J248" r:id="rId243" xr:uid="{B640FC28-D5A8-4D18-8BC5-24E610B4F6A4}"/>
+    <hyperlink ref="J249" r:id="rId244" xr:uid="{BB55FCA3-A778-4D1B-A20D-1FD1381C03EE}"/>
+    <hyperlink ref="J250" r:id="rId245" xr:uid="{DF448022-2720-4EEF-8B5E-61CBCBBFBE72}"/>
+    <hyperlink ref="J251" r:id="rId246" xr:uid="{B2920937-0A3A-40AC-9DA2-EB8A0C76470E}"/>
+    <hyperlink ref="J252" r:id="rId247" xr:uid="{67E5FD4C-AF68-4AA3-B824-8A8603592121}"/>
+    <hyperlink ref="J253" r:id="rId248" xr:uid="{517550A1-D423-482E-90D3-323069FEA602}"/>
+    <hyperlink ref="J254" r:id="rId249" xr:uid="{016184AC-C8D8-4840-AD0D-9FA389B7BB17}"/>
+    <hyperlink ref="J255" r:id="rId250" xr:uid="{59244AF0-12B1-44F2-A173-5E3EEDCF110E}"/>
+    <hyperlink ref="J256" r:id="rId251" xr:uid="{C5899E11-1661-4117-9A45-ECCFBA3BD1E8}"/>
+    <hyperlink ref="J257" r:id="rId252" xr:uid="{E5B4E27D-2804-4958-A461-535286EE5681}"/>
+    <hyperlink ref="J258" r:id="rId253" xr:uid="{ADB8A268-3B99-4501-B72F-A212510FF848}"/>
+    <hyperlink ref="J259" r:id="rId254" xr:uid="{104B5263-C8F5-4011-866A-55BE152233CD}"/>
+    <hyperlink ref="J260" r:id="rId255" xr:uid="{CE59766A-0EA5-4D70-A1D5-7CBC754ECFDD}"/>
+    <hyperlink ref="J261" r:id="rId256" xr:uid="{637FCC85-83EF-41DD-9F6D-26800464C05E}"/>
+    <hyperlink ref="J262" r:id="rId257" xr:uid="{D0742A1B-CC45-4986-BBD3-EA187BC45A44}"/>
+    <hyperlink ref="J263" r:id="rId258" xr:uid="{A9DD9DD8-CD16-4910-9029-9D1B0C9004DC}"/>
+    <hyperlink ref="J264" r:id="rId259" xr:uid="{4B7AB24F-5A6A-4C86-9213-0A0E4BBA83EF}"/>
+    <hyperlink ref="J265" r:id="rId260" xr:uid="{D44CC95C-3CEB-467F-BCA8-8C771632DE4E}"/>
+    <hyperlink ref="J266" r:id="rId261" xr:uid="{475D939E-AE4F-4934-8ED7-65069B1AF64E}"/>
+    <hyperlink ref="J267" r:id="rId262" xr:uid="{D5CA70EB-3B59-4F06-9F1E-0A33E6FB7F3C}"/>
+    <hyperlink ref="J268" r:id="rId263" xr:uid="{E8E6A681-9B1B-498B-8AD6-371B4134CDCB}"/>
+    <hyperlink ref="J269" r:id="rId264" xr:uid="{B5745D5D-8F7A-4EA4-93E3-0696B2D97D0C}"/>
+    <hyperlink ref="J270" r:id="rId265" xr:uid="{ED37FD39-06E2-4AA6-90C1-379E94C2C1BE}"/>
+    <hyperlink ref="J271" r:id="rId266" xr:uid="{C3330A57-8F00-4882-8099-821B1406831C}"/>
+    <hyperlink ref="J272" r:id="rId267" xr:uid="{EC03F5DF-97AD-4AE2-9F30-6C59F8068D08}"/>
+    <hyperlink ref="J273" r:id="rId268" xr:uid="{9F746722-16E9-412D-966F-8D8832C66928}"/>
+    <hyperlink ref="J274" r:id="rId269" xr:uid="{801C47B3-A7A6-439F-B5E0-12A6941D3E69}"/>
+    <hyperlink ref="J275" r:id="rId270" xr:uid="{2EF70039-9A37-41CD-854F-C94B5EF998B5}"/>
+    <hyperlink ref="J276" r:id="rId271" xr:uid="{887F7088-48D6-45F5-A490-9DB60D248154}"/>
+    <hyperlink ref="J277" r:id="rId272" xr:uid="{5BCB4D72-1A40-494E-A966-DF68091012F6}"/>
+    <hyperlink ref="J278" r:id="rId273" xr:uid="{78233649-C6A2-4574-9C6A-6740A3FBA25C}"/>
+    <hyperlink ref="J279" r:id="rId274" xr:uid="{7E9C84E5-5485-4468-A36E-F406890E2E26}"/>
+    <hyperlink ref="J280" r:id="rId275" xr:uid="{46B2EF1E-44DB-40C4-B834-EDD5F9BED915}"/>
+    <hyperlink ref="J281" r:id="rId276" xr:uid="{E84E6ABF-0659-4180-8118-5E309F253E79}"/>
+    <hyperlink ref="J282" r:id="rId277" xr:uid="{AF36D6D9-FE68-4793-BA3A-02FD202E8D88}"/>
+    <hyperlink ref="J283" r:id="rId278" xr:uid="{4AD4921B-3888-4022-A466-F894FA5AAD82}"/>
+    <hyperlink ref="J284" r:id="rId279" xr:uid="{FDBF4FE0-A357-4C3B-A72C-13CF6ABEB66B}"/>
+    <hyperlink ref="J285" r:id="rId280" xr:uid="{CA3E55F1-78AA-45B0-91E8-0FF9DBA753B3}"/>
+    <hyperlink ref="J286" r:id="rId281" xr:uid="{F18E7B42-5C54-40B4-8496-67211876C586}"/>
+    <hyperlink ref="J287" r:id="rId282" xr:uid="{96AA2145-D1BD-428A-BFF5-65683D62DC9B}"/>
+    <hyperlink ref="J288" r:id="rId283" xr:uid="{1CCDA5AD-7499-4A4D-BD3F-452A5833D6F0}"/>
+    <hyperlink ref="J289" r:id="rId284" xr:uid="{4066831A-BD17-4C0C-BF99-DD2C841BDDBB}"/>
+    <hyperlink ref="J290" r:id="rId285" xr:uid="{C0EC8FE3-04AC-450B-AE6E-ACF23B936E94}"/>
+    <hyperlink ref="J292" r:id="rId286" xr:uid="{FD5FBF1C-CACB-49ED-852D-D60667A7956F}"/>
+    <hyperlink ref="J293" r:id="rId287" xr:uid="{76EED023-06A4-4699-9072-921ED676D0DB}"/>
+    <hyperlink ref="J294" r:id="rId288" xr:uid="{74DC1E84-FD8D-4C4E-8E04-CBD136E2807D}"/>
+    <hyperlink ref="J295" r:id="rId289" xr:uid="{360E94EC-88F3-4AFB-90B6-38D2A0600A82}"/>
+    <hyperlink ref="J296" r:id="rId290" xr:uid="{86E794C2-61CA-466B-BBCF-A370C0179F54}"/>
+    <hyperlink ref="J297" r:id="rId291" xr:uid="{6CD647CF-429D-4133-90F9-A363C6BBCCA9}"/>
+    <hyperlink ref="J298" r:id="rId292" xr:uid="{DEDAFFAC-EB4C-43F6-9008-8D60E91E9F7B}"/>
+    <hyperlink ref="J299" r:id="rId293" xr:uid="{53A47301-E1C6-4155-8A07-55DA82F7A993}"/>
+    <hyperlink ref="J300" r:id="rId294" xr:uid="{62C7D21A-B6E8-48E2-A01F-F77F03F5CB3F}"/>
+    <hyperlink ref="J301" r:id="rId295" xr:uid="{31090AEF-DC92-4C2E-8791-75B98D56EFC7}"/>
+    <hyperlink ref="J302" r:id="rId296" xr:uid="{019380E0-EE29-4116-8A06-893A1996FBE1}"/>
+    <hyperlink ref="J303" r:id="rId297" xr:uid="{C2A235D9-CC60-4369-980E-DD16A1C7324E}"/>
+    <hyperlink ref="J304" r:id="rId298" xr:uid="{FA9E4112-8993-4BC8-AE1F-02BE3D1310F6}"/>
+    <hyperlink ref="J305" r:id="rId299" xr:uid="{9E399DF1-EA3D-470E-9E43-44059BEFB2E0}"/>
+    <hyperlink ref="J306" r:id="rId300" xr:uid="{94ADD843-823F-4D8B-BBCD-1AD06BE3E49D}"/>
+    <hyperlink ref="J307" r:id="rId301" xr:uid="{A3157C24-68AC-4476-90F7-4ED7694BED7B}"/>
+    <hyperlink ref="J308" r:id="rId302" xr:uid="{801A0019-E0B9-4420-A7DF-051FDEF7D929}"/>
+    <hyperlink ref="J309" r:id="rId303" xr:uid="{F040A022-8349-4D25-98DA-5D4E98AEDAEC}"/>
+    <hyperlink ref="J310" r:id="rId304" xr:uid="{79F739A0-D2D7-4578-8F09-3B09F2CBB682}"/>
+    <hyperlink ref="J311" r:id="rId305" xr:uid="{8C098DEE-50C5-4925-BFCF-1C4CE40719A3}"/>
+    <hyperlink ref="J312" r:id="rId306" xr:uid="{CB11B142-2D6B-436A-A63B-F702A42F0BBB}"/>
+    <hyperlink ref="J313" r:id="rId307" xr:uid="{8ADD3CC5-5790-41FF-B643-F74D014EC392}"/>
+    <hyperlink ref="J314" r:id="rId308" xr:uid="{1E32C2D5-F4B7-4CCF-B143-87A7E8DE9C3A}"/>
+    <hyperlink ref="J315" r:id="rId309" xr:uid="{944C94CD-00F6-4C6F-99B5-7FA6A485B790}"/>
+    <hyperlink ref="J316" r:id="rId310" xr:uid="{50192CFD-7B46-4503-9629-C0128A8FD614}"/>
+    <hyperlink ref="J317" r:id="rId311" xr:uid="{84F5D7B6-BB69-4EBB-9790-95EB37FD97C0}"/>
+    <hyperlink ref="J318" r:id="rId312" xr:uid="{DEEFCE0B-E03B-41FF-8681-02008AE9DF43}"/>
+    <hyperlink ref="J319" r:id="rId313" xr:uid="{9A9CF037-2580-4F3B-B7BB-E67AAEF2A1AB}"/>
+    <hyperlink ref="J320" r:id="rId314" xr:uid="{A1B65350-C2DA-4896-8A10-7A37FAA83503}"/>
+    <hyperlink ref="J321" r:id="rId315" xr:uid="{C1E65609-DB4C-44D4-89AC-B45FD97830FE}"/>
+    <hyperlink ref="J322" r:id="rId316" xr:uid="{BDEA2CAE-1DA2-4AEC-A01E-9EC2FDAF53FB}"/>
+    <hyperlink ref="J323" r:id="rId317" xr:uid="{531E6677-7261-4BE7-8E6E-7B45CAEFA626}"/>
+    <hyperlink ref="J324" r:id="rId318" xr:uid="{B92E653F-836E-4568-9354-9F08821EA8A8}"/>
+    <hyperlink ref="J325" r:id="rId319" xr:uid="{0B16D64F-45CF-4A20-A878-A7DD1948180A}"/>
+    <hyperlink ref="J326" r:id="rId320" xr:uid="{FA87A070-B1F4-4C46-9F99-14DCACD1C720}"/>
+    <hyperlink ref="J327" r:id="rId321" xr:uid="{5AD5D861-BBEF-41BA-8988-0F9D59DEEF2F}"/>
+    <hyperlink ref="J328" r:id="rId322" xr:uid="{FF873BCA-B104-48E7-B951-3AEE99ADF6EA}"/>
+    <hyperlink ref="J329" r:id="rId323" xr:uid="{69AA0FA1-E874-4920-ADD1-359CBF39026E}"/>
+    <hyperlink ref="J330" r:id="rId324" xr:uid="{5AFBA470-E7FE-4DFF-B01F-C86BDB01A5F5}"/>
+    <hyperlink ref="J331" r:id="rId325" xr:uid="{9413E012-2916-432D-A514-C750420D181F}"/>
+    <hyperlink ref="J332" r:id="rId326" xr:uid="{08E23AD7-C45E-49F7-BDC3-5589CED6FE02}"/>
+    <hyperlink ref="J333" r:id="rId327" xr:uid="{F8BEEBC4-D4D9-459D-B091-B60F954DCA4B}"/>
+    <hyperlink ref="J334" r:id="rId328" xr:uid="{042EBFAA-1BF7-4898-AEB7-EF0B9C102BC4}"/>
+    <hyperlink ref="J335" r:id="rId329" xr:uid="{3B031B30-BD31-4FAE-8D42-90AA5BB5AB06}"/>
+    <hyperlink ref="J336" r:id="rId330" xr:uid="{F391B084-C52A-4005-9256-ABE98CD01108}"/>
+    <hyperlink ref="J95" r:id="rId331" xr:uid="{281A4A3F-C0AD-4D2A-BAF7-7C0435117952}"/>
+    <hyperlink ref="J94" r:id="rId332" xr:uid="{8ED57266-D591-48E1-BB14-A69FDED5F089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B9E75-1370-4A47-973B-0402F079ADC9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9CE99F-E0E9-441B-8496-0F193F2DB864}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/process/data/seer-old/seer-old.xlsx
+++ b/process/data/seer-old/seer-old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\myproject\guess-game\process\data\seer-old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9097FFB1-D558-409B-8578-06B6245CEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE983BB-E43C-43A7-888F-678B14304ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8232" yWindow="5388" windowWidth="19200" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1980" windowWidth="19200" windowHeight="13776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="2" r:id="rId1"/>
@@ -2100,9 +2100,6 @@
   </si>
   <si>
     <t>189</t>
-  </si>
-  <si>
-    <t>https://newsimg.5054399.com/uploads/userup/1511/ertong_0e5fafe33200f69524cbc01a8564698a.jpg</t>
   </si>
   <si>
     <t>林奇</t>
@@ -4002,13 +3999,6 @@
     <t>炎火猴</t>
   </si>
   <si>
-    <t>/pic/youyou.png</t>
-  </si>
-  <si>
-    <t>/pic/yuexi.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4056,6 +4046,15 @@
   <si>
     <t>seer-old</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newsimg.5054399.com/uploads/userup/1511/ertong_795ff6baebba7f8279a97c2452fabd58.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KcVLhWqx/youyou.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tCx6qzwP/yuexi.png</t>
   </si>
 </sst>
 </file>
@@ -4616,10 +4615,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -4630,21 +4629,21 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -4660,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93:J94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4703,7 +4702,7 @@
         <v>57</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4735,7 +4734,7 @@
         <v>66</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5079,7 +5078,7 @@
         <v>71</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>109</v>
@@ -5114,7 +5113,7 @@
         <v>102</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>113</v>
@@ -5149,7 +5148,7 @@
         <v>116</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>117</v>
@@ -5184,7 +5183,7 @@
         <v>71</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>120</v>
@@ -5219,7 +5218,7 @@
         <v>124</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>125</v>
@@ -5254,7 +5253,7 @@
         <v>128</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>129</v>
@@ -5289,7 +5288,7 @@
         <v>71</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>132</v>
@@ -5324,7 +5323,7 @@
         <v>90</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>135</v>
@@ -5359,7 +5358,7 @@
         <v>82</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>138</v>
@@ -5394,7 +5393,7 @@
         <v>71</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>141</v>
@@ -5429,7 +5428,7 @@
         <v>145</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>146</v>
@@ -5464,7 +5463,7 @@
         <v>149</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>150</v>
@@ -5499,7 +5498,7 @@
         <v>71</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>153</v>
@@ -5534,7 +5533,7 @@
         <v>78</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>156</v>
@@ -5569,7 +5568,7 @@
         <v>94</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>159</v>
@@ -5604,7 +5603,7 @@
         <v>71</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>162</v>
@@ -5637,7 +5636,7 @@
         <v>165</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>166</v>
@@ -5670,7 +5669,7 @@
         <v>71</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>169</v>
@@ -5705,7 +5704,7 @@
         <v>145</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>172</v>
@@ -5740,7 +5739,7 @@
         <v>149</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>175</v>
@@ -5775,7 +5774,7 @@
         <v>71</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>178</v>
@@ -5810,7 +5809,7 @@
         <v>90</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>182</v>
@@ -5845,7 +5844,7 @@
         <v>94</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>185</v>
@@ -5880,7 +5879,7 @@
         <v>71</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>189</v>
@@ -5915,7 +5914,7 @@
         <v>165</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>193</v>
@@ -5950,10 +5949,10 @@
         <v>71</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>9</v>
@@ -5985,7 +5984,7 @@
         <v>165</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>199</v>
@@ -6020,7 +6019,7 @@
         <v>94</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>196</v>
@@ -6055,7 +6054,7 @@
         <v>71</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>204</v>
@@ -6090,10 +6089,10 @@
         <v>208</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>204</v>
+        <v>1169</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>205</v>
@@ -6125,7 +6124,7 @@
         <v>116</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>211</v>
@@ -6160,7 +6159,7 @@
         <v>71</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>214</v>
@@ -6195,7 +6194,7 @@
         <v>128</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>218</v>
@@ -6230,7 +6229,7 @@
         <v>71</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>221</v>
@@ -6263,7 +6262,7 @@
         <v>145</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>224</v>
@@ -6296,7 +6295,7 @@
         <v>227</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>228</v>
@@ -6329,7 +6328,7 @@
         <v>71</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>231</v>
@@ -6364,7 +6363,7 @@
         <v>165</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>234</v>
@@ -6399,7 +6398,7 @@
         <v>71</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>237</v>
@@ -6434,7 +6433,7 @@
         <v>78</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>241</v>
@@ -6469,7 +6468,7 @@
         <v>227</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>244</v>
@@ -6504,7 +6503,7 @@
         <v>71</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>247</v>
@@ -6539,7 +6538,7 @@
         <v>250</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>251</v>
@@ -6574,7 +6573,7 @@
         <v>71</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>255</v>
@@ -6607,7 +6606,7 @@
         <v>208</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>258</v>
@@ -6640,7 +6639,7 @@
         <v>149</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>261</v>
@@ -6883,7 +6882,7 @@
         <v>71</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>287</v>
@@ -6918,7 +6917,7 @@
         <v>90</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>291</v>
@@ -6953,7 +6952,7 @@
         <v>94</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>294</v>
@@ -6988,7 +6987,7 @@
         <v>71</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>297</v>
@@ -7021,7 +7020,7 @@
         <v>208</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>300</v>
@@ -7054,7 +7053,7 @@
         <v>94</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>303</v>
@@ -7087,7 +7086,7 @@
         <v>71</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>306</v>
@@ -7122,7 +7121,7 @@
         <v>309</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>310</v>
@@ -7157,7 +7156,7 @@
         <v>71</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>313</v>
@@ -7297,7 +7296,7 @@
         <v>71</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>326</v>
@@ -7332,7 +7331,7 @@
         <v>78</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>330</v>
@@ -7367,7 +7366,7 @@
         <v>272</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>333</v>
@@ -7402,7 +7401,7 @@
         <v>71</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>336</v>
@@ -7435,7 +7434,7 @@
         <v>208</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>339</v>
@@ -7468,7 +7467,7 @@
         <v>149</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>342</v>
@@ -7606,7 +7605,7 @@
         <v>71</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>354</v>
@@ -7641,7 +7640,7 @@
         <v>208</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>357</v>
@@ -7676,7 +7675,7 @@
         <v>272</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>360</v>
@@ -7711,7 +7710,7 @@
         <v>71</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>363</v>
@@ -7746,7 +7745,7 @@
         <v>208</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>366</v>
@@ -7781,7 +7780,7 @@
         <v>227</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>369</v>
@@ -7816,7 +7815,7 @@
         <v>71</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>372</v>
@@ -7851,7 +7850,7 @@
         <v>309</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>376</v>
@@ -7886,10 +7885,10 @@
         <v>71</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>1149</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>1163</v>
+        <v>1148</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>1170</v>
       </c>
       <c r="K93" s="11"/>
     </row>
@@ -8090,7 +8089,7 @@
         <v>71</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>399</v>
@@ -8125,7 +8124,7 @@
         <v>402</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>403</v>
@@ -8160,7 +8159,7 @@
         <v>149</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>406</v>
@@ -8370,7 +8369,7 @@
         <v>71</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>425</v>
@@ -8405,7 +8404,7 @@
         <v>208</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>428</v>
@@ -8440,7 +8439,7 @@
         <v>149</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>431</v>
@@ -8475,7 +8474,7 @@
         <v>71</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>434</v>
@@ -8508,7 +8507,7 @@
         <v>78</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>437</v>
@@ -8541,7 +8540,7 @@
         <v>440</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J112" s="8" t="s">
         <v>441</v>
@@ -8574,7 +8573,7 @@
         <v>71</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>444</v>
@@ -8609,7 +8608,7 @@
         <v>402</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J114" s="8" t="s">
         <v>447</v>
@@ -8644,7 +8643,7 @@
         <v>440</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>450</v>
@@ -8679,7 +8678,7 @@
         <v>71</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>453</v>
@@ -8714,7 +8713,7 @@
         <v>412</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>456</v>
@@ -8749,7 +8748,7 @@
         <v>71</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>459</v>
@@ -8782,7 +8781,7 @@
         <v>90</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>462</v>
@@ -8815,7 +8814,7 @@
         <v>94</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>465</v>
@@ -8848,7 +8847,7 @@
         <v>71</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>468</v>
@@ -8881,7 +8880,7 @@
         <v>208</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>471</v>
@@ -8914,7 +8913,7 @@
         <v>149</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>474</v>
@@ -9153,7 +9152,7 @@
         <v>71</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>500</v>
@@ -9186,7 +9185,7 @@
         <v>90</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>503</v>
@@ -9219,7 +9218,7 @@
         <v>94</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>506</v>
@@ -9252,7 +9251,7 @@
         <v>71</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>509</v>
@@ -9285,7 +9284,7 @@
         <v>128</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>512</v>
@@ -9318,7 +9317,7 @@
         <v>71</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>515</v>
@@ -9351,7 +9350,7 @@
         <v>402</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>518</v>
@@ -9384,7 +9383,7 @@
         <v>149</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>518</v>
@@ -9417,7 +9416,7 @@
         <v>71</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>523</v>
@@ -9450,7 +9449,7 @@
         <v>208</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>526</v>
@@ -9483,7 +9482,7 @@
         <v>149</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>529</v>
@@ -9492,10 +9491,10 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>869</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>870</v>
       </c>
       <c r="C141" s="7">
         <v>285</v>
@@ -9519,16 +9518,16 @@
         <v>276</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K141" s="11"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>872</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>873</v>
       </c>
       <c r="C142" s="7">
         <v>525</v>
@@ -9552,7 +9551,7 @@
         <v>276</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K142" s="11"/>
     </row>
@@ -9648,7 +9647,7 @@
         <v>71</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>540</v>
@@ -9683,7 +9682,7 @@
         <v>309</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>543</v>
@@ -9718,7 +9717,7 @@
         <v>71</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J147" s="8" t="s">
         <v>546</v>
@@ -9751,7 +9750,7 @@
         <v>78</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>549</v>
@@ -9784,7 +9783,7 @@
         <v>227</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J149" s="8" t="s">
         <v>552</v>
@@ -9982,7 +9981,7 @@
         <v>71</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J155" s="8" t="s">
         <v>570</v>
@@ -10017,7 +10016,7 @@
         <v>208</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J156" s="8" t="s">
         <v>574</v>
@@ -10052,7 +10051,7 @@
         <v>149</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J157" s="8" t="s">
         <v>577</v>
@@ -10087,7 +10086,7 @@
         <v>71</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J158" s="8" t="s">
         <v>580</v>
@@ -10122,7 +10121,7 @@
         <v>128</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J159" s="8" t="s">
         <v>584</v>
@@ -10157,7 +10156,7 @@
         <v>71</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J160" s="8" t="s">
         <v>587</v>
@@ -10190,7 +10189,7 @@
         <v>165</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J161" s="8" t="s">
         <v>590</v>
@@ -10223,7 +10222,7 @@
         <v>440</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J162" s="8" t="s">
         <v>593</v>
@@ -10256,7 +10255,7 @@
         <v>71</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J163" s="8" t="s">
         <v>596</v>
@@ -10289,7 +10288,7 @@
         <v>402</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J164" s="8" t="s">
         <v>599</v>
@@ -10322,7 +10321,7 @@
         <v>227</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J165" s="8" t="s">
         <v>602</v>
@@ -10331,7 +10330,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>603</v>
@@ -10355,7 +10354,7 @@
         <v>71</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J166" s="8" t="s">
         <v>604</v>
@@ -10366,7 +10365,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>605</v>
@@ -10390,7 +10389,7 @@
         <v>165</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J167" s="8" t="s">
         <v>606</v>
@@ -10401,7 +10400,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>607</v>
@@ -10425,7 +10424,7 @@
         <v>485</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J168" s="8" t="s">
         <v>604</v>
@@ -10576,7 +10575,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>624</v>
@@ -10845,7 +10844,7 @@
         <v>71</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>646</v>
@@ -10878,7 +10877,7 @@
         <v>78</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>649</v>
@@ -10911,7 +10910,7 @@
         <v>227</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>652</v>
@@ -11049,7 +11048,7 @@
         <v>71</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>664</v>
@@ -11082,7 +11081,7 @@
         <v>250</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>667</v>
@@ -11115,7 +11114,7 @@
         <v>71</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>669</v>
@@ -11148,7 +11147,7 @@
         <v>128</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>672</v>
@@ -11181,7 +11180,7 @@
         <v>71</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>675</v>
@@ -11214,19 +11213,19 @@
         <v>309</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K191" s="11"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="C192" s="7">
         <v>309</v>
@@ -11250,16 +11249,16 @@
         <v>611</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K192" s="11"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="C193" s="7">
         <v>409</v>
@@ -11283,16 +11282,16 @@
         <v>611</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K193" s="11"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="C194" s="7">
         <v>539</v>
@@ -11316,16 +11315,16 @@
         <v>611</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K194" s="11"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="C195" s="7">
         <v>220</v>
@@ -11349,7 +11348,7 @@
         <v>611</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K195" s="5" t="s">
         <v>278</v>
@@ -11357,10 +11356,10 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="C196" s="7">
         <v>320</v>
@@ -11378,13 +11377,13 @@
         <v>610</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>611</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>278</v>
@@ -11392,10 +11391,10 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>696</v>
       </c>
       <c r="C197" s="7">
         <v>510</v>
@@ -11419,7 +11418,7 @@
         <v>611</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K197" s="5" t="s">
         <v>278</v>
@@ -11427,10 +11426,10 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="C198" s="7">
         <v>300</v>
@@ -11452,16 +11451,16 @@
       </c>
       <c r="I198" s="11"/>
       <c r="J198" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K198" s="11"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>702</v>
       </c>
       <c r="C199" s="7">
         <v>535</v>
@@ -11483,16 +11482,16 @@
       </c>
       <c r="I199" s="11"/>
       <c r="J199" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K199" s="11"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="C200" s="7">
         <v>282</v>
@@ -11513,10 +11512,10 @@
         <v>71</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K200" s="5" t="s">
         <v>190</v>
@@ -11524,10 +11523,10 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C201" s="7">
         <v>392</v>
@@ -11548,10 +11547,10 @@
         <v>208</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K201" s="5" t="s">
         <v>190</v>
@@ -11559,10 +11558,10 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="C202" s="7">
         <v>557</v>
@@ -11583,10 +11582,10 @@
         <v>149</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K202" s="5" t="s">
         <v>190</v>
@@ -11594,10 +11593,10 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>713</v>
       </c>
       <c r="C203" s="7">
         <v>335</v>
@@ -11621,7 +11620,7 @@
         <v>72</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K203" s="5" t="s">
         <v>278</v>
@@ -11629,10 +11628,10 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="C204" s="7">
         <v>560</v>
@@ -11656,7 +11655,7 @@
         <v>72</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K204" s="5" t="s">
         <v>278</v>
@@ -11664,10 +11663,10 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>718</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>719</v>
       </c>
       <c r="C205" s="7">
         <v>305</v>
@@ -11688,21 +11687,21 @@
         <v>71</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J205" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="K205" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="K205" s="5" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>723</v>
       </c>
       <c r="C206" s="7">
         <v>540</v>
@@ -11723,21 +11722,21 @@
         <v>250</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>725</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>726</v>
       </c>
       <c r="C207" s="7">
         <v>304</v>
@@ -11758,19 +11757,19 @@
         <v>71</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K207" s="11"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="C208" s="7">
         <v>399</v>
@@ -11791,19 +11790,19 @@
         <v>78</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K208" s="11"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>732</v>
       </c>
       <c r="C209" s="7">
         <v>524</v>
@@ -11824,19 +11823,19 @@
         <v>227</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J209" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K209" s="11"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="C210" s="7">
         <v>308</v>
@@ -11857,19 +11856,19 @@
         <v>71</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K210" s="11"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>738</v>
       </c>
       <c r="C211" s="7">
         <v>418</v>
@@ -11890,19 +11889,19 @@
         <v>78</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K211" s="11"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="C212" s="7">
         <v>558</v>
@@ -11923,19 +11922,19 @@
         <v>227</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K212" s="11"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="C213" s="7">
         <v>278</v>
@@ -11959,18 +11958,18 @@
         <v>276</v>
       </c>
       <c r="J213" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="K213" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="K213" s="5" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="C214" s="7">
         <v>548</v>
@@ -11994,18 +11993,18 @@
         <v>276</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K214" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="C215" s="7">
         <v>315</v>
@@ -12029,7 +12028,7 @@
         <v>72</v>
       </c>
       <c r="J215" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K215" s="5" t="s">
         <v>278</v>
@@ -12037,10 +12036,10 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="C216" s="7">
         <v>555</v>
@@ -12064,7 +12063,7 @@
         <v>72</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K216" s="5" t="s">
         <v>278</v>
@@ -12072,10 +12071,10 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>880</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>881</v>
       </c>
       <c r="C217" s="7">
         <v>416</v>
@@ -12096,10 +12095,10 @@
         <v>71</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K217" s="5" t="s">
         <v>9</v>
@@ -12107,10 +12106,10 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>883</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>884</v>
       </c>
       <c r="C218" s="7">
         <v>626</v>
@@ -12131,10 +12130,10 @@
         <v>128</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K218" s="5" t="s">
         <v>9</v>
@@ -12142,10 +12141,10 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="C219" s="7">
         <v>315</v>
@@ -12166,19 +12165,19 @@
         <v>71</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J219" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K219" s="11"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>758</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>759</v>
       </c>
       <c r="C220" s="7">
         <v>560</v>
@@ -12199,19 +12198,19 @@
         <v>128</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K220" s="11"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>761</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>762</v>
       </c>
       <c r="C221" s="7">
         <v>350</v>
@@ -12235,18 +12234,18 @@
         <v>533</v>
       </c>
       <c r="J221" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="K221" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="K221" s="5" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="C222" s="7">
         <v>570</v>
@@ -12270,18 +12269,18 @@
         <v>533</v>
       </c>
       <c r="J222" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>769</v>
       </c>
       <c r="C223" s="7">
         <v>325</v>
@@ -12305,16 +12304,16 @@
         <v>611</v>
       </c>
       <c r="J223" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K223" s="11"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="C224" s="7">
         <v>555</v>
@@ -12332,22 +12331,22 @@
         <v>610</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I224" s="5" t="s">
         <v>611</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K224" s="11"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="C225" s="7">
         <v>337</v>
@@ -12371,16 +12370,16 @@
         <v>611</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K225" s="11"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="C226" s="7">
         <v>562</v>
@@ -12398,22 +12397,22 @@
         <v>610</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I226" s="5" t="s">
         <v>611</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K226" s="11"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>886</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>887</v>
       </c>
       <c r="C227" s="7">
         <v>325</v>
@@ -12437,16 +12436,16 @@
         <v>611</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K227" s="11"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="C228" s="7">
         <v>425</v>
@@ -12470,16 +12469,16 @@
         <v>611</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K228" s="11"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>892</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>893</v>
       </c>
       <c r="C229" s="7">
         <v>565</v>
@@ -12503,16 +12502,16 @@
         <v>611</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K229" s="11"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>782</v>
       </c>
       <c r="C230" s="7">
         <v>350</v>
@@ -12533,19 +12532,19 @@
         <v>71</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K230" s="11"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="C231" s="7">
         <v>575</v>
@@ -12566,19 +12565,19 @@
         <v>412</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K231" s="11"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>787</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>788</v>
       </c>
       <c r="C232" s="7">
         <v>338</v>
@@ -12602,7 +12601,7 @@
         <v>72</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K232" s="5" t="s">
         <v>205</v>
@@ -12610,10 +12609,10 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>791</v>
       </c>
       <c r="C233" s="7">
         <v>563</v>
@@ -12637,7 +12636,7 @@
         <v>72</v>
       </c>
       <c r="J233" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K233" s="5" t="s">
         <v>205</v>
@@ -12645,10 +12644,10 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>896</v>
       </c>
       <c r="C234" s="7">
         <v>327</v>
@@ -12669,19 +12668,19 @@
         <v>71</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K234" s="11"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="C235" s="7">
         <v>432</v>
@@ -12702,19 +12701,19 @@
         <v>78</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K235" s="11"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="C236" s="7">
         <v>562</v>
@@ -12735,19 +12734,19 @@
         <v>227</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K236" s="11"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>905</v>
       </c>
       <c r="C237" s="7">
         <v>348</v>
@@ -12768,21 +12767,21 @@
         <v>71</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J237" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="K237" s="5" t="s">
         <v>906</v>
-      </c>
-      <c r="K237" s="5" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>908</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>909</v>
       </c>
       <c r="C238" s="7">
         <v>563</v>
@@ -12800,24 +12799,24 @@
         <v>7</v>
       </c>
       <c r="H238" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J238" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="I238" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J238" s="8" t="s">
-        <v>911</v>
-      </c>
       <c r="K238" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="C239" s="7">
         <v>323</v>
@@ -12838,19 +12837,19 @@
         <v>71</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J239" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K239" s="11"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>797</v>
       </c>
       <c r="C240" s="7">
         <v>433</v>
@@ -12871,19 +12870,19 @@
         <v>165</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J240" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K240" s="11"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>800</v>
       </c>
       <c r="C241" s="7">
         <v>568</v>
@@ -12904,19 +12903,19 @@
         <v>485</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J241" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K241" s="11"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>803</v>
       </c>
       <c r="C242" s="7">
         <v>335</v>
@@ -12937,19 +12936,19 @@
         <v>71</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J242" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K242" s="11"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>805</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>806</v>
       </c>
       <c r="C243" s="7">
         <v>440</v>
@@ -12970,19 +12969,19 @@
         <v>165</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J243" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K243" s="11"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>808</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>809</v>
       </c>
       <c r="C244" s="7">
         <v>570</v>
@@ -13003,19 +13002,19 @@
         <v>485</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J244" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K244" s="11"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>912</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>913</v>
       </c>
       <c r="C245" s="7">
         <v>317</v>
@@ -13036,10 +13035,10 @@
         <v>71</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J245" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K245" s="5" t="s">
         <v>121</v>
@@ -13047,10 +13046,10 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>915</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>916</v>
       </c>
       <c r="C246" s="7">
         <v>422</v>
@@ -13071,10 +13070,10 @@
         <v>402</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J246" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K246" s="5" t="s">
         <v>121</v>
@@ -13082,10 +13081,10 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>918</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>919</v>
       </c>
       <c r="C247" s="7">
         <v>557</v>
@@ -13106,10 +13105,10 @@
         <v>440</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J247" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K247" s="5" t="s">
         <v>121</v>
@@ -13117,10 +13116,10 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>921</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>922</v>
       </c>
       <c r="C248" s="7">
         <v>329</v>
@@ -13141,19 +13140,19 @@
         <v>71</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J248" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K248" s="11"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="C249" s="7">
         <v>434</v>
@@ -13174,19 +13173,19 @@
         <v>165</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J249" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K249" s="11"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>927</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>928</v>
       </c>
       <c r="C250" s="7">
         <v>569</v>
@@ -13207,19 +13206,19 @@
         <v>485</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J250" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K250" s="11"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>930</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>931</v>
       </c>
       <c r="C251" s="7">
         <v>281</v>
@@ -13240,10 +13239,10 @@
         <v>71</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J251" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K251" s="5" t="s">
         <v>190</v>
@@ -13251,10 +13250,10 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>934</v>
       </c>
       <c r="C252" s="7">
         <v>386</v>
@@ -13275,10 +13274,10 @@
         <v>208</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J252" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K252" s="5" t="s">
         <v>190</v>
@@ -13286,10 +13285,10 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>936</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>937</v>
       </c>
       <c r="C253" s="7">
         <v>521</v>
@@ -13310,10 +13309,10 @@
         <v>149</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J253" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K253" s="5" t="s">
         <v>190</v>
@@ -13321,10 +13320,10 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>939</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>940</v>
       </c>
       <c r="C254" s="7">
         <v>345</v>
@@ -13345,19 +13344,19 @@
         <v>71</v>
       </c>
       <c r="I254" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="J254" s="8" t="s">
         <v>941</v>
-      </c>
-      <c r="J254" s="8" t="s">
-        <v>942</v>
       </c>
       <c r="K254" s="11"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>943</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>944</v>
       </c>
       <c r="C255" s="7">
         <v>570</v>
@@ -13378,19 +13377,19 @@
         <v>128</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J255" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K255" s="11"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>946</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>947</v>
       </c>
       <c r="C256" s="7">
         <v>344</v>
@@ -13411,19 +13410,19 @@
         <v>71</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J256" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K256" s="11"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>949</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>950</v>
       </c>
       <c r="C257" s="7">
         <v>449</v>
@@ -13444,19 +13443,19 @@
         <v>165</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J257" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K257" s="11"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>952</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>953</v>
       </c>
       <c r="C258" s="7">
         <v>589</v>
@@ -13477,19 +13476,19 @@
         <v>485</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J258" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K258" s="11"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>955</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>956</v>
       </c>
       <c r="C259" s="7">
         <v>336</v>
@@ -13513,16 +13512,16 @@
         <v>276</v>
       </c>
       <c r="J259" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K259" s="11"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>958</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>959</v>
       </c>
       <c r="C260" s="7">
         <v>441</v>
@@ -13546,16 +13545,16 @@
         <v>276</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K260" s="11"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>961</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>962</v>
       </c>
       <c r="C261" s="7">
         <v>576</v>
@@ -13579,16 +13578,16 @@
         <v>276</v>
       </c>
       <c r="J261" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K261" s="11"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="C262" s="7">
         <v>360</v>
@@ -13609,10 +13608,10 @@
         <v>71</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J262" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K262" s="5" t="s">
         <v>314</v>
@@ -13620,10 +13619,10 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="C263" s="7">
         <v>590</v>
@@ -13641,13 +13640,13 @@
         <v>188</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J263" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K263" s="5" t="s">
         <v>314</v>
@@ -13655,10 +13654,10 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>964</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>965</v>
       </c>
       <c r="C264" s="7">
         <v>340</v>
@@ -13679,21 +13678,21 @@
         <v>71</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J264" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="K264" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="K264" s="5" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>968</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>969</v>
       </c>
       <c r="C265" s="7">
         <v>450</v>
@@ -13714,21 +13713,21 @@
         <v>165</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J265" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>970</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>971</v>
       </c>
       <c r="C266" s="7">
         <v>590</v>
@@ -13749,21 +13748,21 @@
         <v>485</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J266" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>973</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>974</v>
       </c>
       <c r="C267" s="7">
         <v>366</v>
@@ -13784,19 +13783,19 @@
         <v>71</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J267" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K267" s="11"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="C268" s="7">
         <v>276</v>
@@ -13817,19 +13816,19 @@
         <v>412</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J268" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K268" s="11"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>979</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>980</v>
       </c>
       <c r="C269" s="7">
         <v>327</v>
@@ -13850,19 +13849,19 @@
         <v>71</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J269" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K269" s="11"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>982</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>983</v>
       </c>
       <c r="C270" s="7">
         <v>572</v>
@@ -13883,19 +13882,19 @@
         <v>128</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J270" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K270" s="11"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>817</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>818</v>
       </c>
       <c r="C271" s="7">
         <v>475</v>
@@ -13916,19 +13915,19 @@
         <v>71</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J271" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K271" s="11"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>985</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>986</v>
       </c>
       <c r="C272" s="7">
         <v>580</v>
@@ -13949,19 +13948,19 @@
         <v>381</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J272" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K272" s="11"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>988</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>989</v>
       </c>
       <c r="C273" s="7">
         <v>585</v>
@@ -13982,19 +13981,19 @@
         <v>381</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J273" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K273" s="11"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>821</v>
       </c>
       <c r="C274" s="7">
         <v>580</v>
@@ -14015,19 +14014,19 @@
         <v>381</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J274" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K274" s="11"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>991</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>992</v>
       </c>
       <c r="C275" s="7">
         <v>411</v>
@@ -14048,10 +14047,10 @@
         <v>71</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J275" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K275" s="5" t="s">
         <v>9</v>
@@ -14059,10 +14058,10 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>994</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>995</v>
       </c>
       <c r="C276" s="7">
         <v>611</v>
@@ -14080,13 +14079,13 @@
         <v>188</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J276" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K276" s="5" t="s">
         <v>9</v>
@@ -14094,10 +14093,10 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>824</v>
       </c>
       <c r="C277" s="7">
         <v>335</v>
@@ -14121,16 +14120,16 @@
         <v>72</v>
       </c>
       <c r="J277" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K277" s="11"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>826</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>827</v>
       </c>
       <c r="C278" s="7">
         <v>441</v>
@@ -14154,16 +14153,16 @@
         <v>72</v>
       </c>
       <c r="J278" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K278" s="11"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>829</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>830</v>
       </c>
       <c r="C279" s="7">
         <v>567</v>
@@ -14187,16 +14186,16 @@
         <v>72</v>
       </c>
       <c r="J279" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K279" s="11"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>998</v>
       </c>
       <c r="C280" s="7">
         <v>335</v>
@@ -14217,19 +14216,19 @@
         <v>71</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J280" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K280" s="11"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>1000</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>1001</v>
       </c>
       <c r="C281" s="7">
         <v>440</v>
@@ -14250,19 +14249,19 @@
         <v>402</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J281" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K281" s="11"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>1003</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>1004</v>
       </c>
       <c r="C282" s="7">
         <v>575</v>
@@ -14283,19 +14282,19 @@
         <v>440</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J282" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K282" s="11"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>832</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>833</v>
       </c>
       <c r="C283" s="7">
         <v>326</v>
@@ -14316,10 +14315,10 @@
         <v>71</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J283" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K283" s="5" t="s">
         <v>110</v>
@@ -14327,10 +14326,10 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>836</v>
       </c>
       <c r="C284" s="7">
         <v>436</v>
@@ -14351,10 +14350,10 @@
         <v>145</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J284" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K284" s="5" t="s">
         <v>110</v>
@@ -14362,10 +14361,10 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>838</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>839</v>
       </c>
       <c r="C285" s="7">
         <v>576</v>
@@ -14383,13 +14382,13 @@
         <v>264</v>
       </c>
       <c r="H285" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="I285" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J285" s="8" t="s">
         <v>840</v>
-      </c>
-      <c r="I285" s="5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J285" s="8" t="s">
-        <v>841</v>
       </c>
       <c r="K285" s="5" t="s">
         <v>110</v>
@@ -14397,10 +14396,10 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>842</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>843</v>
       </c>
       <c r="C286" s="7">
         <v>350</v>
@@ -14421,7 +14420,7 @@
         <v>71</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J286" s="8" t="s">
         <v>141</v>
@@ -14432,10 +14431,10 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>845</v>
       </c>
       <c r="C287" s="7">
         <v>440</v>
@@ -14456,7 +14455,7 @@
         <v>145</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J287" s="8" t="s">
         <v>146</v>
@@ -14467,10 +14466,10 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>846</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="C288" s="7">
         <v>540</v>
@@ -14488,10 +14487,10 @@
         <v>5</v>
       </c>
       <c r="H288" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J288" s="8" t="s">
         <v>150</v>
@@ -14502,10 +14501,10 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="C289" s="7">
         <v>328</v>
@@ -14526,10 +14525,10 @@
         <v>71</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J289" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K289" s="5" t="s">
         <v>278</v>
@@ -14537,10 +14536,10 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>851</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>852</v>
       </c>
       <c r="C290" s="7">
         <v>553</v>
@@ -14561,10 +14560,10 @@
         <v>128</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J290" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K290" s="5" t="s">
         <v>278</v>
@@ -14572,10 +14571,10 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>1006</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>1007</v>
       </c>
       <c r="C291" s="7">
         <v>360</v>
@@ -14598,8 +14597,8 @@
       <c r="I291" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="J291" s="11" t="s">
-        <v>1164</v>
+      <c r="J291" s="8" t="s">
+        <v>1171</v>
       </c>
       <c r="K291" s="5" t="s">
         <v>190</v>
@@ -14607,10 +14606,10 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>1009</v>
       </c>
       <c r="C292" s="7">
         <v>560</v>
@@ -14628,13 +14627,13 @@
         <v>8</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I292" s="5" t="s">
         <v>477</v>
       </c>
       <c r="J292" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K292" s="5" t="s">
         <v>190</v>
@@ -14642,10 +14641,10 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>1011</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>1012</v>
       </c>
       <c r="C293" s="7">
         <v>368</v>
@@ -14666,19 +14665,19 @@
         <v>71</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J293" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K293" s="11"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>1014</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>1015</v>
       </c>
       <c r="C294" s="7">
         <v>578</v>
@@ -14699,19 +14698,19 @@
         <v>309</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J294" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K294" s="11"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>1017</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>1018</v>
       </c>
       <c r="C295" s="7">
         <v>334</v>
@@ -14732,10 +14731,10 @@
         <v>71</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J295" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K295" s="5" t="s">
         <v>74</v>
@@ -14743,10 +14742,10 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>1020</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>1021</v>
       </c>
       <c r="C296" s="7">
         <v>439</v>
@@ -14767,10 +14766,10 @@
         <v>78</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J296" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K296" s="5" t="s">
         <v>74</v>
@@ -14778,10 +14777,10 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>1023</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>1024</v>
       </c>
       <c r="C297" s="7">
         <v>574</v>
@@ -14802,10 +14801,10 @@
         <v>227</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J297" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K297" s="5" t="s">
         <v>74</v>
@@ -14813,10 +14812,10 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="C298" s="7">
         <v>339</v>
@@ -14840,16 +14839,16 @@
         <v>611</v>
       </c>
       <c r="J298" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K298" s="11"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>1029</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>1030</v>
       </c>
       <c r="C299" s="7">
         <v>588</v>
@@ -14867,22 +14866,22 @@
         <v>188</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I299" s="5" t="s">
         <v>611</v>
       </c>
       <c r="J299" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K299" s="11"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="C300" s="7">
         <v>370</v>
@@ -14906,18 +14905,18 @@
         <v>72</v>
       </c>
       <c r="J300" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="K300" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="K300" s="5" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>859</v>
       </c>
       <c r="C301" s="7">
         <v>600</v>
@@ -14941,24 +14940,24 @@
         <v>72</v>
       </c>
       <c r="J301" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K301" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>1033</v>
       </c>
       <c r="C302" s="7">
         <v>660</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>38</v>
@@ -14976,16 +14975,16 @@
         <v>477</v>
       </c>
       <c r="J302" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K302" s="11"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>1036</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>1037</v>
       </c>
       <c r="C303" s="7">
         <v>364</v>
@@ -15000,7 +14999,7 @@
         <v>69</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H303" s="5" t="s">
         <v>71</v>
@@ -15009,7 +15008,7 @@
         <v>72</v>
       </c>
       <c r="J303" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K303" s="5" t="s">
         <v>74</v>
@@ -15017,10 +15016,10 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>1040</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>1041</v>
       </c>
       <c r="C304" s="7">
         <v>469</v>
@@ -15035,16 +15034,16 @@
         <v>77</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I304" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J304" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K304" s="5" t="s">
         <v>74</v>
@@ -15052,10 +15051,10 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>1043</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>1044</v>
       </c>
       <c r="C305" s="7">
         <v>614</v>
@@ -15070,16 +15069,16 @@
         <v>3</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I305" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J305" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K305" s="5" t="s">
         <v>74</v>
@@ -15087,10 +15086,10 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>1047</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>1048</v>
       </c>
       <c r="C306" s="7">
         <v>370</v>
@@ -15105,7 +15104,7 @@
         <v>69</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H306" s="5" t="s">
         <v>71</v>
@@ -15114,7 +15113,7 @@
         <v>72</v>
       </c>
       <c r="J306" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K306" s="5" t="s">
         <v>87</v>
@@ -15122,10 +15121,10 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>1050</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>1051</v>
       </c>
       <c r="C307" s="7">
         <v>470</v>
@@ -15140,16 +15139,16 @@
         <v>77</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I307" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J307" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K307" s="5" t="s">
         <v>87</v>
@@ -15157,10 +15156,10 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>1054</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>1055</v>
       </c>
       <c r="C308" s="7">
         <v>610</v>
@@ -15175,16 +15174,16 @@
         <v>3</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I308" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J308" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K308" s="5" t="s">
         <v>87</v>
@@ -15192,10 +15191,10 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C309" s="7">
         <v>358</v>
@@ -15210,7 +15209,7 @@
         <v>69</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H309" s="5" t="s">
         <v>71</v>
@@ -15219,7 +15218,7 @@
         <v>72</v>
       </c>
       <c r="J309" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K309" s="5" t="s">
         <v>99</v>
@@ -15227,10 +15226,10 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B310" s="6" t="s">
         <v>1060</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>1061</v>
       </c>
       <c r="C310" s="7">
         <v>458</v>
@@ -15245,7 +15244,7 @@
         <v>77</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H310" s="5" t="s">
         <v>165</v>
@@ -15254,7 +15253,7 @@
         <v>72</v>
       </c>
       <c r="J310" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K310" s="5" t="s">
         <v>99</v>
@@ -15262,10 +15261,10 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>1063</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>1064</v>
       </c>
       <c r="C311" s="7">
         <v>618</v>
@@ -15280,7 +15279,7 @@
         <v>3</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H311" s="5" t="s">
         <v>485</v>
@@ -15289,7 +15288,7 @@
         <v>72</v>
       </c>
       <c r="J311" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K311" s="5" t="s">
         <v>99</v>
@@ -15297,10 +15296,10 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>1066</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>1067</v>
       </c>
       <c r="C312" s="7">
         <v>312</v>
@@ -15315,7 +15314,7 @@
         <v>69</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H312" s="5" t="s">
         <v>71</v>
@@ -15324,16 +15323,16 @@
         <v>72</v>
       </c>
       <c r="J312" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K312" s="11"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>1069</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>1070</v>
       </c>
       <c r="C313" s="7">
         <v>417</v>
@@ -15348,7 +15347,7 @@
         <v>77</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H313" s="5" t="s">
         <v>145</v>
@@ -15357,16 +15356,16 @@
         <v>72</v>
       </c>
       <c r="J313" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K313" s="11"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>1072</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>1073</v>
       </c>
       <c r="C314" s="7">
         <v>547</v>
@@ -15381,31 +15380,31 @@
         <v>3</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I314" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J314" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K314" s="11"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>1075</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>1076</v>
       </c>
       <c r="C315" s="7">
         <v>335</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>39</v>
@@ -15414,7 +15413,7 @@
         <v>69</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H315" s="5" t="s">
         <v>71</v>
@@ -15423,22 +15422,22 @@
         <v>72</v>
       </c>
       <c r="J315" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K315" s="11"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>1079</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>1080</v>
       </c>
       <c r="C316" s="7">
         <v>445</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>39</v>
@@ -15447,7 +15446,7 @@
         <v>77</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H316" s="5" t="s">
         <v>402</v>
@@ -15456,22 +15455,22 @@
         <v>72</v>
       </c>
       <c r="J316" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K316" s="11"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>1082</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>1083</v>
       </c>
       <c r="C317" s="7">
         <v>590</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>39</v>
@@ -15480,7 +15479,7 @@
         <v>3</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H317" s="5" t="s">
         <v>440</v>
@@ -15489,16 +15488,16 @@
         <v>72</v>
       </c>
       <c r="J317" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K317" s="11"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B318" s="6" t="s">
         <v>1085</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>1086</v>
       </c>
       <c r="C318" s="7">
         <v>322</v>
@@ -15513,7 +15512,7 @@
         <v>69</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H318" s="5" t="s">
         <v>71</v>
@@ -15522,16 +15521,16 @@
         <v>72</v>
       </c>
       <c r="J318" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K318" s="11"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>1088</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>1089</v>
       </c>
       <c r="C319" s="7">
         <v>432</v>
@@ -15546,7 +15545,7 @@
         <v>77</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H319" s="5" t="s">
         <v>145</v>
@@ -15555,16 +15554,16 @@
         <v>72</v>
       </c>
       <c r="J319" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K319" s="11"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B320" s="6" t="s">
         <v>1091</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>1092</v>
       </c>
       <c r="C320" s="7">
         <v>582</v>
@@ -15579,25 +15578,25 @@
         <v>3</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I320" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J320" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K320" s="11"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B321" s="6" t="s">
         <v>1094</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>1095</v>
       </c>
       <c r="C321" s="7">
         <v>318</v>
@@ -15612,7 +15611,7 @@
         <v>69</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H321" s="5" t="s">
         <v>71</v>
@@ -15621,7 +15620,7 @@
         <v>72</v>
       </c>
       <c r="J321" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K321" s="5" t="s">
         <v>571</v>
@@ -15629,10 +15628,10 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B322" s="6" t="s">
         <v>1097</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>1098</v>
       </c>
       <c r="C322" s="7">
         <v>428</v>
@@ -15647,7 +15646,7 @@
         <v>77</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H322" s="5" t="s">
         <v>165</v>
@@ -15656,7 +15655,7 @@
         <v>72</v>
       </c>
       <c r="J322" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K322" s="5" t="s">
         <v>571</v>
@@ -15664,10 +15663,10 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B323" s="6" t="s">
         <v>1100</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>1101</v>
       </c>
       <c r="C323" s="7">
         <v>568</v>
@@ -15682,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H323" s="5" t="s">
         <v>485</v>
@@ -15691,7 +15690,7 @@
         <v>72</v>
       </c>
       <c r="J323" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K323" s="5" t="s">
         <v>571</v>
@@ -15699,10 +15698,10 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B324" s="6" t="s">
         <v>1103</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>1104</v>
       </c>
       <c r="C324" s="7">
         <v>336</v>
@@ -15717,7 +15716,7 @@
         <v>69</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H324" s="5" t="s">
         <v>71</v>
@@ -15726,16 +15725,16 @@
         <v>72</v>
       </c>
       <c r="J324" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K324" s="11"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B325" s="6" t="s">
         <v>1106</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>1107</v>
       </c>
       <c r="C325" s="7">
         <v>441</v>
@@ -15750,7 +15749,7 @@
         <v>77</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H325" s="5" t="s">
         <v>145</v>
@@ -15759,16 +15758,16 @@
         <v>72</v>
       </c>
       <c r="J325" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K325" s="11"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B326" s="6" t="s">
         <v>1109</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>1110</v>
       </c>
       <c r="C326" s="7">
         <v>581</v>
@@ -15783,25 +15782,25 @@
         <v>3</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I326" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J326" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K326" s="11"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B327" s="6" t="s">
         <v>1112</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>1113</v>
       </c>
       <c r="C327" s="7">
         <v>323</v>
@@ -15816,7 +15815,7 @@
         <v>69</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H327" s="5" t="s">
         <v>71</v>
@@ -15825,7 +15824,7 @@
         <v>72</v>
       </c>
       <c r="J327" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K327" s="5" t="s">
         <v>142</v>
@@ -15833,10 +15832,10 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B328" s="6" t="s">
         <v>1115</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>1116</v>
       </c>
       <c r="C328" s="7">
         <v>418</v>
@@ -15851,7 +15850,7 @@
         <v>77</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H328" s="5" t="s">
         <v>165</v>
@@ -15860,7 +15859,7 @@
         <v>72</v>
       </c>
       <c r="J328" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K328" s="5" t="s">
         <v>142</v>
@@ -15868,10 +15867,10 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>1118</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>1119</v>
       </c>
       <c r="C329" s="7">
         <v>543</v>
@@ -15886,7 +15885,7 @@
         <v>3</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H329" s="5" t="s">
         <v>485</v>
@@ -15895,7 +15894,7 @@
         <v>72</v>
       </c>
       <c r="J329" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K329" s="5" t="s">
         <v>142</v>
@@ -15903,10 +15902,10 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>1121</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>1122</v>
       </c>
       <c r="C330" s="7">
         <v>327</v>
@@ -15921,7 +15920,7 @@
         <v>69</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H330" s="5" t="s">
         <v>71</v>
@@ -15930,16 +15929,16 @@
         <v>72</v>
       </c>
       <c r="J330" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="K330" s="11"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B331" s="6" t="s">
         <v>1124</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>1125</v>
       </c>
       <c r="C331" s="7">
         <v>532</v>
@@ -15954,7 +15953,7 @@
         <v>3</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H331" s="5" t="s">
         <v>309</v>
@@ -15963,16 +15962,16 @@
         <v>72</v>
       </c>
       <c r="J331" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K331" s="11"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B332" s="6" t="s">
         <v>1127</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>1128</v>
       </c>
       <c r="C332" s="7">
         <v>299</v>
@@ -15987,7 +15986,7 @@
         <v>69</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H332" s="5" t="s">
         <v>71</v>
@@ -15996,7 +15995,7 @@
         <v>72</v>
       </c>
       <c r="J332" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K332" s="5" t="s">
         <v>110</v>
@@ -16004,10 +16003,10 @@
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B333" s="6" t="s">
         <v>1130</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>1131</v>
       </c>
       <c r="C333" s="7">
         <v>514</v>
@@ -16022,7 +16021,7 @@
         <v>3</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H333" s="5" t="s">
         <v>250</v>
@@ -16031,7 +16030,7 @@
         <v>72</v>
       </c>
       <c r="J333" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K333" s="5" t="s">
         <v>110</v>
@@ -16039,10 +16038,10 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B334" s="6" t="s">
         <v>1133</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>1134</v>
       </c>
       <c r="C334" s="7">
         <v>316</v>
@@ -16057,7 +16056,7 @@
         <v>69</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H334" s="5" t="s">
         <v>71</v>
@@ -16066,16 +16065,16 @@
         <v>72</v>
       </c>
       <c r="J334" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K334" s="11"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>1136</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>1137</v>
       </c>
       <c r="C335" s="7">
         <v>416</v>
@@ -16090,7 +16089,7 @@
         <v>77</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H335" s="5" t="s">
         <v>402</v>
@@ -16099,16 +16098,16 @@
         <v>72</v>
       </c>
       <c r="J335" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K335" s="11"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>1139</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>1140</v>
       </c>
       <c r="C336" s="7">
         <v>571</v>
@@ -16123,7 +16122,7 @@
         <v>3</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H336" s="5" t="s">
         <v>149</v>
@@ -16132,7 +16131,7 @@
         <v>72</v>
       </c>
       <c r="J336" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K336" s="11"/>
     </row>
@@ -16142,338 +16141,340 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{0C9F96F5-4167-4B7C-9D0A-2ABF0DAF491A}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{28006466-1BDE-45A2-8EB9-7F9E55869497}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{9958040C-6520-448A-8580-2541C00226BD}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{D7B284BD-C1B3-4939-ABC7-BBD6721D5E8B}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{855E1CA7-ABFF-43BC-A38D-DEC3BB963376}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{AF3F1F66-B1E2-4311-AA50-C27E5D57583D}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{266174AE-E9FA-4029-BC6D-436E768197A0}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{201D7A08-5780-4D37-A462-D5DD1CAB53D7}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{27C58F48-82DA-45AD-951F-6F1573B5EE0D}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{6985CDC1-41F8-471B-BCFD-57498B9E25AF}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{23DBD757-E1B6-4F0D-86D7-89B1D4EE8A62}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{F66F53E7-DC0E-46C0-9E7C-2556381805C9}"/>
-    <hyperlink ref="J15" r:id="rId13" xr:uid="{4D50B4B5-76DE-4C25-9697-F1605497023C}"/>
-    <hyperlink ref="J16" r:id="rId14" xr:uid="{7D5FBF48-89F1-4C87-A165-04456AA66198}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{A7662C59-EF26-480A-B488-3B2977DD79ED}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{25BF436E-A4F8-4200-A0AD-58F91239CEAC}"/>
-    <hyperlink ref="J19" r:id="rId17" xr:uid="{95D3FBFA-8053-44D3-BA87-63CD2A366121}"/>
-    <hyperlink ref="J20" r:id="rId18" xr:uid="{2888ACDE-EB11-47FE-BF05-8337A5E5C69F}"/>
-    <hyperlink ref="J21" r:id="rId19" xr:uid="{766A5EE6-0656-49BA-A6FB-2B0168571BAC}"/>
-    <hyperlink ref="J22" r:id="rId20" xr:uid="{73BD940D-CCC9-49B9-ACE7-4F6E5B97100F}"/>
-    <hyperlink ref="J23" r:id="rId21" xr:uid="{2F6777C0-6E93-4843-9DE5-8F3D0733D64A}"/>
-    <hyperlink ref="J24" r:id="rId22" xr:uid="{BADEE693-458C-4CD6-822A-53B82A6B55B1}"/>
-    <hyperlink ref="J25" r:id="rId23" xr:uid="{A532C3BD-6D9F-4EAA-89C6-98CA7D221C40}"/>
-    <hyperlink ref="J26" r:id="rId24" xr:uid="{9824FE0D-1922-40ED-94FA-3586ECD16008}"/>
-    <hyperlink ref="J27" r:id="rId25" xr:uid="{E701D7A5-EA2D-45E1-9A78-107D0A395479}"/>
-    <hyperlink ref="J28" r:id="rId26" xr:uid="{5D4FD085-E606-468B-8611-4C727406A33E}"/>
-    <hyperlink ref="J29" r:id="rId27" xr:uid="{0DA9CE5C-B612-45B1-BD29-892FBA1CF34E}"/>
-    <hyperlink ref="J30" r:id="rId28" xr:uid="{0635DE2B-83AF-4FD7-B159-060CC2CE5BD8}"/>
-    <hyperlink ref="J31" r:id="rId29" xr:uid="{D1B0E132-ED68-484F-B407-7E75465F0B31}"/>
-    <hyperlink ref="J32" r:id="rId30" xr:uid="{B653DE81-3E3F-4EF8-8101-C70D296FB6E6}"/>
-    <hyperlink ref="J33" r:id="rId31" xr:uid="{677B463A-AFBC-4A37-B10E-7EE99E88143C}"/>
-    <hyperlink ref="J34" r:id="rId32" xr:uid="{8E3090B6-F5D5-4A28-87AB-78F94FF19F3C}"/>
-    <hyperlink ref="J35" r:id="rId33" xr:uid="{CACA16FA-D7E2-4D92-9852-46DAFE74FB3E}"/>
-    <hyperlink ref="J36" r:id="rId34" xr:uid="{6484F22F-0567-4824-8FEE-1AB2888952FE}"/>
-    <hyperlink ref="J37" r:id="rId35" xr:uid="{C406C5FB-4C2B-4675-A298-81F8E6CC01F0}"/>
-    <hyperlink ref="J38" r:id="rId36" xr:uid="{BB396473-1381-4ECE-97C1-865369FBBAE5}"/>
-    <hyperlink ref="J39" r:id="rId37" xr:uid="{B1A616E4-8878-4CA7-9E63-1BA7E5E816B9}"/>
-    <hyperlink ref="J40" r:id="rId38" xr:uid="{1B20B811-6C88-4269-8F88-6038EA444CEC}"/>
-    <hyperlink ref="J41" r:id="rId39" xr:uid="{CEE2F423-E133-48F6-ADB9-D65684A8EEDA}"/>
-    <hyperlink ref="J42" r:id="rId40" xr:uid="{2C7C0626-9436-483D-8CB5-112BE44D9E68}"/>
-    <hyperlink ref="J43" r:id="rId41" xr:uid="{426E9F31-7E80-47DE-A143-C55D26CAEA20}"/>
-    <hyperlink ref="J44" r:id="rId42" xr:uid="{4179CD19-5DB6-48C2-B082-0ED80F7DA9B5}"/>
-    <hyperlink ref="J45" r:id="rId43" xr:uid="{437E3F69-F453-447D-BAE5-83AB4D5F69CE}"/>
-    <hyperlink ref="J46" r:id="rId44" xr:uid="{D082D17C-337D-42A7-AF88-5D4E96D5210B}"/>
-    <hyperlink ref="J47" r:id="rId45" xr:uid="{F157093B-33DF-4EEA-AC5A-EFEAF82A7C61}"/>
-    <hyperlink ref="J48" r:id="rId46" xr:uid="{A130EB14-7EE8-4352-BB18-E10888825C63}"/>
-    <hyperlink ref="J49" r:id="rId47" xr:uid="{BB2D2DBE-B814-4630-BD6F-3F1A5703752F}"/>
-    <hyperlink ref="J50" r:id="rId48" xr:uid="{C6C3ACDC-2D14-4B34-B1B6-90C0EA3C88EE}"/>
-    <hyperlink ref="J51" r:id="rId49" xr:uid="{8E74A4F6-F68C-4BD0-8E5E-6B9803B3C9C0}"/>
-    <hyperlink ref="J52" r:id="rId50" xr:uid="{92817B94-5F99-4872-98EA-BD18FB9DCD30}"/>
-    <hyperlink ref="J53" r:id="rId51" xr:uid="{835EDE9E-3B56-46A8-89D8-EB688BA74172}"/>
-    <hyperlink ref="J54" r:id="rId52" xr:uid="{7351337A-09B7-47B5-9764-F1CFE3CCDABE}"/>
-    <hyperlink ref="J55" r:id="rId53" xr:uid="{0C7942EE-F359-4A5C-A0B5-1117B32CC6E9}"/>
-    <hyperlink ref="J56" r:id="rId54" xr:uid="{2AD9DE60-E8C9-4B70-96E4-E0CF474570FC}"/>
-    <hyperlink ref="J57" r:id="rId55" xr:uid="{5F02B2EB-0D61-40B8-A607-5C01B2B42884}"/>
-    <hyperlink ref="J58" r:id="rId56" xr:uid="{3C3AC241-5854-4C11-98A7-7A0DB9577C79}"/>
-    <hyperlink ref="J59" r:id="rId57" xr:uid="{9E3AB218-6C1B-4EBF-9397-E00B5F98B20D}"/>
-    <hyperlink ref="J60" r:id="rId58" xr:uid="{872610FE-2A16-4958-AD4E-7BE3E96EBF22}"/>
-    <hyperlink ref="J61" r:id="rId59" xr:uid="{672DE28F-F602-4241-BB00-B8B3C782D56C}"/>
-    <hyperlink ref="J62" r:id="rId60" xr:uid="{A142865A-454F-4414-A708-962F9072E4B2}"/>
-    <hyperlink ref="J63" r:id="rId61" xr:uid="{4A93B123-EFF9-4055-A301-638471393FA3}"/>
-    <hyperlink ref="J64" r:id="rId62" xr:uid="{DCBED821-248E-478F-A4FD-826121EE424B}"/>
-    <hyperlink ref="J65" r:id="rId63" xr:uid="{EF2C409D-209B-4E0B-886C-5F40D01F676A}"/>
-    <hyperlink ref="J66" r:id="rId64" xr:uid="{1EE1BC52-69D0-499F-8840-B97F405644F1}"/>
-    <hyperlink ref="J67" r:id="rId65" xr:uid="{EF44220B-0B02-4A8E-A52E-D76571A063CD}"/>
-    <hyperlink ref="J68" r:id="rId66" xr:uid="{3C5D118B-0644-4461-B001-D4AACF76C482}"/>
-    <hyperlink ref="J69" r:id="rId67" xr:uid="{1EE74986-F14E-48ED-9AEC-9F19845D2DCC}"/>
-    <hyperlink ref="J70" r:id="rId68" xr:uid="{6B6D133D-8E70-4470-9093-0F29C1B1E442}"/>
-    <hyperlink ref="J71" r:id="rId69" xr:uid="{01D7C3CF-CAFB-4B85-8D7E-BC5CD7B7E26E}"/>
-    <hyperlink ref="J72" r:id="rId70" xr:uid="{685AC851-9518-4558-B8BE-9C8608CFF5A6}"/>
-    <hyperlink ref="J73" r:id="rId71" xr:uid="{987A7ABD-0993-4F62-BBF8-484787C3E395}"/>
-    <hyperlink ref="J74" r:id="rId72" xr:uid="{D508BC70-366C-4D36-BCAC-C5A75A2052E1}"/>
-    <hyperlink ref="J75" r:id="rId73" xr:uid="{7108A472-415E-482F-A38D-E7D47B8C6A3E}"/>
-    <hyperlink ref="J76" r:id="rId74" xr:uid="{6DAAB93D-3A3C-4C8E-9055-686C94CEA47E}"/>
-    <hyperlink ref="J77" r:id="rId75" xr:uid="{DB4C61B9-2303-4847-B60F-D39C7586E72C}"/>
-    <hyperlink ref="J78" r:id="rId76" xr:uid="{27C1B893-7E48-436B-A384-FAC878806ADF}"/>
-    <hyperlink ref="J79" r:id="rId77" xr:uid="{EDBBF5C4-C835-4A08-8C62-978397800321}"/>
-    <hyperlink ref="J80" r:id="rId78" xr:uid="{BE5A3F30-2679-445B-A103-C781EBAD3DC6}"/>
-    <hyperlink ref="J81" r:id="rId79" xr:uid="{BFDBA9E2-F6F2-4396-A075-80573F5007C4}"/>
-    <hyperlink ref="J82" r:id="rId80" xr:uid="{891AA7D9-E6F4-4F67-8ABA-D69D4B4B691A}"/>
-    <hyperlink ref="J83" r:id="rId81" xr:uid="{FADF17A7-7618-4BAA-9AE0-4977BC31E01A}"/>
-    <hyperlink ref="J84" r:id="rId82" xr:uid="{2E445E45-3368-4CA6-979C-1E1CA2D62442}"/>
-    <hyperlink ref="J85" r:id="rId83" xr:uid="{B8321276-B2DE-47D4-BBFA-0FE009A829BC}"/>
-    <hyperlink ref="J86" r:id="rId84" xr:uid="{1E5AA01B-FF08-4B67-99B7-31B9EE9BAE2E}"/>
-    <hyperlink ref="J87" r:id="rId85" xr:uid="{B63C5AD0-B244-421F-9EC4-CBD89555C192}"/>
-    <hyperlink ref="J88" r:id="rId86" xr:uid="{63F96D69-4145-4F22-A327-C5D799C972C7}"/>
-    <hyperlink ref="J89" r:id="rId87" xr:uid="{DE2AE5A9-F41C-43DB-A848-EA2080E6C59E}"/>
-    <hyperlink ref="J90" r:id="rId88" xr:uid="{E93085D6-2105-45A0-9FE6-04A449C960AA}"/>
-    <hyperlink ref="J91" r:id="rId89" xr:uid="{0DFD17B6-9B52-423C-ADB0-243FCA30F99A}"/>
-    <hyperlink ref="J92" r:id="rId90" xr:uid="{19BC06D2-D8ED-48E3-A925-D298F72FDDEF}"/>
-    <hyperlink ref="J96" r:id="rId91" xr:uid="{5A39CE67-4190-49D6-A449-72DCBD4BB4BE}"/>
-    <hyperlink ref="J97" r:id="rId92" xr:uid="{9A6C36D1-02A0-4691-862D-3AE647A83D7B}"/>
-    <hyperlink ref="J98" r:id="rId93" xr:uid="{CB4213E8-43F9-4DC8-AB56-60CF36AB12B0}"/>
-    <hyperlink ref="J99" r:id="rId94" xr:uid="{E0B5F22C-F3CE-4F1B-BF67-B7259B128C73}"/>
-    <hyperlink ref="J100" r:id="rId95" xr:uid="{66646DD8-83FA-4E73-BD6F-88C1AC1D8E7F}"/>
-    <hyperlink ref="J101" r:id="rId96" xr:uid="{54037946-3087-4099-8513-19F794F120F2}"/>
-    <hyperlink ref="J102" r:id="rId97" xr:uid="{A36FBAF3-59C0-4C08-BC19-86156089DE95}"/>
-    <hyperlink ref="J103" r:id="rId98" xr:uid="{AAC23A3F-B77B-4813-BC24-9A9BD105BFA8}"/>
-    <hyperlink ref="J104" r:id="rId99" xr:uid="{7C908970-0BEC-4264-A729-89796A2A6ED0}"/>
-    <hyperlink ref="J105" r:id="rId100" xr:uid="{A3EE4C1C-F523-466E-9741-6519B1CCDF4A}"/>
-    <hyperlink ref="J106" r:id="rId101" xr:uid="{E297C50A-5934-49E9-8945-8770CA95143F}"/>
-    <hyperlink ref="J107" r:id="rId102" xr:uid="{24A4ACBC-00DA-46D0-B004-114BDEDBD9F8}"/>
-    <hyperlink ref="J108" r:id="rId103" xr:uid="{18D0D779-17EC-42D3-8E02-227C0C21738D}"/>
-    <hyperlink ref="J109" r:id="rId104" xr:uid="{F479BEF8-30E3-4454-B37C-0282C133872E}"/>
-    <hyperlink ref="J110" r:id="rId105" xr:uid="{BE33A81A-AFB0-468B-A125-B71C1FA4D201}"/>
-    <hyperlink ref="J111" r:id="rId106" xr:uid="{1585BB50-337A-4728-9933-9450D0E77B18}"/>
-    <hyperlink ref="J112" r:id="rId107" xr:uid="{83FE6C41-1339-4228-B2CB-4D54C581389F}"/>
-    <hyperlink ref="J113" r:id="rId108" xr:uid="{981C3956-FA95-4E1A-A4B0-EACF986AD768}"/>
-    <hyperlink ref="J114" r:id="rId109" xr:uid="{EF88E3F8-B433-44DC-AA02-38299936EBD4}"/>
-    <hyperlink ref="J115" r:id="rId110" xr:uid="{24B33126-E92D-4197-9405-EE596D016C3B}"/>
-    <hyperlink ref="J116" r:id="rId111" xr:uid="{4CEDB4BB-71E0-4801-A77C-F3B809BE3EB3}"/>
-    <hyperlink ref="J117" r:id="rId112" xr:uid="{63E3FC32-47F3-49FB-8562-85AA1D2C6980}"/>
-    <hyperlink ref="J118" r:id="rId113" xr:uid="{24B71DB3-937B-4CBA-812A-FB57C1C61732}"/>
-    <hyperlink ref="J119" r:id="rId114" xr:uid="{CB54D463-FF06-4BCD-B5AA-3B3FF9A17BFA}"/>
-    <hyperlink ref="J120" r:id="rId115" xr:uid="{F61BE2C0-92B8-459D-9733-017E4F4994B8}"/>
-    <hyperlink ref="J121" r:id="rId116" xr:uid="{D5627FE6-F9C6-45C8-B54F-B612C57F6FB6}"/>
-    <hyperlink ref="J122" r:id="rId117" xr:uid="{1C966FA3-034D-4CB2-AC47-C6D54D89761A}"/>
-    <hyperlink ref="J123" r:id="rId118" xr:uid="{04CC30EE-F4D4-4624-AEA3-73259BBE1C87}"/>
-    <hyperlink ref="J124" r:id="rId119" xr:uid="{C81FDD09-1331-4FF1-AE70-1BF4DA7B9A21}"/>
-    <hyperlink ref="J125" r:id="rId120" xr:uid="{F11A5FF5-90FC-4880-BB70-C278F048652A}"/>
-    <hyperlink ref="J126" r:id="rId121" xr:uid="{20F7B25C-1B2D-4780-B9D7-709F54CE8988}"/>
-    <hyperlink ref="J127" r:id="rId122" xr:uid="{7E2486E0-06A3-4216-AD8C-1D5178C94BD9}"/>
-    <hyperlink ref="J128" r:id="rId123" xr:uid="{90DEFC6C-5AEA-4B44-AF3B-B8A2B430B177}"/>
-    <hyperlink ref="J129" r:id="rId124" xr:uid="{5C3043B7-34C3-4EF5-A4B1-6D871782F312}"/>
-    <hyperlink ref="J130" r:id="rId125" xr:uid="{84A4D49A-4B9B-4680-8413-989690488031}"/>
-    <hyperlink ref="J131" r:id="rId126" xr:uid="{644CCA96-51E4-48DC-82D7-3A954DA48D07}"/>
-    <hyperlink ref="J132" r:id="rId127" xr:uid="{39343C21-9281-48FF-9FA7-5108A50B396B}"/>
-    <hyperlink ref="J133" r:id="rId128" xr:uid="{AFBB093C-E06F-408C-B83C-3A2DDE5D065B}"/>
-    <hyperlink ref="J134" r:id="rId129" xr:uid="{D7DD0B24-602F-4C9C-A9EE-0757B8FFE8E2}"/>
-    <hyperlink ref="J135" r:id="rId130" xr:uid="{8987C102-0F7A-4471-92F5-FE07F4588EB2}"/>
-    <hyperlink ref="J136" r:id="rId131" xr:uid="{6F39B05B-F2FD-4155-AA01-CC77EA811086}"/>
-    <hyperlink ref="J137" r:id="rId132" xr:uid="{CF296D19-E6A9-4248-87CE-A3763E923CA0}"/>
-    <hyperlink ref="J138" r:id="rId133" xr:uid="{DC10BEE3-4704-4D23-98FF-937D965F6E8D}"/>
-    <hyperlink ref="J139" r:id="rId134" xr:uid="{7DFFD974-9B7F-4725-A47A-EA7A53947BA6}"/>
-    <hyperlink ref="J140" r:id="rId135" xr:uid="{8CCDEE13-8C2C-4208-897D-E3EBDF00AB43}"/>
-    <hyperlink ref="J141" r:id="rId136" xr:uid="{861B036D-BE31-4D10-800A-BBF631F2E7C2}"/>
-    <hyperlink ref="J142" r:id="rId137" xr:uid="{C0D6DB5B-F0F4-4DCF-89F0-217B46C63405}"/>
-    <hyperlink ref="J143" r:id="rId138" xr:uid="{5918E4BC-B9D7-436B-AF75-1DABD11AD154}"/>
-    <hyperlink ref="J144" r:id="rId139" xr:uid="{9AE492C2-4B8A-4401-82CD-C1C310E7B4EC}"/>
-    <hyperlink ref="J145" r:id="rId140" xr:uid="{7CD06202-8940-46A0-A362-3C3563C41472}"/>
-    <hyperlink ref="J146" r:id="rId141" xr:uid="{829FC3C2-F43B-4D32-AD7F-A69D9D55A0F9}"/>
-    <hyperlink ref="J147" r:id="rId142" xr:uid="{7ED6CA35-C5B0-4F8E-9BBA-717B9AA271AE}"/>
-    <hyperlink ref="J148" r:id="rId143" xr:uid="{5F80FDB0-B16F-43BA-815A-2B6377DA0ACD}"/>
-    <hyperlink ref="J149" r:id="rId144" xr:uid="{F86ABC67-D20E-4BA9-9629-E289F451A807}"/>
-    <hyperlink ref="J150" r:id="rId145" xr:uid="{F469866A-0D28-42ED-9687-2F48ED997B86}"/>
-    <hyperlink ref="J151" r:id="rId146" xr:uid="{909208E6-B890-47C8-BE77-E18E6DEEBE7B}"/>
-    <hyperlink ref="J152" r:id="rId147" xr:uid="{159D453D-4BC3-458A-8249-FC4ACF4CC611}"/>
-    <hyperlink ref="J153" r:id="rId148" xr:uid="{1A9FFF41-08DE-4C38-98C7-19850D2DB393}"/>
-    <hyperlink ref="J154" r:id="rId149" xr:uid="{BA36397E-62CF-4900-B8F1-09CF53E0C18E}"/>
-    <hyperlink ref="J155" r:id="rId150" xr:uid="{B0D8E330-A7A7-4392-A312-03B64A6AD279}"/>
-    <hyperlink ref="J156" r:id="rId151" xr:uid="{6BD0200A-0D06-43BD-B925-52550D4D302F}"/>
-    <hyperlink ref="J157" r:id="rId152" xr:uid="{F22BBF8E-BC5F-4C1B-B58E-611F6A5767F4}"/>
-    <hyperlink ref="J158" r:id="rId153" xr:uid="{D525791D-8714-4AA9-88D3-B6963E656F88}"/>
-    <hyperlink ref="J159" r:id="rId154" xr:uid="{E581217B-E39E-4FA4-AFB0-5C861FF4E73F}"/>
-    <hyperlink ref="J160" r:id="rId155" xr:uid="{B1A647E0-9007-465E-AEC4-8F94936B3944}"/>
-    <hyperlink ref="J161" r:id="rId156" xr:uid="{98CB1ABB-3894-4F15-8B22-1C6A9A28BE5C}"/>
-    <hyperlink ref="J162" r:id="rId157" xr:uid="{66F7AA12-32A1-4125-8742-45773EB569D0}"/>
-    <hyperlink ref="J163" r:id="rId158" xr:uid="{71A7CBFB-FFD5-4221-8FCF-5232A5D5CD78}"/>
-    <hyperlink ref="J164" r:id="rId159" xr:uid="{79849020-37D9-4D33-84CA-DAE75833DE73}"/>
-    <hyperlink ref="J165" r:id="rId160" xr:uid="{ABB5AA3A-51F2-4FD3-B010-984DD1DA4AC6}"/>
-    <hyperlink ref="J166" r:id="rId161" xr:uid="{56E5B821-33FD-4D0B-BA22-003B0AF75CEB}"/>
-    <hyperlink ref="J167" r:id="rId162" xr:uid="{11412DC1-E9F5-46A3-BC4F-EFA4FB3662C6}"/>
-    <hyperlink ref="J168" r:id="rId163" xr:uid="{2D930D30-7C6D-4CB5-B15D-346BE126CF58}"/>
-    <hyperlink ref="J169" r:id="rId164" xr:uid="{424B31B5-3F8D-4971-8E71-D02150096707}"/>
-    <hyperlink ref="J170" r:id="rId165" xr:uid="{36693023-F819-4493-B508-C960164685CB}"/>
-    <hyperlink ref="J171" r:id="rId166" xr:uid="{103A8D8F-BE53-46D0-A5C5-CEE9EAB825AA}"/>
-    <hyperlink ref="J172" r:id="rId167" xr:uid="{B32088A0-3EFD-4CDB-8A6F-C234D09C7E44}"/>
-    <hyperlink ref="J173" r:id="rId168" xr:uid="{E2A3A3DD-ECE7-4828-8FB5-D29927E1A056}"/>
-    <hyperlink ref="J174" r:id="rId169" xr:uid="{C5CDEA87-FAAD-4567-9442-F92A51B1BA97}"/>
-    <hyperlink ref="J175" r:id="rId170" xr:uid="{1A0CF53D-4995-4783-B629-48D4C98F52D0}"/>
-    <hyperlink ref="J176" r:id="rId171" xr:uid="{280FEEC0-3F7E-40CF-A54A-F4C9930B2B83}"/>
-    <hyperlink ref="J177" r:id="rId172" xr:uid="{FFB4A84F-FDF8-468D-9A45-E284AF159099}"/>
-    <hyperlink ref="J178" r:id="rId173" xr:uid="{F16E969D-740A-4F63-A198-3C7EBFD12486}"/>
-    <hyperlink ref="J179" r:id="rId174" xr:uid="{BDE7F88B-EB86-4A71-BDA2-0C562D74CF64}"/>
-    <hyperlink ref="J180" r:id="rId175" xr:uid="{F75BA1DE-A80F-4976-8DA5-7B1C2F2412D1}"/>
-    <hyperlink ref="J181" r:id="rId176" xr:uid="{B8D9B897-597E-4A14-82E7-F2F5AA25373F}"/>
-    <hyperlink ref="J182" r:id="rId177" xr:uid="{3BD4F78F-E6A8-4C8D-8FAD-B58410A5F5A2}"/>
-    <hyperlink ref="J183" r:id="rId178" xr:uid="{54CE3BF3-DE0A-4AAF-B3F1-96FCE5E69D57}"/>
-    <hyperlink ref="J184" r:id="rId179" xr:uid="{42407337-AE6A-44E6-ABAE-32C839596FAE}"/>
-    <hyperlink ref="J185" r:id="rId180" xr:uid="{5B36A2E9-2C41-47CE-9B88-EA76C4C53077}"/>
-    <hyperlink ref="J186" r:id="rId181" xr:uid="{EED9C87B-CDAA-4580-8B35-6E1E7C00DE00}"/>
-    <hyperlink ref="J187" r:id="rId182" xr:uid="{8F814E58-0650-4558-BC05-BED38BBBFE35}"/>
-    <hyperlink ref="J188" r:id="rId183" xr:uid="{F8606806-5632-4881-A73B-E4F5453F07C5}"/>
-    <hyperlink ref="J189" r:id="rId184" xr:uid="{9BAE1C21-F683-4776-85AF-E2EE34EB3E7F}"/>
-    <hyperlink ref="J190" r:id="rId185" xr:uid="{6A50FF83-BEF4-417F-84AB-C45606FBD673}"/>
-    <hyperlink ref="J191" r:id="rId186" xr:uid="{66888E01-C1B7-4B3D-BED0-4157C440D58B}"/>
-    <hyperlink ref="J192" r:id="rId187" xr:uid="{2AE2F336-94F9-4B8E-B1F6-E7C50F67D9E6}"/>
-    <hyperlink ref="J193" r:id="rId188" xr:uid="{7A55A024-31DC-4481-9935-A0A4AD62D576}"/>
-    <hyperlink ref="J194" r:id="rId189" xr:uid="{34AF6665-C3A1-44EA-804F-60346807AF68}"/>
-    <hyperlink ref="J195" r:id="rId190" xr:uid="{10BCEBA0-84D5-4D69-9B02-FB30F2CADC63}"/>
-    <hyperlink ref="J196" r:id="rId191" xr:uid="{9082F343-F1CE-4B8F-835B-354106F80BB2}"/>
-    <hyperlink ref="J197" r:id="rId192" xr:uid="{5B0BE325-C28E-4C5B-AC3E-9E7CED65C8DB}"/>
-    <hyperlink ref="J198" r:id="rId193" xr:uid="{03D17430-E085-4157-9EB3-2D2F124C381D}"/>
-    <hyperlink ref="J199" r:id="rId194" xr:uid="{35FCB3D1-B37F-4D91-B22F-378420E119AC}"/>
-    <hyperlink ref="J200" r:id="rId195" xr:uid="{900E7AB7-E60E-4664-9616-773700AA6819}"/>
-    <hyperlink ref="J201" r:id="rId196" xr:uid="{486E706B-F29A-44C2-B7E1-69F5ECE6A6FB}"/>
-    <hyperlink ref="J202" r:id="rId197" xr:uid="{D3E04074-792E-4224-9BD3-CD42721E7F20}"/>
-    <hyperlink ref="J203" r:id="rId198" xr:uid="{9821322A-77ED-4B31-9E1F-926B5BB1E729}"/>
-    <hyperlink ref="J204" r:id="rId199" xr:uid="{C1E77E04-2DFF-48FB-B2CB-2EEC140DC722}"/>
-    <hyperlink ref="J205" r:id="rId200" xr:uid="{2C54A54A-FF56-492F-A786-AD211CFA51F5}"/>
-    <hyperlink ref="J206" r:id="rId201" xr:uid="{D59F8382-E472-4117-8402-2F6D2187E20E}"/>
-    <hyperlink ref="J207" r:id="rId202" xr:uid="{26C6B752-B11D-4F8D-A96A-C02E2F74BAED}"/>
-    <hyperlink ref="J208" r:id="rId203" xr:uid="{B05AC845-F7F9-4EEB-B8CC-717F2A874FAB}"/>
-    <hyperlink ref="J209" r:id="rId204" xr:uid="{C5FCF4E6-A732-44D2-A7AF-972C310FAB6F}"/>
-    <hyperlink ref="J210" r:id="rId205" xr:uid="{16B30087-D93C-445E-8023-1BD82C49BBC6}"/>
-    <hyperlink ref="J211" r:id="rId206" xr:uid="{951D3EFF-E929-452E-9C13-5C4F9D5CA406}"/>
-    <hyperlink ref="J212" r:id="rId207" xr:uid="{AFD09656-4630-424F-BEB3-310770BB0C12}"/>
-    <hyperlink ref="J213" r:id="rId208" xr:uid="{11699955-2472-4FB9-961A-D62CD19D81A9}"/>
-    <hyperlink ref="J214" r:id="rId209" xr:uid="{548FA264-0EB4-4870-86B9-F29FC83D2C70}"/>
-    <hyperlink ref="J215" r:id="rId210" xr:uid="{F735D29B-556D-4F1D-8A59-941260D88BC2}"/>
-    <hyperlink ref="J216" r:id="rId211" xr:uid="{E8E3E81F-DB66-4132-9309-D728D8F3D691}"/>
-    <hyperlink ref="J217" r:id="rId212" xr:uid="{9E251341-A3A8-4FE9-94DA-CCCA5FFDE675}"/>
-    <hyperlink ref="J218" r:id="rId213" xr:uid="{7CCCDD9C-A588-480D-BC8C-BE2A5048647F}"/>
-    <hyperlink ref="J219" r:id="rId214" xr:uid="{2F0519BB-0EB8-443E-A917-97D859DDE75D}"/>
-    <hyperlink ref="J220" r:id="rId215" xr:uid="{C1FF29D1-E96C-4674-8CA9-7E6E866CA163}"/>
-    <hyperlink ref="J221" r:id="rId216" xr:uid="{6C50CA29-A479-4B64-9FC4-4BF021089C9C}"/>
-    <hyperlink ref="J222" r:id="rId217" xr:uid="{1CB8894A-8148-45A4-861F-EE492B4BAFFD}"/>
-    <hyperlink ref="J223" r:id="rId218" xr:uid="{61D6A196-0A03-41DF-AB52-EA8C01F8B948}"/>
-    <hyperlink ref="J224" r:id="rId219" xr:uid="{E23A74BC-061E-4742-9BC8-22AEB7F44355}"/>
-    <hyperlink ref="J225" r:id="rId220" xr:uid="{0FD66353-E30F-46AD-B7B9-E3827DC71BDA}"/>
-    <hyperlink ref="J226" r:id="rId221" xr:uid="{84AEE78B-46DF-4CEA-90E3-66ADF19DF2F2}"/>
-    <hyperlink ref="J227" r:id="rId222" xr:uid="{DF826529-8A64-4231-9570-17ECAC75B154}"/>
-    <hyperlink ref="J228" r:id="rId223" xr:uid="{4FA52F13-2243-4424-ABCA-05D6F2AA68F5}"/>
-    <hyperlink ref="J229" r:id="rId224" xr:uid="{3D53ED95-9AFC-426E-AE75-08DE7271713B}"/>
-    <hyperlink ref="J230" r:id="rId225" xr:uid="{26766B3F-DC85-4F7D-8D5F-5D96D2EC0C0F}"/>
-    <hyperlink ref="J231" r:id="rId226" xr:uid="{1247A391-4428-4EF1-8059-D163711B6C04}"/>
-    <hyperlink ref="J232" r:id="rId227" xr:uid="{CD634DAF-FC9E-4162-A9A5-2502E0539D30}"/>
-    <hyperlink ref="J233" r:id="rId228" xr:uid="{D07232F6-84A1-480A-825E-2594057D3D40}"/>
-    <hyperlink ref="J234" r:id="rId229" xr:uid="{6BC94CED-AA79-4836-AFC3-281373F22B0C}"/>
-    <hyperlink ref="J235" r:id="rId230" xr:uid="{F3C6FB9A-B68C-47D6-B87C-B108B04CA457}"/>
-    <hyperlink ref="J236" r:id="rId231" xr:uid="{12C5F5A4-BB0B-489C-A148-2797E3A867E7}"/>
-    <hyperlink ref="J237" r:id="rId232" xr:uid="{270AA255-0E90-4A17-BD14-B05824719790}"/>
-    <hyperlink ref="J238" r:id="rId233" xr:uid="{A7424A7B-2B9A-4E0B-AEBE-0BF33FA9F6ED}"/>
-    <hyperlink ref="J239" r:id="rId234" xr:uid="{C037D551-EEA9-4FB8-86B9-84D214594EED}"/>
-    <hyperlink ref="J240" r:id="rId235" xr:uid="{55983375-4073-40B2-ABA0-B5F2C6BAD4F6}"/>
-    <hyperlink ref="J241" r:id="rId236" xr:uid="{933C4DC3-48AF-4960-B3E3-3F6025BB70C7}"/>
-    <hyperlink ref="J242" r:id="rId237" xr:uid="{8685FC2A-9539-4333-9954-4C409539F7B8}"/>
-    <hyperlink ref="J243" r:id="rId238" xr:uid="{52B15642-1340-441A-977C-ED78325DBC7B}"/>
-    <hyperlink ref="J244" r:id="rId239" xr:uid="{A6D499D2-5FFF-41FA-9149-785973B5DB65}"/>
-    <hyperlink ref="J245" r:id="rId240" xr:uid="{8C2179D1-57AA-4558-8B23-4AA6C9C98D9A}"/>
-    <hyperlink ref="J246" r:id="rId241" xr:uid="{2AC5FCB4-BB3A-4D34-8F98-8DE6DC475C8D}"/>
-    <hyperlink ref="J247" r:id="rId242" xr:uid="{2FC2A01F-A15D-47C4-8D64-F143215BEC1C}"/>
-    <hyperlink ref="J248" r:id="rId243" xr:uid="{B640FC28-D5A8-4D18-8BC5-24E610B4F6A4}"/>
-    <hyperlink ref="J249" r:id="rId244" xr:uid="{BB55FCA3-A778-4D1B-A20D-1FD1381C03EE}"/>
-    <hyperlink ref="J250" r:id="rId245" xr:uid="{DF448022-2720-4EEF-8B5E-61CBCBBFBE72}"/>
-    <hyperlink ref="J251" r:id="rId246" xr:uid="{B2920937-0A3A-40AC-9DA2-EB8A0C76470E}"/>
-    <hyperlink ref="J252" r:id="rId247" xr:uid="{67E5FD4C-AF68-4AA3-B824-8A8603592121}"/>
-    <hyperlink ref="J253" r:id="rId248" xr:uid="{517550A1-D423-482E-90D3-323069FEA602}"/>
-    <hyperlink ref="J254" r:id="rId249" xr:uid="{016184AC-C8D8-4840-AD0D-9FA389B7BB17}"/>
-    <hyperlink ref="J255" r:id="rId250" xr:uid="{59244AF0-12B1-44F2-A173-5E3EEDCF110E}"/>
-    <hyperlink ref="J256" r:id="rId251" xr:uid="{C5899E11-1661-4117-9A45-ECCFBA3BD1E8}"/>
-    <hyperlink ref="J257" r:id="rId252" xr:uid="{E5B4E27D-2804-4958-A461-535286EE5681}"/>
-    <hyperlink ref="J258" r:id="rId253" xr:uid="{ADB8A268-3B99-4501-B72F-A212510FF848}"/>
-    <hyperlink ref="J259" r:id="rId254" xr:uid="{104B5263-C8F5-4011-866A-55BE152233CD}"/>
-    <hyperlink ref="J260" r:id="rId255" xr:uid="{CE59766A-0EA5-4D70-A1D5-7CBC754ECFDD}"/>
-    <hyperlink ref="J261" r:id="rId256" xr:uid="{637FCC85-83EF-41DD-9F6D-26800464C05E}"/>
-    <hyperlink ref="J262" r:id="rId257" xr:uid="{D0742A1B-CC45-4986-BBD3-EA187BC45A44}"/>
-    <hyperlink ref="J263" r:id="rId258" xr:uid="{A9DD9DD8-CD16-4910-9029-9D1B0C9004DC}"/>
-    <hyperlink ref="J264" r:id="rId259" xr:uid="{4B7AB24F-5A6A-4C86-9213-0A0E4BBA83EF}"/>
-    <hyperlink ref="J265" r:id="rId260" xr:uid="{D44CC95C-3CEB-467F-BCA8-8C771632DE4E}"/>
-    <hyperlink ref="J266" r:id="rId261" xr:uid="{475D939E-AE4F-4934-8ED7-65069B1AF64E}"/>
-    <hyperlink ref="J267" r:id="rId262" xr:uid="{D5CA70EB-3B59-4F06-9F1E-0A33E6FB7F3C}"/>
-    <hyperlink ref="J268" r:id="rId263" xr:uid="{E8E6A681-9B1B-498B-8AD6-371B4134CDCB}"/>
-    <hyperlink ref="J269" r:id="rId264" xr:uid="{B5745D5D-8F7A-4EA4-93E3-0696B2D97D0C}"/>
-    <hyperlink ref="J270" r:id="rId265" xr:uid="{ED37FD39-06E2-4AA6-90C1-379E94C2C1BE}"/>
-    <hyperlink ref="J271" r:id="rId266" xr:uid="{C3330A57-8F00-4882-8099-821B1406831C}"/>
-    <hyperlink ref="J272" r:id="rId267" xr:uid="{EC03F5DF-97AD-4AE2-9F30-6C59F8068D08}"/>
-    <hyperlink ref="J273" r:id="rId268" xr:uid="{9F746722-16E9-412D-966F-8D8832C66928}"/>
-    <hyperlink ref="J274" r:id="rId269" xr:uid="{801C47B3-A7A6-439F-B5E0-12A6941D3E69}"/>
-    <hyperlink ref="J275" r:id="rId270" xr:uid="{2EF70039-9A37-41CD-854F-C94B5EF998B5}"/>
-    <hyperlink ref="J276" r:id="rId271" xr:uid="{887F7088-48D6-45F5-A490-9DB60D248154}"/>
-    <hyperlink ref="J277" r:id="rId272" xr:uid="{5BCB4D72-1A40-494E-A966-DF68091012F6}"/>
-    <hyperlink ref="J278" r:id="rId273" xr:uid="{78233649-C6A2-4574-9C6A-6740A3FBA25C}"/>
-    <hyperlink ref="J279" r:id="rId274" xr:uid="{7E9C84E5-5485-4468-A36E-F406890E2E26}"/>
-    <hyperlink ref="J280" r:id="rId275" xr:uid="{46B2EF1E-44DB-40C4-B834-EDD5F9BED915}"/>
-    <hyperlink ref="J281" r:id="rId276" xr:uid="{E84E6ABF-0659-4180-8118-5E309F253E79}"/>
-    <hyperlink ref="J282" r:id="rId277" xr:uid="{AF36D6D9-FE68-4793-BA3A-02FD202E8D88}"/>
-    <hyperlink ref="J283" r:id="rId278" xr:uid="{4AD4921B-3888-4022-A466-F894FA5AAD82}"/>
-    <hyperlink ref="J284" r:id="rId279" xr:uid="{FDBF4FE0-A357-4C3B-A72C-13CF6ABEB66B}"/>
-    <hyperlink ref="J285" r:id="rId280" xr:uid="{CA3E55F1-78AA-45B0-91E8-0FF9DBA753B3}"/>
-    <hyperlink ref="J286" r:id="rId281" xr:uid="{F18E7B42-5C54-40B4-8496-67211876C586}"/>
-    <hyperlink ref="J287" r:id="rId282" xr:uid="{96AA2145-D1BD-428A-BFF5-65683D62DC9B}"/>
-    <hyperlink ref="J288" r:id="rId283" xr:uid="{1CCDA5AD-7499-4A4D-BD3F-452A5833D6F0}"/>
-    <hyperlink ref="J289" r:id="rId284" xr:uid="{4066831A-BD17-4C0C-BF99-DD2C841BDDBB}"/>
-    <hyperlink ref="J290" r:id="rId285" xr:uid="{C0EC8FE3-04AC-450B-AE6E-ACF23B936E94}"/>
-    <hyperlink ref="J292" r:id="rId286" xr:uid="{FD5FBF1C-CACB-49ED-852D-D60667A7956F}"/>
-    <hyperlink ref="J293" r:id="rId287" xr:uid="{76EED023-06A4-4699-9072-921ED676D0DB}"/>
-    <hyperlink ref="J294" r:id="rId288" xr:uid="{74DC1E84-FD8D-4C4E-8E04-CBD136E2807D}"/>
-    <hyperlink ref="J295" r:id="rId289" xr:uid="{360E94EC-88F3-4AFB-90B6-38D2A0600A82}"/>
-    <hyperlink ref="J296" r:id="rId290" xr:uid="{86E794C2-61CA-466B-BBCF-A370C0179F54}"/>
-    <hyperlink ref="J297" r:id="rId291" xr:uid="{6CD647CF-429D-4133-90F9-A363C6BBCCA9}"/>
-    <hyperlink ref="J298" r:id="rId292" xr:uid="{DEDAFFAC-EB4C-43F6-9008-8D60E91E9F7B}"/>
-    <hyperlink ref="J299" r:id="rId293" xr:uid="{53A47301-E1C6-4155-8A07-55DA82F7A993}"/>
-    <hyperlink ref="J300" r:id="rId294" xr:uid="{62C7D21A-B6E8-48E2-A01F-F77F03F5CB3F}"/>
-    <hyperlink ref="J301" r:id="rId295" xr:uid="{31090AEF-DC92-4C2E-8791-75B98D56EFC7}"/>
-    <hyperlink ref="J302" r:id="rId296" xr:uid="{019380E0-EE29-4116-8A06-893A1996FBE1}"/>
-    <hyperlink ref="J303" r:id="rId297" xr:uid="{C2A235D9-CC60-4369-980E-DD16A1C7324E}"/>
-    <hyperlink ref="J304" r:id="rId298" xr:uid="{FA9E4112-8993-4BC8-AE1F-02BE3D1310F6}"/>
-    <hyperlink ref="J305" r:id="rId299" xr:uid="{9E399DF1-EA3D-470E-9E43-44059BEFB2E0}"/>
-    <hyperlink ref="J306" r:id="rId300" xr:uid="{94ADD843-823F-4D8B-BBCD-1AD06BE3E49D}"/>
-    <hyperlink ref="J307" r:id="rId301" xr:uid="{A3157C24-68AC-4476-90F7-4ED7694BED7B}"/>
-    <hyperlink ref="J308" r:id="rId302" xr:uid="{801A0019-E0B9-4420-A7DF-051FDEF7D929}"/>
-    <hyperlink ref="J309" r:id="rId303" xr:uid="{F040A022-8349-4D25-98DA-5D4E98AEDAEC}"/>
-    <hyperlink ref="J310" r:id="rId304" xr:uid="{79F739A0-D2D7-4578-8F09-3B09F2CBB682}"/>
-    <hyperlink ref="J311" r:id="rId305" xr:uid="{8C098DEE-50C5-4925-BFCF-1C4CE40719A3}"/>
-    <hyperlink ref="J312" r:id="rId306" xr:uid="{CB11B142-2D6B-436A-A63B-F702A42F0BBB}"/>
-    <hyperlink ref="J313" r:id="rId307" xr:uid="{8ADD3CC5-5790-41FF-B643-F74D014EC392}"/>
-    <hyperlink ref="J314" r:id="rId308" xr:uid="{1E32C2D5-F4B7-4CCF-B143-87A7E8DE9C3A}"/>
-    <hyperlink ref="J315" r:id="rId309" xr:uid="{944C94CD-00F6-4C6F-99B5-7FA6A485B790}"/>
-    <hyperlink ref="J316" r:id="rId310" xr:uid="{50192CFD-7B46-4503-9629-C0128A8FD614}"/>
-    <hyperlink ref="J317" r:id="rId311" xr:uid="{84F5D7B6-BB69-4EBB-9790-95EB37FD97C0}"/>
-    <hyperlink ref="J318" r:id="rId312" xr:uid="{DEEFCE0B-E03B-41FF-8681-02008AE9DF43}"/>
-    <hyperlink ref="J319" r:id="rId313" xr:uid="{9A9CF037-2580-4F3B-B7BB-E67AAEF2A1AB}"/>
-    <hyperlink ref="J320" r:id="rId314" xr:uid="{A1B65350-C2DA-4896-8A10-7A37FAA83503}"/>
-    <hyperlink ref="J321" r:id="rId315" xr:uid="{C1E65609-DB4C-44D4-89AC-B45FD97830FE}"/>
-    <hyperlink ref="J322" r:id="rId316" xr:uid="{BDEA2CAE-1DA2-4AEC-A01E-9EC2FDAF53FB}"/>
-    <hyperlink ref="J323" r:id="rId317" xr:uid="{531E6677-7261-4BE7-8E6E-7B45CAEFA626}"/>
-    <hyperlink ref="J324" r:id="rId318" xr:uid="{B92E653F-836E-4568-9354-9F08821EA8A8}"/>
-    <hyperlink ref="J325" r:id="rId319" xr:uid="{0B16D64F-45CF-4A20-A878-A7DD1948180A}"/>
-    <hyperlink ref="J326" r:id="rId320" xr:uid="{FA87A070-B1F4-4C46-9F99-14DCACD1C720}"/>
-    <hyperlink ref="J327" r:id="rId321" xr:uid="{5AD5D861-BBEF-41BA-8988-0F9D59DEEF2F}"/>
-    <hyperlink ref="J328" r:id="rId322" xr:uid="{FF873BCA-B104-48E7-B951-3AEE99ADF6EA}"/>
-    <hyperlink ref="J329" r:id="rId323" xr:uid="{69AA0FA1-E874-4920-ADD1-359CBF39026E}"/>
-    <hyperlink ref="J330" r:id="rId324" xr:uid="{5AFBA470-E7FE-4DFF-B01F-C86BDB01A5F5}"/>
-    <hyperlink ref="J331" r:id="rId325" xr:uid="{9413E012-2916-432D-A514-C750420D181F}"/>
-    <hyperlink ref="J332" r:id="rId326" xr:uid="{08E23AD7-C45E-49F7-BDC3-5589CED6FE02}"/>
-    <hyperlink ref="J333" r:id="rId327" xr:uid="{F8BEEBC4-D4D9-459D-B091-B60F954DCA4B}"/>
-    <hyperlink ref="J334" r:id="rId328" xr:uid="{042EBFAA-1BF7-4898-AEB7-EF0B9C102BC4}"/>
-    <hyperlink ref="J335" r:id="rId329" xr:uid="{3B031B30-BD31-4FAE-8D42-90AA5BB5AB06}"/>
-    <hyperlink ref="J336" r:id="rId330" xr:uid="{F391B084-C52A-4005-9256-ABE98CD01108}"/>
-    <hyperlink ref="J95" r:id="rId331" xr:uid="{281A4A3F-C0AD-4D2A-BAF7-7C0435117952}"/>
-    <hyperlink ref="J94" r:id="rId332" xr:uid="{8ED57266-D591-48E1-BB14-A69FDED5F089}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{165CC1BA-5837-42C2-85AD-49958B233592}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{F3361021-61CE-4951-9C78-4189576F4686}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{97938B75-8A2E-4210-89EB-060AE41E1AC4}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{FE3DB6BC-C226-45CB-AC7E-81486A2C5CF2}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{EF772CD6-DA49-494E-8D59-FB008AC931FB}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{91599088-411F-43D0-9B97-EF75DFFE25B2}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{71BBFB13-05C0-4384-BD92-6C6332C1225E}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{1AA66D74-B3B8-48D0-98A1-0765BA192A11}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{BD6D65E6-26CD-43AB-9DE7-AC31824BBF6F}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{BF24FAAF-742A-4303-A592-7CBE239E4972}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{2BEA55C5-2887-4C59-A5E5-A5276B1DFDF2}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{28C531C2-55CC-4DE9-9B5E-D7890CBEF571}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{3D1C1913-1AE6-4CDF-B790-F4F9575D483B}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{837BFCDA-1AFD-4EBD-9F95-5EC4D5812C59}"/>
+    <hyperlink ref="J17" r:id="rId15" xr:uid="{DDC63A49-D0C5-418C-9F61-0FB9EA7BFC94}"/>
+    <hyperlink ref="J18" r:id="rId16" xr:uid="{9A719E2D-8712-4BF0-B281-973C16EEB292}"/>
+    <hyperlink ref="J19" r:id="rId17" xr:uid="{FC9A5121-3198-4EA2-BE34-5C855B8D89FB}"/>
+    <hyperlink ref="J20" r:id="rId18" xr:uid="{F3F5900C-1828-4894-960C-37E89B6F044E}"/>
+    <hyperlink ref="J21" r:id="rId19" xr:uid="{5B2F2379-5ABB-4DA3-8964-83CAF1709471}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{DCFDF6B0-6B0E-468A-994F-43BA0705D35C}"/>
+    <hyperlink ref="J23" r:id="rId21" xr:uid="{7006CA03-E8E5-4910-89F1-E9405033BF0E}"/>
+    <hyperlink ref="J24" r:id="rId22" xr:uid="{52A8B2A0-8FBC-470A-999B-3BBAB6752B36}"/>
+    <hyperlink ref="J25" r:id="rId23" xr:uid="{8680967B-C198-4C2D-97F5-A32E525795F4}"/>
+    <hyperlink ref="J26" r:id="rId24" xr:uid="{97FD6CF8-A525-475A-9D52-A7DD7515A189}"/>
+    <hyperlink ref="J27" r:id="rId25" xr:uid="{3448EB1E-0CD2-44F4-A2E8-14D5F6609385}"/>
+    <hyperlink ref="J28" r:id="rId26" xr:uid="{451EA7B2-45F7-45FC-9BDF-5F29E35527FD}"/>
+    <hyperlink ref="J29" r:id="rId27" xr:uid="{1F6FDB8F-2CF0-4AAA-BEDD-8FFED1C28FD3}"/>
+    <hyperlink ref="J30" r:id="rId28" xr:uid="{8B7FCC77-8F06-44FE-BB1A-40D40F223719}"/>
+    <hyperlink ref="J31" r:id="rId29" xr:uid="{0F636792-C28F-455D-9DE9-2B993F7ACEE1}"/>
+    <hyperlink ref="J32" r:id="rId30" xr:uid="{970E3324-9E0C-451E-A2F1-9C3BCEC5BE97}"/>
+    <hyperlink ref="J33" r:id="rId31" xr:uid="{64322834-403F-43F5-96BF-31159CC128A1}"/>
+    <hyperlink ref="J34" r:id="rId32" xr:uid="{00A925C0-E4B2-4A26-A852-D91981EF72CF}"/>
+    <hyperlink ref="J35" r:id="rId33" xr:uid="{47E5ABA8-24C2-4D59-996A-0138EE400464}"/>
+    <hyperlink ref="J36" r:id="rId34" xr:uid="{A88953ED-B7F1-4888-9248-4704B6F1E9B1}"/>
+    <hyperlink ref="J37" r:id="rId35" xr:uid="{C6CE85AF-C5B1-4F11-93D0-1CA6DFC650D9}"/>
+    <hyperlink ref="J38" r:id="rId36" xr:uid="{415353C4-70C8-4FAE-8C61-B985F3EB5C94}"/>
+    <hyperlink ref="J39" r:id="rId37" xr:uid="{C7EE319A-A63B-47D2-80BD-8ABEE5F4554E}"/>
+    <hyperlink ref="J40" r:id="rId38" xr:uid="{B0A6E749-0AAD-4C88-9E8C-FD27844DC7D4}"/>
+    <hyperlink ref="J41" r:id="rId39" xr:uid="{ADA87F53-D500-49F8-A980-F8136C9D0AAB}"/>
+    <hyperlink ref="J42" r:id="rId40" xr:uid="{C5FBB6DA-ADE7-4443-8455-F9DE624050D5}"/>
+    <hyperlink ref="J43" r:id="rId41" xr:uid="{79374FEC-7C87-42E1-A67F-A7F1B8A6EEF6}"/>
+    <hyperlink ref="J44" r:id="rId42" xr:uid="{7A4F8B8B-B6E8-48B7-8655-E9B07C9A678D}"/>
+    <hyperlink ref="J45" r:id="rId43" xr:uid="{B0CF9DC5-3723-4158-AD46-D2C5B44304A4}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{635BBD8E-1151-4C63-9C94-FCBC5B625945}"/>
+    <hyperlink ref="J47" r:id="rId45" xr:uid="{61CCEE7E-49B5-4808-9F05-688A210965EC}"/>
+    <hyperlink ref="J48" r:id="rId46" xr:uid="{D50A6739-D39C-4CCF-84E0-C103E0DEF788}"/>
+    <hyperlink ref="J49" r:id="rId47" xr:uid="{2D38C871-F6F6-4211-99EA-117D7DBE26DE}"/>
+    <hyperlink ref="J50" r:id="rId48" xr:uid="{527810E1-C48A-40ED-81CF-337B8BE04200}"/>
+    <hyperlink ref="J51" r:id="rId49" xr:uid="{90EA84FB-A002-4EEA-8894-7E222A4CF538}"/>
+    <hyperlink ref="J52" r:id="rId50" xr:uid="{3827B3A2-B6D2-4146-AE8B-A9FE120FFD22}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{C3F74D6F-C401-4991-8DA8-8321285335E5}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{828D5414-0F83-4DE4-93F4-F5DB3398ED5B}"/>
+    <hyperlink ref="J55" r:id="rId53" xr:uid="{7DDDA1EC-5678-4588-95F5-9E386251B681}"/>
+    <hyperlink ref="J56" r:id="rId54" xr:uid="{C175A05B-8A3B-41B0-9806-D79EC79D6ED2}"/>
+    <hyperlink ref="J57" r:id="rId55" xr:uid="{84357901-A5B3-44CF-A1FB-92F760450B13}"/>
+    <hyperlink ref="J58" r:id="rId56" xr:uid="{60944833-BA51-496A-B426-7371AF2B7CA0}"/>
+    <hyperlink ref="J59" r:id="rId57" xr:uid="{C8FD5308-C27D-4D38-AAC2-58E7463071BE}"/>
+    <hyperlink ref="J60" r:id="rId58" xr:uid="{16003374-740E-4A01-86CE-E9D1125EB5E2}"/>
+    <hyperlink ref="J61" r:id="rId59" xr:uid="{85606A1B-8C57-4F58-B23B-C5A8A48D6E35}"/>
+    <hyperlink ref="J62" r:id="rId60" xr:uid="{2D6CA864-E05F-49B7-99E4-F70C0879A42D}"/>
+    <hyperlink ref="J63" r:id="rId61" xr:uid="{2C047CD7-34B7-4519-84C1-F5EBC892399F}"/>
+    <hyperlink ref="J64" r:id="rId62" xr:uid="{199D8B38-8613-4028-B531-1D3A7CEC0505}"/>
+    <hyperlink ref="J65" r:id="rId63" xr:uid="{B3B3F61A-E5F2-43B5-AD57-246152DE0E08}"/>
+    <hyperlink ref="J66" r:id="rId64" xr:uid="{DF681191-90FA-4388-9A12-B5E668CE4DA7}"/>
+    <hyperlink ref="J67" r:id="rId65" xr:uid="{3B5BFEA4-3042-45AB-A4E1-46EF7362E259}"/>
+    <hyperlink ref="J68" r:id="rId66" xr:uid="{B244F788-E26B-45CD-8BF2-42B197607295}"/>
+    <hyperlink ref="J69" r:id="rId67" xr:uid="{BB55AB93-42C1-4DA6-943A-17AA6E42FB97}"/>
+    <hyperlink ref="J70" r:id="rId68" xr:uid="{06777566-DB90-419A-B284-91777FB00593}"/>
+    <hyperlink ref="J71" r:id="rId69" xr:uid="{DF2E344E-1C90-4D1F-AFB6-5CC1B8F217EF}"/>
+    <hyperlink ref="J72" r:id="rId70" xr:uid="{F897D692-27A3-45F0-802F-748DAA8C9ABE}"/>
+    <hyperlink ref="J73" r:id="rId71" xr:uid="{CA061772-0B68-44F0-AFD0-F6C116EE2B90}"/>
+    <hyperlink ref="J74" r:id="rId72" xr:uid="{BDEFB76A-FA25-4A32-B6FD-3381DEE73E3D}"/>
+    <hyperlink ref="J75" r:id="rId73" xr:uid="{F53E6FCD-9F2C-4040-B5F9-7B49BBF78D03}"/>
+    <hyperlink ref="J76" r:id="rId74" xr:uid="{64F56ACE-7B92-46C1-BDDA-AB1B01234B39}"/>
+    <hyperlink ref="J77" r:id="rId75" xr:uid="{030135BD-179D-498D-81C5-24DC040697F8}"/>
+    <hyperlink ref="J78" r:id="rId76" xr:uid="{D8873401-D362-4DA5-A6DB-71A1408B440B}"/>
+    <hyperlink ref="J79" r:id="rId77" xr:uid="{5142C71B-5198-4A55-A1E6-C4C23CABB7A3}"/>
+    <hyperlink ref="J80" r:id="rId78" xr:uid="{33F37F32-A4D1-44D2-B8A3-7E5BFAB1FBD2}"/>
+    <hyperlink ref="J81" r:id="rId79" xr:uid="{23A139CE-35A6-48AF-92F2-CEA7BAC84583}"/>
+    <hyperlink ref="J82" r:id="rId80" xr:uid="{3F64FC48-6649-486F-8821-5A9E17E95D9A}"/>
+    <hyperlink ref="J83" r:id="rId81" xr:uid="{771227D9-8753-418F-A5AC-4B0C8B196170}"/>
+    <hyperlink ref="J84" r:id="rId82" xr:uid="{23FDF96C-F8E9-48E2-A2CF-58B833D4395D}"/>
+    <hyperlink ref="J85" r:id="rId83" xr:uid="{B59926DE-17FB-4126-A86A-038947E3D0F6}"/>
+    <hyperlink ref="J86" r:id="rId84" xr:uid="{C782472E-B558-4F14-BC72-095D676BA8C5}"/>
+    <hyperlink ref="J87" r:id="rId85" xr:uid="{CE20BA59-D570-47E2-B071-69852B6D402F}"/>
+    <hyperlink ref="J88" r:id="rId86" xr:uid="{753003E5-A197-43DC-9053-1C465F67A9C5}"/>
+    <hyperlink ref="J89" r:id="rId87" xr:uid="{937C3276-EADB-4546-A4A6-948E80069554}"/>
+    <hyperlink ref="J90" r:id="rId88" xr:uid="{EACEB67E-341D-48D5-94A4-17CCF59A5CFB}"/>
+    <hyperlink ref="J91" r:id="rId89" xr:uid="{515D122C-A58D-47EC-925A-F1F9DBCF1122}"/>
+    <hyperlink ref="J92" r:id="rId90" xr:uid="{BFC580E2-B886-463A-A16C-4D7AF62490A7}"/>
+    <hyperlink ref="J93" r:id="rId91" xr:uid="{C88A7070-04AE-4D12-A0B3-C941126E9E91}"/>
+    <hyperlink ref="J94" r:id="rId92" xr:uid="{C4A3A246-FAAF-4144-A954-C1CDE5BC9758}"/>
+    <hyperlink ref="J95" r:id="rId93" xr:uid="{C18460E2-F44F-4DDC-BE8F-0DE519F4D522}"/>
+    <hyperlink ref="J96" r:id="rId94" xr:uid="{447E1E5E-289B-4E69-A958-C1E0B4EB4BF7}"/>
+    <hyperlink ref="J97" r:id="rId95" xr:uid="{38C23FA7-17D5-4277-BB43-E23524DE7F4D}"/>
+    <hyperlink ref="J98" r:id="rId96" xr:uid="{CD6F41E3-0C9E-43D9-B8C0-B27F6123523B}"/>
+    <hyperlink ref="J99" r:id="rId97" xr:uid="{BA905A44-576E-4074-A99C-28374C39A432}"/>
+    <hyperlink ref="J100" r:id="rId98" xr:uid="{6C2B77DC-23A1-4CE1-BB5C-1E7E1A50BF1E}"/>
+    <hyperlink ref="J101" r:id="rId99" xr:uid="{5ECF162B-06A0-4E4D-AFED-DABC926939A7}"/>
+    <hyperlink ref="J102" r:id="rId100" xr:uid="{029863E1-1C23-4B01-93E6-5C10AE418779}"/>
+    <hyperlink ref="J103" r:id="rId101" xr:uid="{D8D1E727-9FDB-403C-B14E-F233DCE0741F}"/>
+    <hyperlink ref="J104" r:id="rId102" xr:uid="{18B361AC-ACBC-4EFA-A836-F6B9406FBA1F}"/>
+    <hyperlink ref="J105" r:id="rId103" xr:uid="{F3567905-C88A-40EE-9FE2-AF37E142FD7A}"/>
+    <hyperlink ref="J106" r:id="rId104" xr:uid="{56CF18D9-9FE9-4D83-B7DC-4291E1F307FA}"/>
+    <hyperlink ref="J107" r:id="rId105" xr:uid="{6543001C-4CC4-4D51-B791-97A173B9B289}"/>
+    <hyperlink ref="J108" r:id="rId106" xr:uid="{76C42674-444D-4570-9B38-CED3108F8216}"/>
+    <hyperlink ref="J109" r:id="rId107" xr:uid="{CC06F0B6-A107-471C-B307-49EC146D1BC6}"/>
+    <hyperlink ref="J110" r:id="rId108" xr:uid="{957A94F4-C594-435F-B092-448116436B5B}"/>
+    <hyperlink ref="J111" r:id="rId109" xr:uid="{17471120-0823-47B9-B717-7E426BE10A62}"/>
+    <hyperlink ref="J112" r:id="rId110" xr:uid="{0E4E4EF3-163F-4714-BD8D-AED5F692F3E5}"/>
+    <hyperlink ref="J113" r:id="rId111" xr:uid="{B3ACA8B7-1AB6-43EF-BA3C-6060CCA4925C}"/>
+    <hyperlink ref="J114" r:id="rId112" xr:uid="{8FA2C575-8F69-46E0-A211-18B188D7F2B6}"/>
+    <hyperlink ref="J115" r:id="rId113" xr:uid="{28BC9853-FA8F-4448-BBF8-0577D9144420}"/>
+    <hyperlink ref="J116" r:id="rId114" xr:uid="{9504D3AE-27D8-4AD8-8988-4898038B334C}"/>
+    <hyperlink ref="J117" r:id="rId115" xr:uid="{71EF2EC6-B126-43F9-A0CA-408548117D14}"/>
+    <hyperlink ref="J118" r:id="rId116" xr:uid="{830AFB13-6B96-4739-8AEA-56A2E7608CD3}"/>
+    <hyperlink ref="J119" r:id="rId117" xr:uid="{D01219CC-2075-427D-960A-2C600FAD1341}"/>
+    <hyperlink ref="J120" r:id="rId118" xr:uid="{D6471D69-86AF-4C52-9E64-856F6E8A651E}"/>
+    <hyperlink ref="J121" r:id="rId119" xr:uid="{582F8C9A-D9DC-425E-8BBA-C0431D78113D}"/>
+    <hyperlink ref="J122" r:id="rId120" xr:uid="{37DAE952-D178-4298-B616-750107F1AF66}"/>
+    <hyperlink ref="J123" r:id="rId121" xr:uid="{BED45AE8-5954-47DF-951F-1EC9DFD74A39}"/>
+    <hyperlink ref="J124" r:id="rId122" xr:uid="{352472C4-19C5-4E2A-B462-AEF8FEF77B6A}"/>
+    <hyperlink ref="J125" r:id="rId123" xr:uid="{E4FEC09D-7ED0-499C-82CC-63545F1C2EE7}"/>
+    <hyperlink ref="J126" r:id="rId124" xr:uid="{90C014C6-D3A6-4BE5-83B1-25583B72E5B2}"/>
+    <hyperlink ref="J127" r:id="rId125" xr:uid="{43F795F1-FC33-4938-9875-0256400DAA35}"/>
+    <hyperlink ref="J128" r:id="rId126" xr:uid="{4BD3C614-7296-465F-8C78-E8E337BC03AA}"/>
+    <hyperlink ref="J129" r:id="rId127" xr:uid="{D318EDED-BA00-4976-8DD4-CE16CA603035}"/>
+    <hyperlink ref="J130" r:id="rId128" xr:uid="{C1F65CC9-1F03-452D-AB81-530040CB8DCC}"/>
+    <hyperlink ref="J131" r:id="rId129" xr:uid="{1CB00281-2C48-4C58-8688-65993743483F}"/>
+    <hyperlink ref="J132" r:id="rId130" xr:uid="{9523B25D-F315-4FBF-A863-4A765A7AF916}"/>
+    <hyperlink ref="J133" r:id="rId131" xr:uid="{081DA699-122D-4708-9051-14A995B2E66E}"/>
+    <hyperlink ref="J134" r:id="rId132" xr:uid="{F0222F04-D66D-48B0-BA07-27AF285FBD89}"/>
+    <hyperlink ref="J135" r:id="rId133" xr:uid="{9A7D1039-D712-43F6-BDE0-070204E9DECB}"/>
+    <hyperlink ref="J136" r:id="rId134" xr:uid="{39DEA1ED-93B5-43BE-99BD-4E659EC92503}"/>
+    <hyperlink ref="J137" r:id="rId135" xr:uid="{848E722E-111A-469C-BE05-A6A382C40ABA}"/>
+    <hyperlink ref="J138" r:id="rId136" xr:uid="{90CCBAB1-6562-4644-A157-4F0DF30AA80F}"/>
+    <hyperlink ref="J139" r:id="rId137" xr:uid="{AB1CCCAB-10B7-4643-85AF-AB788CAB1CC0}"/>
+    <hyperlink ref="J140" r:id="rId138" xr:uid="{43F9D357-4E69-4F4B-BF9C-E72963F03A3F}"/>
+    <hyperlink ref="J141" r:id="rId139" xr:uid="{C893A9D4-869C-4540-8B26-B841C54FEBE0}"/>
+    <hyperlink ref="J142" r:id="rId140" xr:uid="{AD020824-4FE8-446E-B0EF-F3F5D49B6CFF}"/>
+    <hyperlink ref="J143" r:id="rId141" xr:uid="{A2191E5F-4326-42E8-874B-0123E7254B97}"/>
+    <hyperlink ref="J144" r:id="rId142" xr:uid="{BD7ECB05-F9AE-4FCD-81E0-22FB3A25AB75}"/>
+    <hyperlink ref="J145" r:id="rId143" xr:uid="{23603792-85D1-41E9-90DB-82F7F869669B}"/>
+    <hyperlink ref="J146" r:id="rId144" xr:uid="{39AA0401-A3D5-4ADA-B464-EBD94C983B29}"/>
+    <hyperlink ref="J147" r:id="rId145" xr:uid="{DFF4B489-3C14-4089-B23A-D60BE0BE7C1F}"/>
+    <hyperlink ref="J148" r:id="rId146" xr:uid="{7B548F89-B4CA-4252-9339-150E0841DCFB}"/>
+    <hyperlink ref="J149" r:id="rId147" xr:uid="{6F60B790-6CA8-4FD0-AACA-DEFF2E0CAB62}"/>
+    <hyperlink ref="J150" r:id="rId148" xr:uid="{6AA1F90B-97AE-49C7-8D87-E01388136CB1}"/>
+    <hyperlink ref="J151" r:id="rId149" xr:uid="{7A1787A1-8762-4FCA-A843-890BB27BF007}"/>
+    <hyperlink ref="J152" r:id="rId150" xr:uid="{68AA25FB-0E37-4762-AB76-EA001F2BC69A}"/>
+    <hyperlink ref="J153" r:id="rId151" xr:uid="{24DEA907-D3E9-4446-92BE-D4914B4E32CA}"/>
+    <hyperlink ref="J154" r:id="rId152" xr:uid="{1EE402CD-40E0-44A1-B1B3-BFE5BB9F2A50}"/>
+    <hyperlink ref="J155" r:id="rId153" xr:uid="{4B6E1504-9D08-4F7E-AF6C-BA81BD4BBE56}"/>
+    <hyperlink ref="J156" r:id="rId154" xr:uid="{C9D8FA1B-D461-4251-8A0F-2F5D84B783C5}"/>
+    <hyperlink ref="J157" r:id="rId155" xr:uid="{FEA4E30D-9F5B-4936-8694-22E1636A81E3}"/>
+    <hyperlink ref="J158" r:id="rId156" xr:uid="{54E7F4B8-E786-4780-B180-B7F06366B279}"/>
+    <hyperlink ref="J159" r:id="rId157" xr:uid="{DFF559DF-C5D7-45D2-A6A4-72965C7FF6E5}"/>
+    <hyperlink ref="J160" r:id="rId158" xr:uid="{56449F9D-1493-4FAD-ABE1-BF71D72CE2A3}"/>
+    <hyperlink ref="J161" r:id="rId159" xr:uid="{0C4F5B86-C939-4066-AD46-23C3E311B605}"/>
+    <hyperlink ref="J162" r:id="rId160" xr:uid="{10AA984C-51C1-4FE3-A322-02A5A1746981}"/>
+    <hyperlink ref="J163" r:id="rId161" xr:uid="{143D1E2B-6021-474B-9E7A-2EA19C8E1536}"/>
+    <hyperlink ref="J164" r:id="rId162" xr:uid="{E19EA11C-7F25-45FE-AFD3-6B8D902108D1}"/>
+    <hyperlink ref="J165" r:id="rId163" xr:uid="{58D75848-FDF9-4973-A46C-9F13FB15E8E0}"/>
+    <hyperlink ref="J166" r:id="rId164" xr:uid="{F3676CAE-F4AC-43CC-A719-607DDBD58A69}"/>
+    <hyperlink ref="J167" r:id="rId165" xr:uid="{ABB778E2-0846-4261-B00B-DE4112F9CA94}"/>
+    <hyperlink ref="J168" r:id="rId166" xr:uid="{84C72833-53A2-482C-8892-BAAF2FAE3022}"/>
+    <hyperlink ref="J169" r:id="rId167" xr:uid="{C5E529A7-E831-41BC-BAC8-44061BD4B575}"/>
+    <hyperlink ref="J170" r:id="rId168" xr:uid="{33EAACF9-0008-43EB-90D8-B7BD1B3D34FA}"/>
+    <hyperlink ref="J171" r:id="rId169" xr:uid="{FC5CBEC1-4200-4C7A-863B-55D06AC837A2}"/>
+    <hyperlink ref="J172" r:id="rId170" xr:uid="{3FBA21BA-0548-404D-AE54-521F0915D3D0}"/>
+    <hyperlink ref="J173" r:id="rId171" xr:uid="{0685E4FF-D8BF-4A96-8509-49E097DCFE12}"/>
+    <hyperlink ref="J174" r:id="rId172" xr:uid="{A16A02C2-AC85-427B-B864-300C081779B7}"/>
+    <hyperlink ref="J175" r:id="rId173" xr:uid="{1A9AA6E7-ABEB-4BB6-9067-7B017183511F}"/>
+    <hyperlink ref="J176" r:id="rId174" xr:uid="{7573F0A9-4412-434A-AB5E-226DC82BFCDC}"/>
+    <hyperlink ref="J177" r:id="rId175" xr:uid="{495EF86E-3C0D-4604-AAE9-D8DC196ED3DB}"/>
+    <hyperlink ref="J178" r:id="rId176" xr:uid="{9656F13C-7499-4294-A7D0-78CB58182980}"/>
+    <hyperlink ref="J179" r:id="rId177" xr:uid="{30343F7B-81E4-41ED-819A-DC5E62886B74}"/>
+    <hyperlink ref="J180" r:id="rId178" xr:uid="{F2125D6D-C790-4BB6-B6C8-99DC9443EC23}"/>
+    <hyperlink ref="J181" r:id="rId179" xr:uid="{80AC7711-F712-42D0-88A8-A02E090F9F2C}"/>
+    <hyperlink ref="J182" r:id="rId180" xr:uid="{2FABC7D2-7459-4848-B17E-BB82198F0B09}"/>
+    <hyperlink ref="J183" r:id="rId181" xr:uid="{1F35764E-C8EF-4F45-9F27-C08BDD382E42}"/>
+    <hyperlink ref="J184" r:id="rId182" xr:uid="{3CBD31EC-B882-47BD-9ACC-6FC89AF65489}"/>
+    <hyperlink ref="J185" r:id="rId183" xr:uid="{BDFCA46C-A610-464D-AAF3-27ADFE26E4B3}"/>
+    <hyperlink ref="J186" r:id="rId184" xr:uid="{CBA64A98-8A48-44B1-B6CF-072C6E0B6711}"/>
+    <hyperlink ref="J187" r:id="rId185" xr:uid="{91B76B4E-8195-492F-A61B-78A622BBE8AC}"/>
+    <hyperlink ref="J188" r:id="rId186" xr:uid="{6C820852-F060-4F4F-9515-CDAB8A3E26A0}"/>
+    <hyperlink ref="J189" r:id="rId187" xr:uid="{CEEDAA22-3CB1-4B40-BEB6-56E42F87A544}"/>
+    <hyperlink ref="J190" r:id="rId188" xr:uid="{76FC332A-6155-4AC1-9F75-61BEA719EBF8}"/>
+    <hyperlink ref="J191" r:id="rId189" xr:uid="{45A31A9C-98BB-4C11-AD82-361F942FBABF}"/>
+    <hyperlink ref="J192" r:id="rId190" xr:uid="{3D5DD5AE-E988-45AB-83D8-21EDEE63D10C}"/>
+    <hyperlink ref="J193" r:id="rId191" xr:uid="{B2D86C9B-F90B-4A5E-BA38-EF6B278AABE6}"/>
+    <hyperlink ref="J194" r:id="rId192" xr:uid="{983B9EC8-A377-4231-A4DC-C3534E1D4E44}"/>
+    <hyperlink ref="J195" r:id="rId193" xr:uid="{DF4DDE09-0A1B-4A11-9F46-A228683AC64B}"/>
+    <hyperlink ref="J196" r:id="rId194" xr:uid="{9C77CC07-014D-4C13-808B-FFA5B7B6150F}"/>
+    <hyperlink ref="J197" r:id="rId195" xr:uid="{354145C6-6EEC-4D44-8664-4FB70011AAB1}"/>
+    <hyperlink ref="J198" r:id="rId196" xr:uid="{A07155EE-8B73-4987-A7AF-28EF5FB5C834}"/>
+    <hyperlink ref="J199" r:id="rId197" xr:uid="{313E7FD4-F868-481F-A415-44BA0AF92236}"/>
+    <hyperlink ref="J200" r:id="rId198" xr:uid="{236E9812-EDD3-4187-89A9-BA62DC9831A9}"/>
+    <hyperlink ref="J201" r:id="rId199" xr:uid="{F6250321-3A54-48BE-96D4-F0D75BEB0997}"/>
+    <hyperlink ref="J202" r:id="rId200" xr:uid="{88ECD812-748D-48C1-8E09-9814B689BA21}"/>
+    <hyperlink ref="J203" r:id="rId201" xr:uid="{333A90F5-8A76-47A2-BC6E-DB39953D8B1F}"/>
+    <hyperlink ref="J204" r:id="rId202" xr:uid="{3B574C33-E927-42DA-A128-AC80E934AC9A}"/>
+    <hyperlink ref="J205" r:id="rId203" xr:uid="{0C71E908-598A-42ED-987F-B23405CC098B}"/>
+    <hyperlink ref="J206" r:id="rId204" xr:uid="{5C28D4E9-BFBE-4604-AA7A-5EFAB8B8B140}"/>
+    <hyperlink ref="J207" r:id="rId205" xr:uid="{191A1353-3E8A-4B0A-8B3C-0BBCBBC7291F}"/>
+    <hyperlink ref="J208" r:id="rId206" xr:uid="{004F5477-A582-4EFA-B6D6-7268C5AE9A5A}"/>
+    <hyperlink ref="J209" r:id="rId207" xr:uid="{F565B9C9-F300-41FA-8461-17042D6B2A28}"/>
+    <hyperlink ref="J210" r:id="rId208" xr:uid="{2D3679ED-2D37-471D-BE54-9B0A9C43F16D}"/>
+    <hyperlink ref="J211" r:id="rId209" xr:uid="{2FD1FC19-670F-4029-BA07-9B847B41B45E}"/>
+    <hyperlink ref="J212" r:id="rId210" xr:uid="{1CFB0B0F-C679-4F51-BFA6-0CCE96F04ADD}"/>
+    <hyperlink ref="J213" r:id="rId211" xr:uid="{7E6DF49B-2A29-4AD4-9B6C-C07681002894}"/>
+    <hyperlink ref="J214" r:id="rId212" xr:uid="{B853F0A6-6363-4F4A-A3C0-51248B8567D4}"/>
+    <hyperlink ref="J215" r:id="rId213" xr:uid="{FC190812-3616-472F-9228-06BD816FEED9}"/>
+    <hyperlink ref="J216" r:id="rId214" xr:uid="{14147EE6-36FA-4CD6-A8D9-2C3A5F64001B}"/>
+    <hyperlink ref="J217" r:id="rId215" xr:uid="{0F85E1B7-333A-4E1D-984A-2D6FC82EFED9}"/>
+    <hyperlink ref="J218" r:id="rId216" xr:uid="{C6E2FB59-CB84-4317-A987-D8DD7982E45A}"/>
+    <hyperlink ref="J219" r:id="rId217" xr:uid="{3A7EB573-3C57-4828-BB3C-2F807C183E2A}"/>
+    <hyperlink ref="J220" r:id="rId218" xr:uid="{970D2DF2-EC23-4EA9-A9A9-D8D5E090060E}"/>
+    <hyperlink ref="J221" r:id="rId219" xr:uid="{B6DCB784-A7C8-43C9-9628-FF670A11F0F4}"/>
+    <hyperlink ref="J222" r:id="rId220" xr:uid="{C89696D0-3AB3-4FD0-8430-FC97F56720E5}"/>
+    <hyperlink ref="J223" r:id="rId221" xr:uid="{72EDD9AB-752E-49B7-938E-76010B9D1605}"/>
+    <hyperlink ref="J224" r:id="rId222" xr:uid="{944B55CF-737E-42AE-8C5A-F7A0B712A7B1}"/>
+    <hyperlink ref="J225" r:id="rId223" xr:uid="{22DB923E-E4A8-48D9-930C-D802CDA367FA}"/>
+    <hyperlink ref="J226" r:id="rId224" xr:uid="{24BFC65E-5A20-49D9-81FC-B1A2BEB95FF7}"/>
+    <hyperlink ref="J227" r:id="rId225" xr:uid="{BB39F19B-CAE5-4A16-9C7A-C960FC29EA1C}"/>
+    <hyperlink ref="J228" r:id="rId226" xr:uid="{3F82BB99-3664-4453-BF5F-A358A26E48A5}"/>
+    <hyperlink ref="J229" r:id="rId227" xr:uid="{B0611603-0405-453A-AEFB-0190057E67BD}"/>
+    <hyperlink ref="J230" r:id="rId228" xr:uid="{3F33B65E-8BD6-46B7-BBF9-56B5D1249FD8}"/>
+    <hyperlink ref="J231" r:id="rId229" xr:uid="{B30A0493-9E33-416A-9326-1095FCC6A5C6}"/>
+    <hyperlink ref="J232" r:id="rId230" xr:uid="{5886C66D-7933-4CE5-80C0-08E868DF80C3}"/>
+    <hyperlink ref="J233" r:id="rId231" xr:uid="{21555B9B-7E24-4C27-A0B6-7724F021CFA8}"/>
+    <hyperlink ref="J234" r:id="rId232" xr:uid="{2F37B192-9109-4032-AD56-C115C74DC803}"/>
+    <hyperlink ref="J235" r:id="rId233" xr:uid="{28FA1AB0-C440-4792-A932-D984027A81EE}"/>
+    <hyperlink ref="J236" r:id="rId234" xr:uid="{09B48248-3D1B-47C3-94BC-DEE9D4A268E7}"/>
+    <hyperlink ref="J237" r:id="rId235" xr:uid="{C18CED10-1384-4A86-83A0-4B8EAC26EA34}"/>
+    <hyperlink ref="J238" r:id="rId236" xr:uid="{A769A0CA-7A39-4691-9621-5014FFEA16D4}"/>
+    <hyperlink ref="J239" r:id="rId237" xr:uid="{BEB162E8-C7D0-4F00-ACC6-119B05EA8F5F}"/>
+    <hyperlink ref="J240" r:id="rId238" xr:uid="{2F06D38F-BAFD-4128-971C-E7004D3D8E6B}"/>
+    <hyperlink ref="J241" r:id="rId239" xr:uid="{08AC217F-76A3-4423-AEF8-180806A0018A}"/>
+    <hyperlink ref="J242" r:id="rId240" xr:uid="{67C2E519-989D-43FF-BD99-96463015B1EF}"/>
+    <hyperlink ref="J243" r:id="rId241" xr:uid="{CA2A49AF-A4DD-40F9-B1CB-205FFBB54ADF}"/>
+    <hyperlink ref="J244" r:id="rId242" xr:uid="{A134E42A-8F7B-4266-AA96-955CC75156C7}"/>
+    <hyperlink ref="J245" r:id="rId243" xr:uid="{C518E771-B193-4ECE-8EB1-2A99DB915E76}"/>
+    <hyperlink ref="J246" r:id="rId244" xr:uid="{BD086BC2-424E-4E35-9731-B21D327C3328}"/>
+    <hyperlink ref="J247" r:id="rId245" xr:uid="{580FF29F-FAAA-4C39-8426-1D47DEECB503}"/>
+    <hyperlink ref="J248" r:id="rId246" xr:uid="{5E65D02B-E4BC-4C04-859E-4071BC76266C}"/>
+    <hyperlink ref="J249" r:id="rId247" xr:uid="{382D9F91-9AD8-4B8F-8B10-B0EC6C521EF5}"/>
+    <hyperlink ref="J250" r:id="rId248" xr:uid="{06D2C6C2-C747-4054-800B-CB47A9E14398}"/>
+    <hyperlink ref="J251" r:id="rId249" xr:uid="{68BD511A-5161-4B77-98BB-027EDAA72AC9}"/>
+    <hyperlink ref="J252" r:id="rId250" xr:uid="{7FC5F62B-3A05-48D1-9364-8EA796924337}"/>
+    <hyperlink ref="J253" r:id="rId251" xr:uid="{4C3CC58D-9C6F-42A3-9E16-3E00BF46269B}"/>
+    <hyperlink ref="J254" r:id="rId252" xr:uid="{663C6445-DA4B-4420-9CEB-7F88FCF81F8D}"/>
+    <hyperlink ref="J255" r:id="rId253" xr:uid="{8BE80FF9-A9DB-4097-A926-65BC9F1445CB}"/>
+    <hyperlink ref="J256" r:id="rId254" xr:uid="{BFAA6BAF-E03A-4BAC-B033-4FBA24D49444}"/>
+    <hyperlink ref="J257" r:id="rId255" xr:uid="{A6565FC9-0DDD-4168-8311-1B210FAEECA2}"/>
+    <hyperlink ref="J258" r:id="rId256" xr:uid="{5CE85941-E53D-4F65-BBDB-38D947FEE441}"/>
+    <hyperlink ref="J259" r:id="rId257" xr:uid="{7CCB82F2-8678-463A-A65D-27A91677ECEC}"/>
+    <hyperlink ref="J260" r:id="rId258" xr:uid="{3E372C63-9F2C-4EB6-A059-521E2624FFF6}"/>
+    <hyperlink ref="J261" r:id="rId259" xr:uid="{226932E1-5E0E-4F0A-B971-057200A03CE2}"/>
+    <hyperlink ref="J262" r:id="rId260" xr:uid="{E731221B-DFBB-4F0A-B039-8EB2C2BB9F84}"/>
+    <hyperlink ref="J263" r:id="rId261" xr:uid="{7C9D2C52-A1C3-400E-84DA-21048BE7311E}"/>
+    <hyperlink ref="J264" r:id="rId262" xr:uid="{A376E742-6840-485D-9A63-4FB51F531DFA}"/>
+    <hyperlink ref="J265" r:id="rId263" xr:uid="{D0761717-E5AE-477F-ACC2-B15E7FF1A11F}"/>
+    <hyperlink ref="J266" r:id="rId264" xr:uid="{2AE91F09-A238-441F-AEFD-C9368078A0C2}"/>
+    <hyperlink ref="J267" r:id="rId265" xr:uid="{D97E0B1E-B986-4DAD-9AFA-C870C88BC2CA}"/>
+    <hyperlink ref="J268" r:id="rId266" xr:uid="{E27B4499-4C2B-4C5A-8FF8-C8E624ECD5EE}"/>
+    <hyperlink ref="J269" r:id="rId267" xr:uid="{5F8DF4DA-5C1B-4F9C-93C5-4910F9D37A73}"/>
+    <hyperlink ref="J270" r:id="rId268" xr:uid="{18F87BB5-C7B1-4AD9-A8F6-C6AFF5952EB9}"/>
+    <hyperlink ref="J271" r:id="rId269" xr:uid="{E1D3FD1A-0938-4019-8854-8A647A80B4FA}"/>
+    <hyperlink ref="J272" r:id="rId270" xr:uid="{1EB24D73-4CE2-4010-9084-9B1E4AD26E4A}"/>
+    <hyperlink ref="J273" r:id="rId271" xr:uid="{7DFA414D-3802-4D38-B6E3-2FE413425CAC}"/>
+    <hyperlink ref="J274" r:id="rId272" xr:uid="{EE9F8B43-76FA-4097-B650-3378438E6573}"/>
+    <hyperlink ref="J275" r:id="rId273" xr:uid="{81A9B1BF-D4BC-4374-A42E-A51532D8F72F}"/>
+    <hyperlink ref="J276" r:id="rId274" xr:uid="{FF243D60-4452-474F-BED0-2D02D7FFAFE9}"/>
+    <hyperlink ref="J277" r:id="rId275" xr:uid="{9FE4F3F5-F0B1-4566-82BE-7F1A6D5C774E}"/>
+    <hyperlink ref="J278" r:id="rId276" xr:uid="{AC67CEA9-691C-414C-8824-47DE6E110E25}"/>
+    <hyperlink ref="J279" r:id="rId277" xr:uid="{B7C00E82-F2CE-41DA-947A-94877D96164A}"/>
+    <hyperlink ref="J280" r:id="rId278" xr:uid="{3C59C29A-5D81-4CB5-A06E-F924D04530E2}"/>
+    <hyperlink ref="J281" r:id="rId279" xr:uid="{C3A628DF-0D7A-4C9C-B221-CF296926A5DD}"/>
+    <hyperlink ref="J282" r:id="rId280" xr:uid="{9F0A0629-5571-4D06-B581-9C1092015FC5}"/>
+    <hyperlink ref="J283" r:id="rId281" xr:uid="{F9FF2E90-0F80-4DFD-A5FB-2B27919389F1}"/>
+    <hyperlink ref="J284" r:id="rId282" xr:uid="{5C993725-F19C-4B42-B79C-EA6501AA9357}"/>
+    <hyperlink ref="J285" r:id="rId283" xr:uid="{706BD19F-20F3-40D9-A013-ADFCD5DEA902}"/>
+    <hyperlink ref="J286" r:id="rId284" xr:uid="{B393AEB3-EDF4-4DE3-ACBF-348C7E485E51}"/>
+    <hyperlink ref="J287" r:id="rId285" xr:uid="{B2125C51-A3DF-43FA-A740-2C4A35ED3569}"/>
+    <hyperlink ref="J288" r:id="rId286" xr:uid="{4C288435-E03B-4DEC-946B-4361DECAA207}"/>
+    <hyperlink ref="J289" r:id="rId287" xr:uid="{BE536626-E05C-4E45-A860-8A5A170A64B6}"/>
+    <hyperlink ref="J290" r:id="rId288" xr:uid="{C2B69086-563E-427F-BA27-D0D01DF06A1C}"/>
+    <hyperlink ref="J291" r:id="rId289" xr:uid="{75B84BE8-3032-4588-A346-6E15D8D47C23}"/>
+    <hyperlink ref="J292" r:id="rId290" xr:uid="{B73856CF-0CA6-46EF-A395-E8042065317E}"/>
+    <hyperlink ref="J293" r:id="rId291" xr:uid="{249A21C8-721F-4A46-8C89-C03017A46564}"/>
+    <hyperlink ref="J294" r:id="rId292" xr:uid="{47E2C2E3-2DB1-4AE8-88E0-225E4E58A16C}"/>
+    <hyperlink ref="J295" r:id="rId293" xr:uid="{28FDB2F4-4407-4B8B-8256-E33CB1FAF703}"/>
+    <hyperlink ref="J296" r:id="rId294" xr:uid="{EDFF534F-2DD0-4D4D-B31A-59774B14313E}"/>
+    <hyperlink ref="J297" r:id="rId295" xr:uid="{CC9AE742-D23E-4A60-B635-761758809BD4}"/>
+    <hyperlink ref="J298" r:id="rId296" xr:uid="{CE4594AD-5784-4F48-8B15-D0982AF95BAE}"/>
+    <hyperlink ref="J299" r:id="rId297" xr:uid="{46C1A42A-7CE6-4C12-9EF4-57FDFBA5E5A2}"/>
+    <hyperlink ref="J300" r:id="rId298" xr:uid="{D462BB64-59AD-475E-9FEF-0350422CD03B}"/>
+    <hyperlink ref="J301" r:id="rId299" xr:uid="{14FF28D6-28C2-4893-8691-C717288750FE}"/>
+    <hyperlink ref="J302" r:id="rId300" xr:uid="{FDEE90D9-37A9-43CC-B35B-B4306B8A2249}"/>
+    <hyperlink ref="J303" r:id="rId301" xr:uid="{82B2326E-0008-447B-85C3-510FEB3D6AA5}"/>
+    <hyperlink ref="J304" r:id="rId302" xr:uid="{BB5BB303-40D4-4E61-899D-0D93A746DC64}"/>
+    <hyperlink ref="J305" r:id="rId303" xr:uid="{C2BE1602-A043-42EE-91DB-DCECC23BCEB8}"/>
+    <hyperlink ref="J306" r:id="rId304" xr:uid="{429D6CC3-F903-49BB-B81D-C87FB0093140}"/>
+    <hyperlink ref="J307" r:id="rId305" xr:uid="{D9806321-BC17-44DF-A4A6-BCB1BB80C462}"/>
+    <hyperlink ref="J308" r:id="rId306" xr:uid="{661E7BEB-765C-4189-849E-D09941EAEC82}"/>
+    <hyperlink ref="J309" r:id="rId307" xr:uid="{0F421754-A52F-4D16-BD4C-63AEBA6CE6FE}"/>
+    <hyperlink ref="J310" r:id="rId308" xr:uid="{9C904C46-C4E4-4509-A6D3-BCD039A91D3F}"/>
+    <hyperlink ref="J311" r:id="rId309" xr:uid="{E2464EDD-C651-44AB-AE3B-715AB4BD141B}"/>
+    <hyperlink ref="J312" r:id="rId310" xr:uid="{414B356C-B510-4EBB-891E-5C5FDADB58C3}"/>
+    <hyperlink ref="J313" r:id="rId311" xr:uid="{7AF13C64-64DB-4042-9AE2-C933A489906C}"/>
+    <hyperlink ref="J314" r:id="rId312" xr:uid="{BA58ACCD-B39A-4B55-9655-E64918C3175A}"/>
+    <hyperlink ref="J315" r:id="rId313" xr:uid="{BF8A1D43-CB93-4F83-AA31-18C776C0B8B9}"/>
+    <hyperlink ref="J316" r:id="rId314" xr:uid="{430381CD-27E6-4B7A-B2D6-ED2974814F70}"/>
+    <hyperlink ref="J317" r:id="rId315" xr:uid="{5A599516-57D5-4B5A-B31D-1CBF1B5A4BB3}"/>
+    <hyperlink ref="J318" r:id="rId316" xr:uid="{AF9A22ED-9D58-408C-8D9C-E6544509FF79}"/>
+    <hyperlink ref="J319" r:id="rId317" xr:uid="{79A32BCC-19BC-4F5F-A2C9-EB1A88448EC9}"/>
+    <hyperlink ref="J320" r:id="rId318" xr:uid="{ECADDAD6-81DD-45D4-8208-E6E3908D5062}"/>
+    <hyperlink ref="J321" r:id="rId319" xr:uid="{8CF53B02-AC1C-4297-9E00-9E4B3AFB5F6E}"/>
+    <hyperlink ref="J322" r:id="rId320" xr:uid="{0D834CCA-5087-4364-9A59-5C802F4491A3}"/>
+    <hyperlink ref="J323" r:id="rId321" xr:uid="{2C100A43-4D07-4F4B-A5E8-D45A806BCAB7}"/>
+    <hyperlink ref="J324" r:id="rId322" xr:uid="{1AB38102-0AA3-4497-BED0-6F6D37D6D389}"/>
+    <hyperlink ref="J325" r:id="rId323" xr:uid="{9B645189-B5DC-4A7A-8ABB-4ADEB113B96B}"/>
+    <hyperlink ref="J326" r:id="rId324" xr:uid="{0046402C-F81B-4369-821F-296F9DB9E205}"/>
+    <hyperlink ref="J327" r:id="rId325" xr:uid="{85724B61-8521-4E40-BA8C-3559F1D0F4D7}"/>
+    <hyperlink ref="J328" r:id="rId326" xr:uid="{AF80313E-0431-4C98-9FC2-7C9C122ED274}"/>
+    <hyperlink ref="J329" r:id="rId327" xr:uid="{3D8826F1-EA4B-455D-AA89-72D34F2AA306}"/>
+    <hyperlink ref="J330" r:id="rId328" xr:uid="{3C97D227-D601-4ACD-9ED2-606427FF3621}"/>
+    <hyperlink ref="J331" r:id="rId329" xr:uid="{0D1CEC1D-8A9E-4DF3-A1DC-1BB98DCBE804}"/>
+    <hyperlink ref="J332" r:id="rId330" xr:uid="{AD69071A-4BA8-48E5-A3CD-CAA4E93AC521}"/>
+    <hyperlink ref="J333" r:id="rId331" xr:uid="{133843BB-E09B-4B59-8C3B-F691F51CFB64}"/>
+    <hyperlink ref="J334" r:id="rId332" xr:uid="{81058F32-64E7-41E1-809F-03D836DB286F}"/>
+    <hyperlink ref="J335" r:id="rId333" xr:uid="{014CD635-B523-4812-972D-3B47251713E2}"/>
+    <hyperlink ref="J336" r:id="rId334" xr:uid="{6B0643C3-9CEF-4125-B231-9AEAAA6846FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16491,13 +16492,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -16505,16 +16506,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -16535,10 +16536,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -16546,7 +16547,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
